--- a/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
+++ b/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>Semantics</t>
   </si>
@@ -43,15 +43,15 @@
     <t>strident</t>
   </si>
   <si>
+    <t>STRIDENT</t>
+  </si>
+  <si>
+    <t>NOT_STRIDENT</t>
+  </si>
+  <si>
     <t>NOT_APPLICABLE</t>
   </si>
   <si>
-    <t>NOT_STRIDENT</t>
-  </si>
-  <si>
-    <t>STRIDENT</t>
-  </si>
-  <si>
     <t>placeApproximate</t>
   </si>
   <si>
@@ -70,33 +70,33 @@
     <t>backness</t>
   </si>
   <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
     <t>BACK</t>
   </si>
   <si>
     <t>FRONT</t>
   </si>
   <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
     <t>semivowel</t>
   </si>
   <si>
+    <t>NOT_SEMIVOWEL</t>
+  </si>
+  <si>
     <t>SEMIVOWEL</t>
   </si>
   <si>
-    <t>NOT_SEMIVOWEL</t>
-  </si>
-  <si>
     <t>lateral</t>
   </si>
   <si>
+    <t>LATERAL</t>
+  </si>
+  <si>
     <t>NOT_LATERAL</t>
   </si>
   <si>
-    <t>LATERAL</t>
-  </si>
-  <si>
     <t>rhotics</t>
   </si>
   <si>
@@ -112,30 +112,30 @@
     <t>mannerPrecise</t>
   </si>
   <si>
+    <t>PLOSIVE</t>
+  </si>
+  <si>
+    <t>FRICATIVE</t>
+  </si>
+  <si>
+    <t>AFFRICATE</t>
+  </si>
+  <si>
+    <t>VOWEL</t>
+  </si>
+  <si>
+    <t>TAP_FLAP</t>
+  </si>
+  <si>
     <t>TRILL</t>
   </si>
   <si>
-    <t>TAP_FLAP</t>
-  </si>
-  <si>
-    <t>FRICATIVE</t>
+    <t>APPROXIMANT</t>
   </si>
   <si>
     <t>NASAL</t>
   </si>
   <si>
-    <t>AFFRICATE</t>
-  </si>
-  <si>
-    <t>PLOSIVE</t>
-  </si>
-  <si>
-    <t>VOWEL</t>
-  </si>
-  <si>
-    <t>APPROXIMANT</t>
-  </si>
-  <si>
     <t>continuant</t>
   </si>
   <si>
@@ -160,16 +160,25 @@
     <t>ALVEOLAR</t>
   </si>
   <si>
+    <t>UVULAR</t>
+  </si>
+  <si>
+    <t>LABIODENTAL</t>
+  </si>
+  <si>
+    <t>VELAR</t>
+  </si>
+  <si>
     <t>PALATAL</t>
   </si>
   <si>
-    <t>VELAR</t>
-  </si>
-  <si>
-    <t>UVULAR</t>
-  </si>
-  <si>
-    <t>LABIODENTAL</t>
+    <t>BILABIAL</t>
+  </si>
+  <si>
+    <t>RETROFLEX</t>
+  </si>
+  <si>
+    <t>EPIGLOTTAL</t>
   </si>
   <si>
     <t>GLOTTAL</t>
@@ -181,15 +190,6 @@
     <t>DENTAL</t>
   </si>
   <si>
-    <t>BILABIAL</t>
-  </si>
-  <si>
-    <t>EPIGLOTTAL</t>
-  </si>
-  <si>
-    <t>RETROFLEX</t>
-  </si>
-  <si>
     <t>roundness</t>
   </si>
   <si>
@@ -205,43 +205,43 @@
     <t>stricture</t>
   </si>
   <si>
+    <t>HIGH</t>
+  </si>
+  <si>
     <t>LOWEST</t>
   </si>
   <si>
+    <t>MID_HIGH</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
     <t>NOT_SELECTED</t>
   </si>
   <si>
-    <t>MID_HIGH</t>
-  </si>
-  <si>
-    <t>MID</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>LOW_MID</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
+    <t>NEAR_CLOSE</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>OPEN_MID</t>
+  </si>
+  <si>
+    <t>CLOSE_MID</t>
+  </si>
+  <si>
     <t>NEAR_OPEN</t>
-  </si>
-  <si>
-    <t>CLOSE_MID</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>OPEN_MID</t>
-  </si>
-  <si>
-    <t>NEAR_CLOSE</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX7"/>
+  <dimension ref="A1:BX6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,74 +385,29 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
@@ -460,41 +415,59 @@
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="V3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="X3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Y3" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="AC3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AD3" s="1" t="s">
         <v>33</v>
       </c>
@@ -516,63 +489,87 @@
       <c r="AJ3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AK3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AL3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="AM3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="AN3" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="AR3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AS3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="AT3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AU3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AV3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="1" t="s">
-        <v>9</v>
+      <c r="BF3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BK3" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="BL3" s="1" t="s">
         <v>64</v>
       </c>
@@ -588,20 +585,23 @@
       <c r="BP3" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="BQ3" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="BR3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>74</v>
@@ -619,55 +619,217 @@
       <c r="D4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>0.944</v>
+      </c>
       <c r="F4" s="1" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AI4" s="1" t="n">
         <v>0.333</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0.111</v>
+      <c r="AJ4" s="1" t="n">
+        <v>0.194</v>
       </c>
       <c r="AK4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="AL4" s="1" t="n">
+        <v>0.722</v>
+      </c>
       <c r="AM4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AN4" s="1" t="n">
         <v>0.139</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="AQ4" s="1" t="n">
+        <v>0.833</v>
+      </c>
       <c r="AR4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="AS4" s="1" t="n">
+        <v>0.833</v>
+      </c>
       <c r="AT4" s="1" t="n">
-        <v>0.639</v>
+        <v>0.722</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AZ4" s="1" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BA4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BD4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="BF4" s="1" t="n">
-        <v>0.417</v>
+        <v>0.444</v>
+      </c>
+      <c r="BG4" s="1" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="BH4" s="1" t="n">
+        <v>0.944</v>
       </c>
       <c r="BI4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="BJ4" s="1" t="n">
+        <v>0.639</v>
+      </c>
       <c r="BK4" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BL4" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="BM4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO4" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>0.333</v>
+      </c>
       <c r="BQ4" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BS4" s="1" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BT4" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BU4" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BW4" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BX4" s="1" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -678,223 +840,220 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.524</v>
+        <v>0.483</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.889</v>
+        <v>0.483</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.958</v>
+        <v>0.067</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.083</v>
+        <v>0.034</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.083</v>
+        <v>0.866</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.091</v>
+        <v>0.154</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.667</v>
+        <v>0.248</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.056</v>
+        <v>0.02</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.443</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.472</v>
+        <v>0.101</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.154</v>
+        <v>0.523</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>0.667</v>
+        <v>0.02</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>0.917</v>
+        <v>0.128</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>0.083</v>
+        <v>0.295</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.035</v>
+        <v>0.0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.926</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.958</v>
+        <v>0.087</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.879</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.167</v>
+        <v>0.0</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.028</v>
+        <v>0.047</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.087</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.167</v>
+        <v>0.832</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.091</v>
+        <v>0.06</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.906</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <v>0.028</v>
+        <v>0.188</v>
       </c>
       <c r="AD5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.101</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>0.167</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0.278</v>
+        <v>0.443</v>
       </c>
       <c r="AG5" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.694</v>
+        <v>0.047</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.128</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.306</v>
+        <v>0.06</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.608</v>
+        <v>0.671</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.806</v>
+        <v>0.295</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.035</v>
+        <v>0.067</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.034</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.028</v>
+        <v>0.866</v>
       </c>
       <c r="AP5" s="1" t="n">
-        <v>0.657</v>
+        <v>0.631</v>
       </c>
       <c r="AQ5" s="1" t="n">
-        <v>0.806</v>
+        <v>0.336</v>
       </c>
       <c r="AR5" s="1" t="n">
-        <v>0.566</v>
+        <v>0.57</v>
       </c>
       <c r="AS5" s="1" t="n">
-        <v>0.889</v>
+        <v>0.396</v>
       </c>
       <c r="AT5" s="1" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="AU5" s="1" t="n">
-        <v>0.111</v>
+        <v>0.013</v>
       </c>
       <c r="AV5" s="1" t="n">
-        <v>0.333</v>
+        <v>0.443</v>
       </c>
       <c r="AW5" s="1" t="n">
-        <v>0.111</v>
+        <v>0.027</v>
       </c>
       <c r="AX5" s="1" t="n">
-        <v>0.028</v>
+        <v>0.067</v>
       </c>
       <c r="AY5" s="1" t="n">
-        <v>0.056</v>
+        <v>0.02</v>
       </c>
       <c r="AZ5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.128</v>
       </c>
       <c r="BA5" s="1" t="n">
-        <v>0.028</v>
+        <v>0.0</v>
       </c>
       <c r="BB5" s="1" t="n">
-        <v>0.306</v>
+        <v>0.0</v>
       </c>
       <c r="BC5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="BD5" s="1" t="n">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="BE5" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF5" s="1" t="n">
-        <v>0.161</v>
+        <v>0.121</v>
       </c>
       <c r="BG5" s="1" t="n">
-        <v>0.722</v>
+        <v>0.322</v>
       </c>
       <c r="BH5" s="1" t="n">
-        <v>0.917</v>
+        <v>0.523</v>
       </c>
       <c r="BI5" s="1" t="n">
-        <v>0.804</v>
+        <v>0.745</v>
       </c>
       <c r="BJ5" s="1" t="n">
-        <v>0.556</v>
+        <v>0.221</v>
       </c>
       <c r="BK5" s="1" t="n">
-        <v>0.49</v>
+        <v>0.188</v>
       </c>
       <c r="BL5" s="1" t="n">
-        <v>0.389</v>
+        <v>0.443</v>
       </c>
       <c r="BM5" s="1" t="n">
         <v>0.0</v>
       </c>
-      <c r="BN5" s="1" t="n">
-        <v>0.167</v>
-      </c>
       <c r="BO5" s="1" t="n">
-        <v>0.694</v>
+        <v>0.107</v>
       </c>
       <c r="BP5" s="1" t="n">
-        <v>0.306</v>
+        <v>0.128</v>
       </c>
       <c r="BQ5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.013</v>
       </c>
       <c r="BR5" s="1" t="n">
-        <v>0.417</v>
+        <v>0.523</v>
       </c>
       <c r="BS5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.134</v>
       </c>
       <c r="BT5" s="1" t="n">
-        <v>0.056</v>
+        <v>0.174</v>
       </c>
       <c r="BU5" s="1" t="n">
-        <v>0.917</v>
+        <v>0.054</v>
       </c>
       <c r="BV5" s="1" t="n">
-        <v>0.083</v>
+        <v>0.013</v>
       </c>
       <c r="BW5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.054</v>
       </c>
       <c r="BX5" s="1" t="n">
-        <v>0.333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -904,390 +1063,220 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2.083</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.476</v>
+        <v>2.0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3.806</v>
+        <v>0.278</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.139</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.021</v>
+        <v>3.583</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>0.361</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="R6" s="1" t="n">
+      <c r="V6" s="1" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AN6" s="1" t="n">
         <v>0.139</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>2.417</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AN6" s="1" t="n">
-        <v>0.958</v>
-      </c>
       <c r="AO6" s="1" t="n">
-        <v>0.007</v>
+        <v>3.583</v>
       </c>
       <c r="AP6" s="1" t="n">
         <v>2.611</v>
       </c>
       <c r="AQ6" s="1" t="n">
-        <v>0.343</v>
+        <v>1.389</v>
       </c>
       <c r="AR6" s="1" t="n">
-        <v>2.25</v>
+        <v>2.361</v>
       </c>
       <c r="AS6" s="1" t="n">
-        <v>0.434</v>
+        <v>1.639</v>
       </c>
       <c r="AT6" s="1" t="n">
-        <v>0.833</v>
+        <v>1.028</v>
       </c>
       <c r="AU6" s="1" t="n">
-        <v>0.028</v>
+        <v>0.056</v>
       </c>
       <c r="AV6" s="1" t="n">
-        <v>0.112</v>
+        <v>1.833</v>
       </c>
       <c r="AW6" s="1" t="n">
-        <v>0.035</v>
+        <v>0.111</v>
       </c>
       <c r="AX6" s="1" t="n">
-        <v>0.007</v>
+        <v>0.278</v>
       </c>
       <c r="AY6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.083</v>
       </c>
       <c r="AZ6" s="1" t="n">
-        <v>0.0</v>
+        <v>0.528</v>
       </c>
       <c r="BA6" s="1" t="n">
-        <v>0.007</v>
+        <v>0.0</v>
       </c>
       <c r="BB6" s="1" t="n">
-        <v>0.084</v>
+        <v>0.0</v>
       </c>
       <c r="BC6" s="1" t="n">
-        <v>0.0</v>
+        <v>0.083</v>
       </c>
       <c r="BD6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.0</v>
       </c>
       <c r="BE6" s="1" t="n">
-        <v>0.49</v>
+        <v>0.0</v>
       </c>
       <c r="BF6" s="1" t="n">
-        <v>0.639</v>
+        <v>0.5</v>
       </c>
       <c r="BG6" s="1" t="n">
-        <v>0.329</v>
+        <v>1.333</v>
       </c>
       <c r="BH6" s="1" t="n">
-        <v>0.51</v>
+        <v>2.167</v>
       </c>
       <c r="BI6" s="1" t="n">
-        <v>3.194</v>
+        <v>3.083</v>
       </c>
       <c r="BJ6" s="1" t="n">
-        <v>0.196</v>
+        <v>0.917</v>
       </c>
       <c r="BK6" s="1" t="n">
-        <v>1.944</v>
+        <v>0.778</v>
       </c>
       <c r="BL6" s="1" t="n">
-        <v>0.119</v>
+        <v>1.833</v>
       </c>
       <c r="BM6" s="1" t="n">
         <v>0.0</v>
       </c>
-      <c r="BN6" s="1" t="n">
-        <v>0.042</v>
-      </c>
       <c r="BO6" s="1" t="n">
-        <v>0.273</v>
+        <v>0.444</v>
       </c>
       <c r="BP6" s="1" t="n">
-        <v>0.077</v>
+        <v>0.528</v>
       </c>
       <c r="BQ6" s="1" t="n">
-        <v>0.0</v>
+        <v>0.056</v>
       </c>
       <c r="BR6" s="1" t="n">
-        <v>0.133</v>
+        <v>2.167</v>
       </c>
       <c r="BS6" s="1" t="n">
-        <v>0.175</v>
+        <v>0.556</v>
       </c>
       <c r="BT6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.722</v>
       </c>
       <c r="BU6" s="1" t="n">
-        <v>0.51</v>
+        <v>0.222</v>
       </c>
       <c r="BV6" s="1" t="n">
-        <v>0.042</v>
+        <v>0.056</v>
       </c>
       <c r="BW6" s="1" t="n">
-        <v>0.0</v>
+        <v>0.222</v>
       </c>
       <c r="BX6" s="1" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" s="1" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1.944</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>3.694</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>1.083</v>
-      </c>
-      <c r="AI7" s="1" t="n">
-        <v>1.944</v>
-      </c>
-      <c r="AJ7" s="1" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AL7" s="1" t="n">
-        <v>1.556</v>
-      </c>
-      <c r="AN7" s="1" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="AO7" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AQ7" s="1" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="AS7" s="1" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="AU7" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AV7" s="1" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="AW7" s="1" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AX7" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AY7" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AZ7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA7" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BB7" s="1" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="BC7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD7" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BE7" s="1" t="n">
-        <v>1.944</v>
-      </c>
-      <c r="BG7" s="1" t="n">
-        <v>1.306</v>
-      </c>
-      <c r="BH7" s="1" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="BJ7" s="1" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="BL7" s="1" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="BM7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN7" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BO7" s="1" t="n">
-        <v>1.083</v>
-      </c>
-      <c r="BP7" s="1" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="BR7" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BS7" s="1" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="BT7" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BU7" s="1" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="BV7" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BW7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1297,6 +1286,24 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="I1:M2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="AA1:AB2"/>
+    <mergeCell ref="AC1:AJ2"/>
+    <mergeCell ref="AK1:AL2"/>
+    <mergeCell ref="AM1:AO2"/>
+    <mergeCell ref="AP1:AQ2"/>
+    <mergeCell ref="AR1:AS2"/>
+    <mergeCell ref="AT1:BE2"/>
+    <mergeCell ref="BF1:BH2"/>
+    <mergeCell ref="BI1:BJ2"/>
+    <mergeCell ref="BK1:BP2"/>
+    <mergeCell ref="BQ1:BX2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
+++ b/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
@@ -43,42 +43,42 @@
     <t>strident</t>
   </si>
   <si>
+    <t>NOT_STRIDENT</t>
+  </si>
+  <si>
     <t>STRIDENT</t>
   </si>
   <si>
-    <t>NOT_STRIDENT</t>
-  </si>
-  <si>
     <t>NOT_APPLICABLE</t>
   </si>
   <si>
     <t>placeApproximate</t>
   </si>
   <si>
+    <t>DORSAL</t>
+  </si>
+  <si>
+    <t>CORONAL</t>
+  </si>
+  <si>
     <t>LABIAL</t>
   </si>
   <si>
-    <t>CORONAL</t>
-  </si>
-  <si>
     <t>LARYNGEAL</t>
   </si>
   <si>
-    <t>DORSAL</t>
-  </si>
-  <si>
     <t>backness</t>
   </si>
   <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
     <t>CENTRAL</t>
   </si>
   <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
     <t>semivowel</t>
   </si>
   <si>
@@ -112,30 +112,30 @@
     <t>mannerPrecise</t>
   </si>
   <si>
+    <t>TAP_FLAP</t>
+  </si>
+  <si>
+    <t>VOWEL</t>
+  </si>
+  <si>
+    <t>AFFRICATE</t>
+  </si>
+  <si>
     <t>PLOSIVE</t>
   </si>
   <si>
+    <t>APPROXIMANT</t>
+  </si>
+  <si>
+    <t>TRILL</t>
+  </si>
+  <si>
+    <t>NASAL</t>
+  </si>
+  <si>
     <t>FRICATIVE</t>
   </si>
   <si>
-    <t>AFFRICATE</t>
-  </si>
-  <si>
-    <t>VOWEL</t>
-  </si>
-  <si>
-    <t>TAP_FLAP</t>
-  </si>
-  <si>
-    <t>TRILL</t>
-  </si>
-  <si>
-    <t>APPROXIMANT</t>
-  </si>
-  <si>
-    <t>NASAL</t>
-  </si>
-  <si>
     <t>continuant</t>
   </si>
   <si>
@@ -157,39 +157,39 @@
     <t>placePrecise</t>
   </si>
   <si>
+    <t>UVULAR</t>
+  </si>
+  <si>
+    <t>RETROFLEX</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>VELAR</t>
+  </si>
+  <si>
+    <t>PALATAL</t>
+  </si>
+  <si>
+    <t>BILABIAL</t>
+  </si>
+  <si>
+    <t>LABIODENTAL</t>
+  </si>
+  <si>
     <t>ALVEOLAR</t>
   </si>
   <si>
-    <t>UVULAR</t>
-  </si>
-  <si>
-    <t>LABIODENTAL</t>
-  </si>
-  <si>
-    <t>VELAR</t>
-  </si>
-  <si>
-    <t>PALATAL</t>
-  </si>
-  <si>
-    <t>BILABIAL</t>
-  </si>
-  <si>
-    <t>RETROFLEX</t>
+    <t>GLOTTAL</t>
+  </si>
+  <si>
+    <t>POSTALVEOLAR</t>
   </si>
   <si>
     <t>EPIGLOTTAL</t>
   </si>
   <si>
-    <t>GLOTTAL</t>
-  </si>
-  <si>
-    <t>POSTALVEOLAR</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
     <t>roundness</t>
   </si>
   <si>
@@ -205,40 +205,40 @@
     <t>stricture</t>
   </si>
   <si>
+    <t>MID_HIGH</t>
+  </si>
+  <si>
     <t>HIGH</t>
   </si>
   <si>
+    <t>NOT_SELECTED</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
     <t>LOWEST</t>
   </si>
   <si>
-    <t>MID_HIGH</t>
-  </si>
-  <si>
-    <t>MID</t>
-  </si>
-  <si>
-    <t>NOT_SELECTED</t>
-  </si>
-  <si>
     <t>LOW_MID</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>OPEN_MID</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>CLOSE_MID</t>
+  </si>
+  <si>
     <t>NEAR_CLOSE</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>OPEN_MID</t>
-  </si>
-  <si>
-    <t>CLOSE_MID</t>
   </si>
   <si>
     <t>NEAR_OPEN</t>
@@ -307,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX6"/>
+  <dimension ref="A1:BX9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -406,28 +406,28 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
@@ -436,10 +436,10 @@
         <v>22</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>25</v>
@@ -454,10 +454,10 @@
         <v>28</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>6</v>
@@ -523,43 +523,43 @@
         <v>48</v>
       </c>
       <c r="AV3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BF3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>6</v>
@@ -589,16 +589,16 @@
         <v>70</v>
       </c>
       <c r="BR3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>66</v>
@@ -620,115 +620,115 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.944</v>
+        <v>0.889</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.222</v>
+        <v>0.083</v>
       </c>
       <c r="G4" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>0.111</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="T4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="1" t="n">
         <v>0.083</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="U4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AG4" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="V4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AH4" s="1" t="n">
-        <v>0.194</v>
+        <v>0.083</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>0.194</v>
+        <v>0.278</v>
       </c>
       <c r="AK4" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>0.722</v>
+        <v>0.806</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>0.139</v>
+        <v>0.167</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>1.0</v>
+        <v>0.111</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>1.0</v>
@@ -740,52 +740,52 @@
         <v>1.0</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>0.833</v>
+        <v>0.861</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>0.722</v>
+        <v>0.028</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0.056</v>
       </c>
       <c r="AV4" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW4" s="1" t="n">
-        <v>0.111</v>
+        <v>0.278</v>
       </c>
       <c r="AX4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.056</v>
       </c>
       <c r="AY4" s="1" t="n">
-        <v>0.083</v>
+        <v>0.417</v>
       </c>
       <c r="AZ4" s="1" t="n">
-        <v>0.472</v>
+        <v>0.056</v>
       </c>
       <c r="BA4" s="1" t="n">
-        <v>0.0</v>
+        <v>0.556</v>
       </c>
       <c r="BB4" s="1" t="n">
-        <v>0.0</v>
+        <v>0.139</v>
       </c>
       <c r="BC4" s="1" t="n">
-        <v>0.083</v>
+        <v>0.0</v>
       </c>
       <c r="BD4" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE4" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF4" s="1" t="n">
-        <v>0.444</v>
+        <v>0.917</v>
       </c>
       <c r="BG4" s="1" t="n">
-        <v>0.889</v>
+        <v>0.389</v>
       </c>
       <c r="BH4" s="1" t="n">
-        <v>0.944</v>
+        <v>0.917</v>
       </c>
       <c r="BI4" s="1" t="n">
         <v>1.0</v>
@@ -794,40 +794,43 @@
         <v>0.639</v>
       </c>
       <c r="BK4" s="1" t="n">
-        <v>0.583</v>
+        <v>0.0</v>
       </c>
       <c r="BL4" s="1" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="BM4" s="1" t="n">
-        <v>0.0</v>
+        <v>0.333</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>0.278</v>
       </c>
       <c r="BO4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BS4" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BT4" s="1" t="n">
         <v>0.306</v>
       </c>
-      <c r="BP4" s="1" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="BQ4" s="1" t="n">
+      <c r="BU4" s="1" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BV4" s="1" t="n">
         <v>0.056</v>
       </c>
-      <c r="BR4" s="1" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="BS4" s="1" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="BT4" s="1" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="BU4" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BV4" s="1" t="n">
-        <v>0.028</v>
-      </c>
       <c r="BW4" s="1" t="n">
-        <v>0.167</v>
+        <v>0.0</v>
       </c>
       <c r="BX4" s="1" t="n">
         <v>0.0</v>
@@ -840,217 +843,220 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.483</v>
+        <v>0.489</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.067</v>
+        <v>0.029</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.034</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.866</v>
+        <v>0.892</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.154</v>
+        <v>0.453</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.248</v>
+        <v>0.108</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.223</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0.443</v>
+        <v>0.151</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.101</v>
+        <v>0.036</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.523</v>
+        <v>0.144</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.273</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>0.128</v>
+        <v>0.518</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>0.295</v>
+        <v>0.036</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.926</v>
+        <v>0.029</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.942</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.087</v>
+        <v>0.043</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.879</v>
+        <v>0.928</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.047</v>
+        <v>0.022</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>0.087</v>
+        <v>0.906</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.832</v>
+        <v>0.043</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.06</v>
+        <v>0.094</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>0.906</v>
+        <v>0.878</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <v>0.188</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" s="1" t="n">
-        <v>0.101</v>
+        <v>0.453</v>
       </c>
       <c r="AE5" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0.443</v>
+        <v>0.252</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.072</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.047</v>
+        <v>0.022</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.128</v>
+        <v>0.094</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.671</v>
+        <v>0.604</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.295</v>
+        <v>0.367</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.067</v>
+        <v>0.892</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.034</v>
+        <v>0.05</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.866</v>
+        <v>0.029</v>
       </c>
       <c r="AP5" s="1" t="n">
-        <v>0.631</v>
+        <v>0.619</v>
       </c>
       <c r="AQ5" s="1" t="n">
-        <v>0.336</v>
+        <v>0.353</v>
       </c>
       <c r="AR5" s="1" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="AS5" s="1" t="n">
-        <v>0.396</v>
+        <v>0.446</v>
       </c>
       <c r="AT5" s="1" t="n">
-        <v>0.248</v>
+        <v>0.007</v>
       </c>
       <c r="AU5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="AV5" s="1" t="n">
-        <v>0.443</v>
+        <v>0.0</v>
       </c>
       <c r="AW5" s="1" t="n">
-        <v>0.027</v>
+        <v>0.086</v>
       </c>
       <c r="AX5" s="1" t="n">
-        <v>0.067</v>
+        <v>0.014</v>
       </c>
       <c r="AY5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.137</v>
       </c>
       <c r="AZ5" s="1" t="n">
-        <v>0.128</v>
+        <v>0.014</v>
       </c>
       <c r="BA5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.209</v>
       </c>
       <c r="BB5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.036</v>
       </c>
       <c r="BC5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="BD5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.453</v>
       </c>
       <c r="BE5" s="1" t="n">
         <v>0.0</v>
       </c>
       <c r="BF5" s="1" t="n">
-        <v>0.121</v>
+        <v>0.518</v>
       </c>
       <c r="BG5" s="1" t="n">
-        <v>0.322</v>
+        <v>0.137</v>
       </c>
       <c r="BH5" s="1" t="n">
-        <v>0.523</v>
+        <v>0.317</v>
       </c>
       <c r="BI5" s="1" t="n">
-        <v>0.745</v>
+        <v>0.719</v>
       </c>
       <c r="BJ5" s="1" t="n">
-        <v>0.221</v>
+        <v>0.252</v>
       </c>
       <c r="BK5" s="1" t="n">
-        <v>0.188</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" s="1" t="n">
-        <v>0.443</v>
+        <v>0.252</v>
       </c>
       <c r="BM5" s="1" t="n">
-        <v>0.0</v>
+        <v>0.115</v>
+      </c>
+      <c r="BN5" s="1" t="n">
+        <v>0.079</v>
       </c>
       <c r="BO5" s="1" t="n">
-        <v>0.107</v>
+        <v>0.453</v>
       </c>
       <c r="BP5" s="1" t="n">
-        <v>0.128</v>
+        <v>0.072</v>
       </c>
       <c r="BQ5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.144</v>
       </c>
       <c r="BR5" s="1" t="n">
-        <v>0.523</v>
+        <v>0.014</v>
       </c>
       <c r="BS5" s="1" t="n">
-        <v>0.134</v>
+        <v>0.173</v>
       </c>
       <c r="BT5" s="1" t="n">
-        <v>0.174</v>
+        <v>0.094</v>
       </c>
       <c r="BU5" s="1" t="n">
-        <v>0.054</v>
+        <v>0.518</v>
       </c>
       <c r="BV5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.029</v>
       </c>
       <c r="BW5" s="1" t="n">
-        <v>0.054</v>
+        <v>0.0</v>
       </c>
       <c r="BX5" s="1" t="n">
         <v>0.0</v>
@@ -1063,219 +1069,885 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="P6" s="1" t="n">
         <v>2.0</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AG6" s="1" t="n">
         <v>0.278</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="AH6" s="1" t="n">
         <v>0.083</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="U6" s="1" t="n">
+      <c r="AI6" s="1" t="n">
         <v>0.361</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>3.639</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="1" t="n">
+      <c r="AJ6" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="AN6" s="1" t="n">
         <v>0.194</v>
       </c>
-      <c r="Y6" s="1" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AN6" s="1" t="n">
-        <v>0.139</v>
-      </c>
       <c r="AO6" s="1" t="n">
-        <v>3.583</v>
+        <v>0.111</v>
       </c>
       <c r="AP6" s="1" t="n">
-        <v>2.611</v>
+        <v>2.389</v>
       </c>
       <c r="AQ6" s="1" t="n">
-        <v>1.389</v>
+        <v>1.361</v>
       </c>
       <c r="AR6" s="1" t="n">
-        <v>2.361</v>
+        <v>2.028</v>
       </c>
       <c r="AS6" s="1" t="n">
-        <v>1.639</v>
+        <v>1.722</v>
       </c>
       <c r="AT6" s="1" t="n">
-        <v>1.028</v>
+        <v>0.028</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>0.056</v>
       </c>
       <c r="AV6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AY6" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AZ6" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BA6" s="1" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="BB6" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="BC6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG6" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BH6" s="1" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="BI6" s="1" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="BJ6" s="1" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BK6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL6" s="1" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BM6" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BN6" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BO6" s="1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BP6" s="1" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BR6" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BS6" s="1" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="BT6" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="BU6" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BV6" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BW6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX6" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AZ7" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BA7" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BB7" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BC7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BG7" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BH7" s="1" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="BI7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ7" s="1" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="BK7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL7" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BM7" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BN7" s="1" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BO7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP7" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BR7" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BS7" s="1" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BT7" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BU7" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BV7" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BW7" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BX7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY8" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AZ8" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="BA8" s="1" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="BB8" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BC8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD8" s="1" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="BE8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF8" s="1" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BG8" s="1" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="BH8" s="1" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="BI8" s="1" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="BJ8" s="1" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="BK8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL8" s="1" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="BM8" s="1" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="BN8" s="1" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="BO8" s="1" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="BP8" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="BQ8" s="1" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="BR8" s="1" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="BS8" s="1" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="BT8" s="1" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="BU8" s="1" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BV8" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BW8" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BX8" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>1.833</v>
       </c>
-      <c r="AW6" s="1" t="n">
+      <c r="J9" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AZ9" s="1" t="n">
         <v>0.111</v>
       </c>
-      <c r="AX6" s="1" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AY6" s="1" t="n">
+      <c r="BA9" s="1" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="BB9" s="1" t="n">
         <v>0.083</v>
       </c>
-      <c r="AZ6" s="1" t="n">
+      <c r="BC9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD9" s="1" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="BE9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF9" s="1" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BG9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH9" s="1" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="BI9" s="1" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="BJ9" s="1" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BK9" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" s="1" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="BM9" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BN9" s="1" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="BO9" s="1" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="BP9" s="1" t="n">
         <v>0.528</v>
       </c>
-      <c r="BA6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC6" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="BD6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BF6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BG6" s="1" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="BH6" s="1" t="n">
+      <c r="BQ9" s="1" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BR9" s="1" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="BS9" s="1" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BT9" s="1" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="BU9" s="1" t="n">
         <v>2.167</v>
       </c>
-      <c r="BI6" s="1" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="BJ6" s="1" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="BK6" s="1" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="BL6" s="1" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="BM6" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO6" s="1" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BP6" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BQ6" s="1" t="n">
+      <c r="BV9" s="1" t="n">
         <v>0.056</v>
       </c>
-      <c r="BR6" s="1" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="BS6" s="1" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BT6" s="1" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="BU6" s="1" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="BV6" s="1" t="n">
+      <c r="BW9" s="1" t="n">
         <v>0.056</v>
       </c>
-      <c r="BW6" s="1" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="BX6" s="1" t="n">
+      <c r="BX9" s="1" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
+++ b/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Semantics</t>
   </si>
@@ -37,12 +37,12 @@
     <t>NOT_STRIDENT</t>
   </si>
   <si>
+    <t>NOT_APPLICABLE</t>
+  </si>
+  <si>
     <t>STRIDENT</t>
   </si>
   <si>
-    <t>NOT_APPLICABLE</t>
-  </si>
-  <si>
     <t>placeApproximate</t>
   </si>
   <si>
@@ -61,24 +61,24 @@
     <t>backness</t>
   </si>
   <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
     <t>BACK</t>
   </si>
   <si>
     <t>FRONT</t>
   </si>
   <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
     <t>semivowel</t>
   </si>
   <si>
+    <t>SEMIVOWEL</t>
+  </si>
+  <si>
     <t>NOT_SEMIVOWEL</t>
   </si>
   <si>
-    <t>SEMIVOWEL</t>
-  </si>
-  <si>
     <t>lateral</t>
   </si>
   <si>
@@ -103,42 +103,42 @@
     <t>mannerPrecise</t>
   </si>
   <si>
+    <t>PLOSIVE</t>
+  </si>
+  <si>
+    <t>FRICATIVE</t>
+  </si>
+  <si>
+    <t>VOWEL</t>
+  </si>
+  <si>
+    <t>TRILL</t>
+  </si>
+  <si>
+    <t>AFFRICATE</t>
+  </si>
+  <si>
+    <t>TAP_FLAP</t>
+  </si>
+  <si>
     <t>NASAL</t>
   </si>
   <si>
-    <t>PLOSIVE</t>
-  </si>
-  <si>
     <t>APPROXIMANT</t>
   </si>
   <si>
-    <t>AFFRICATE</t>
-  </si>
-  <si>
-    <t>TRILL</t>
-  </si>
-  <si>
-    <t>FRICATIVE</t>
-  </si>
-  <si>
-    <t>VOWEL</t>
-  </si>
-  <si>
-    <t>TAP_FLAP</t>
-  </si>
-  <si>
     <t>continuant</t>
   </si>
   <si>
     <t>sibilant</t>
   </si>
   <si>
+    <t>NOT_SIBILANT</t>
+  </si>
+  <si>
     <t>SIBILANT</t>
   </si>
   <si>
-    <t>NOT_SIBILANT</t>
-  </si>
-  <si>
     <t>sonorant</t>
   </si>
   <si>
@@ -151,36 +151,36 @@
     <t>VELAR</t>
   </si>
   <si>
+    <t>LABIODENTAL</t>
+  </si>
+  <si>
+    <t>RETROFLEX</t>
+  </si>
+  <si>
     <t>GLOTTAL</t>
   </si>
   <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>EPIGLOTTAL</t>
+  </si>
+  <si>
+    <t>UVULAR</t>
+  </si>
+  <si>
     <t>ALVEOLAR</t>
   </si>
   <si>
+    <t>PALATAL</t>
+  </si>
+  <si>
+    <t>BILABIAL</t>
+  </si>
+  <si>
     <t>POSTALVEOLAR</t>
   </si>
   <si>
-    <t>RETROFLEX</t>
-  </si>
-  <si>
-    <t>UVULAR</t>
-  </si>
-  <si>
-    <t>EPIGLOTTAL</t>
-  </si>
-  <si>
-    <t>BILABIAL</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
-    <t>PALATAL</t>
-  </si>
-  <si>
-    <t>LABIODENTAL</t>
-  </si>
-  <si>
     <t>roundness</t>
   </si>
   <si>
@@ -196,64 +196,76 @@
     <t>stricture</t>
   </si>
   <si>
+    <t>LOW_MID</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOWEST</t>
+  </si>
+  <si>
+    <t>NOT_SELECTED</t>
+  </si>
+  <si>
     <t>MID</t>
   </si>
   <si>
-    <t>NOT_SELECTED</t>
-  </si>
-  <si>
     <t>MID_HIGH</t>
   </si>
   <si>
-    <t>LOW_MID</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>LOWEST</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
+    <t>NEAR_CLOSE</t>
+  </si>
+  <si>
     <t>OPEN</t>
   </si>
   <si>
-    <t>NEAR_CLOSE</t>
+    <t>CLOSE_MID</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
   </si>
   <si>
     <t>NEAR_OPEN</t>
   </si>
   <si>
-    <t>CLOSE_MID</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
     <t>OPEN_MID</t>
   </si>
   <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>% of words with ph-type</t>
+  </si>
+  <si>
+    <t>% of ph with ph-type</t>
+  </si>
+  <si>
+    <t>aver ph per word</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MEAN:</t>
+  </si>
+  <si>
+    <t>AVERAGE:</t>
+  </si>
+  <si>
     <t>leaf</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>% of words with ph-type</t>
-  </si>
-  <si>
-    <t>% of ph with ph-type</t>
-  </si>
-  <si>
-    <t>aver ph per word</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>stone</t>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -311,10 +323,1324 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="878">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="left"/>
@@ -1636,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1741,40 +3067,40 @@
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>23</v>
@@ -1783,10 +3109,10 @@
         <v>25</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>3</v>
@@ -1825,13 +3151,13 @@
         <v>4</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>3</v>
@@ -1852,16 +3178,16 @@
         <v>45</v>
       </c>
       <c r="AV3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>49</v>
@@ -1882,10 +3208,10 @@
         <v>54</v>
       </c>
       <c r="BF3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>57</v>
@@ -1915,25 +3241,25 @@
         <v>65</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>72</v>
@@ -1953,55 +3279,55 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.944</v>
+        <v>0.889</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.111</v>
+        <v>0.083</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.222</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="14" t="n">
-        <v>1.0</v>
+        <v>0.194</v>
       </c>
       <c r="I4" s="17" t="n">
         <v>0.361</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.722</v>
+        <v>0.583</v>
       </c>
       <c r="K4" s="23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="M4" s="29" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="N4" s="32" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="O4" s="35" t="n">
         <v>0.083</v>
       </c>
-      <c r="L4" s="26" t="n">
+      <c r="P4" s="38" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q4" s="41" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="R4" s="44" t="n">
         <v>1.0</v>
       </c>
-      <c r="M4" s="29" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="N4" s="32" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="O4" s="35" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="P4" s="38" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="Q4" s="41" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="R4" s="44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S4" s="47" t="n">
-        <v>0.167</v>
+        <v>0.111</v>
       </c>
       <c r="T4" s="50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" s="53" t="n">
-        <v>0.25</v>
+        <v>0.139</v>
       </c>
       <c r="V4" s="56" t="n">
         <v>1.0</v>
@@ -2010,58 +3336,58 @@
         <v>0.0</v>
       </c>
       <c r="X4" s="62" t="n">
-        <v>0.194</v>
+        <v>0.083</v>
       </c>
       <c r="Y4" s="65" t="n">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" s="68" t="n">
-        <v>1.0</v>
+        <v>0.139</v>
       </c>
       <c r="AA4" s="71" t="n">
-        <v>0.194</v>
+        <v>0.333</v>
       </c>
       <c r="AB4" s="74" t="n">
         <v>1.0</v>
       </c>
       <c r="AC4" s="77" t="n">
-        <v>0.194</v>
+        <v>0.75</v>
       </c>
       <c r="AD4" s="80" t="n">
-        <v>0.583</v>
+        <v>0.278</v>
       </c>
       <c r="AE4" s="83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF4" s="86" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AG4" s="89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" s="95" t="n">
         <v>0.333</v>
       </c>
-      <c r="AF4" s="86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG4" s="89" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AH4" s="92" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AI4" s="95" t="n">
-        <v>1.0</v>
-      </c>
       <c r="AJ4" s="98" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="AK4" s="101" t="n">
         <v>1.0</v>
       </c>
       <c r="AL4" s="104" t="n">
-        <v>0.722</v>
+        <v>0.806</v>
       </c>
       <c r="AM4" s="107" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AN4" s="110" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AO4" s="113" t="n">
         <v>1.0</v>
-      </c>
-      <c r="AN4" s="110" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AO4" s="113" t="n">
-        <v>0.25</v>
       </c>
       <c r="AP4" s="116" t="n">
         <v>1.0</v>
@@ -2073,52 +3399,52 @@
         <v>1.0</v>
       </c>
       <c r="AS4" s="125" t="n">
-        <v>0.833</v>
+        <v>0.861</v>
       </c>
       <c r="AT4" s="128" t="n">
-        <v>0.25</v>
+        <v>0.278</v>
       </c>
       <c r="AU4" s="131" t="n">
-        <v>0.083</v>
+        <v>0.056</v>
       </c>
       <c r="AV4" s="134" t="n">
-        <v>0.722</v>
+        <v>1.0</v>
       </c>
       <c r="AW4" s="137" t="n">
-        <v>0.0</v>
+        <v>0.056</v>
       </c>
       <c r="AX4" s="140" t="n">
-        <v>0.0</v>
+        <v>0.139</v>
       </c>
       <c r="AY4" s="143" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ4" s="146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" s="149" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BB4" s="152" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BC4" s="155" t="n">
         <v>0.056</v>
       </c>
-      <c r="BA4" s="149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB4" s="152" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="BC4" s="155" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BD4" s="158" t="n">
-        <v>0.083</v>
+        <v>0.417</v>
       </c>
       <c r="BE4" s="161" t="n">
-        <v>0.111</v>
+        <v>0.0</v>
       </c>
       <c r="BF4" s="164" t="n">
-        <v>0.444</v>
+        <v>0.917</v>
       </c>
       <c r="BG4" s="167" t="n">
-        <v>0.944</v>
+        <v>0.389</v>
       </c>
       <c r="BH4" s="170" t="n">
-        <v>0.889</v>
+        <v>0.917</v>
       </c>
       <c r="BI4" s="173" t="n">
         <v>1.0</v>
@@ -2127,46 +3453,46 @@
         <v>0.639</v>
       </c>
       <c r="BK4" s="179" t="n">
-        <v>0.306</v>
+        <v>0.25</v>
       </c>
       <c r="BL4" s="182" t="n">
-        <v>0.306</v>
+        <v>0.75</v>
       </c>
       <c r="BM4" s="185" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BN4" s="188" t="n">
         <v>0.333</v>
       </c>
       <c r="BO4" s="191" t="n">
-        <v>0.583</v>
+        <v>0.278</v>
       </c>
       <c r="BP4" s="194" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ4" s="197" t="n">
-        <v>0.028</v>
+        <v>0.0</v>
       </c>
       <c r="BR4" s="200" t="n">
-        <v>0.583</v>
+        <v>0.056</v>
       </c>
       <c r="BS4" s="203" t="n">
-        <v>0.944</v>
+        <v>0.528</v>
       </c>
       <c r="BT4" s="206" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BU4" s="209" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BV4" s="212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW4" s="215" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BX4" s="218" t="n">
         <v>0.056</v>
-      </c>
-      <c r="BU4" s="209" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV4" s="212" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BW4" s="215" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="BX4" s="218" t="n">
-        <v>0.167</v>
       </c>
     </row>
     <row r="5">
@@ -2176,223 +3502,223 @@
         <v>76</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.483</v>
+        <v>0.489</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.067</v>
+        <v>0.892</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.866</v>
+        <v>0.05</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>0.101</v>
+        <v>0.108</v>
       </c>
       <c r="J5" s="21" t="n">
-        <v>0.248</v>
+        <v>0.223</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.02</v>
+        <v>0.453</v>
       </c>
       <c r="L5" s="27" t="n">
-        <v>0.443</v>
+        <v>0.036</v>
       </c>
       <c r="M5" s="30" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="N5" s="33" t="n">
-        <v>0.128</v>
+        <v>0.518</v>
       </c>
       <c r="O5" s="36" t="n">
-        <v>0.295</v>
+        <v>0.036</v>
       </c>
       <c r="P5" s="39" t="n">
-        <v>0.02</v>
+        <v>0.144</v>
       </c>
       <c r="Q5" s="42" t="n">
-        <v>0.523</v>
+        <v>0.273</v>
       </c>
       <c r="R5" s="45" t="n">
-        <v>0.0</v>
+        <v>0.942</v>
       </c>
       <c r="S5" s="48" t="n">
-        <v>0.04</v>
+        <v>0.029</v>
       </c>
       <c r="T5" s="51" t="n">
-        <v>0.926</v>
+        <v>0.0</v>
       </c>
       <c r="U5" s="54" t="n">
-        <v>0.087</v>
+        <v>0.043</v>
       </c>
       <c r="V5" s="57" t="n">
-        <v>0.879</v>
+        <v>0.928</v>
       </c>
       <c r="W5" s="60" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" s="63" t="n">
-        <v>0.047</v>
+        <v>0.022</v>
       </c>
       <c r="Y5" s="66" t="n">
-        <v>0.087</v>
+        <v>0.906</v>
       </c>
       <c r="Z5" s="69" t="n">
-        <v>0.832</v>
+        <v>0.043</v>
       </c>
       <c r="AA5" s="72" t="n">
-        <v>0.06</v>
+        <v>0.094</v>
       </c>
       <c r="AB5" s="75" t="n">
-        <v>0.906</v>
+        <v>0.878</v>
       </c>
       <c r="AC5" s="78" t="n">
-        <v>0.06</v>
+        <v>0.252</v>
       </c>
       <c r="AD5" s="81" t="n">
-        <v>0.188</v>
+        <v>0.079</v>
       </c>
       <c r="AE5" s="84" t="n">
-        <v>0.128</v>
+        <v>0.453</v>
       </c>
       <c r="AF5" s="87" t="n">
-        <v>0.0</v>
+        <v>0.022</v>
       </c>
       <c r="AG5" s="90" t="n">
-        <v>0.047</v>
+        <v>0.0</v>
       </c>
       <c r="AH5" s="93" t="n">
-        <v>0.101</v>
+        <v>0.0</v>
       </c>
       <c r="AI5" s="96" t="n">
-        <v>0.443</v>
+        <v>0.094</v>
       </c>
       <c r="AJ5" s="99" t="n">
-        <v>0.0</v>
+        <v>0.072</v>
       </c>
       <c r="AK5" s="102" t="n">
-        <v>0.671</v>
+        <v>0.604</v>
       </c>
       <c r="AL5" s="105" t="n">
-        <v>0.295</v>
+        <v>0.367</v>
       </c>
       <c r="AM5" s="108" t="n">
-        <v>0.866</v>
+        <v>0.05</v>
       </c>
       <c r="AN5" s="111" t="n">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="AO5" s="114" t="n">
-        <v>0.067</v>
+        <v>0.892</v>
       </c>
       <c r="AP5" s="117" t="n">
-        <v>0.631</v>
+        <v>0.619</v>
       </c>
       <c r="AQ5" s="120" t="n">
-        <v>0.336</v>
+        <v>0.353</v>
       </c>
       <c r="AR5" s="123" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="AS5" s="126" t="n">
-        <v>0.396</v>
+        <v>0.446</v>
       </c>
       <c r="AT5" s="129" t="n">
-        <v>0.067</v>
+        <v>0.086</v>
       </c>
       <c r="AU5" s="132" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="AV5" s="135" t="n">
-        <v>0.248</v>
+        <v>0.453</v>
       </c>
       <c r="AW5" s="138" t="n">
-        <v>0.0</v>
+        <v>0.014</v>
       </c>
       <c r="AX5" s="141" t="n">
-        <v>0.0</v>
+        <v>0.036</v>
       </c>
       <c r="AY5" s="144" t="n">
-        <v>0.443</v>
+        <v>0.0</v>
       </c>
       <c r="AZ5" s="147" t="n">
-        <v>0.013</v>
+        <v>0.0</v>
       </c>
       <c r="BA5" s="150" t="n">
-        <v>0.0</v>
+        <v>0.007</v>
       </c>
       <c r="BB5" s="153" t="n">
-        <v>0.128</v>
+        <v>0.209</v>
       </c>
       <c r="BC5" s="156" t="n">
-        <v>0.0</v>
+        <v>0.014</v>
       </c>
       <c r="BD5" s="159" t="n">
-        <v>0.02</v>
+        <v>0.137</v>
       </c>
       <c r="BE5" s="162" t="n">
-        <v>0.027</v>
+        <v>0.0</v>
       </c>
       <c r="BF5" s="165" t="n">
-        <v>0.121</v>
+        <v>0.518</v>
       </c>
       <c r="BG5" s="168" t="n">
-        <v>0.523</v>
+        <v>0.137</v>
       </c>
       <c r="BH5" s="171" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="BI5" s="174" t="n">
-        <v>0.745</v>
+        <v>0.719</v>
       </c>
       <c r="BJ5" s="177" t="n">
-        <v>0.221</v>
+        <v>0.252</v>
       </c>
       <c r="BK5" s="180" t="n">
-        <v>0.101</v>
+        <v>0.072</v>
       </c>
       <c r="BL5" s="183" t="n">
-        <v>0.107</v>
+        <v>0.252</v>
       </c>
       <c r="BM5" s="186" t="n">
-        <v>0.0</v>
+        <v>0.453</v>
       </c>
       <c r="BN5" s="189" t="n">
-        <v>0.128</v>
+        <v>0.115</v>
       </c>
       <c r="BO5" s="192" t="n">
-        <v>0.188</v>
+        <v>0.079</v>
       </c>
       <c r="BP5" s="195" t="n">
-        <v>0.443</v>
+        <v>0.0</v>
       </c>
       <c r="BQ5" s="198" t="n">
-        <v>0.013</v>
+        <v>0.0</v>
       </c>
       <c r="BR5" s="201" t="n">
-        <v>0.174</v>
+        <v>0.029</v>
       </c>
       <c r="BS5" s="204" t="n">
-        <v>0.523</v>
+        <v>0.173</v>
       </c>
       <c r="BT5" s="207" t="n">
-        <v>0.013</v>
+        <v>0.094</v>
       </c>
       <c r="BU5" s="210" t="n">
-        <v>0.0</v>
+        <v>0.144</v>
       </c>
       <c r="BV5" s="213" t="n">
-        <v>0.054</v>
+        <v>0.0</v>
       </c>
       <c r="BW5" s="216" t="n">
-        <v>0.134</v>
+        <v>0.518</v>
       </c>
       <c r="BX5" s="219" t="n">
-        <v>0.054</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="6">
@@ -2402,223 +3728,223 @@
         <v>77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>2.0</v>
+        <v>1.861</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>2.0</v>
+        <v>1.889</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.139</v>
+        <v>0.111</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>0.278</v>
+        <v>3.444</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>3.583</v>
+        <v>0.194</v>
       </c>
       <c r="I6" s="19" t="n">
         <v>0.417</v>
       </c>
       <c r="J6" s="22" t="n">
-        <v>1.028</v>
+        <v>0.861</v>
       </c>
       <c r="K6" s="25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="M6" s="31" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="N6" s="34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="37" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="P6" s="40" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="Q6" s="43" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="R6" s="46" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="S6" s="49" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="T6" s="52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="V6" s="58" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="W6" s="61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="64" t="n">
         <v>0.083</v>
       </c>
-      <c r="L6" s="28" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="M6" s="31" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="N6" s="34" t="n">
+      <c r="Y6" s="67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z6" s="70" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA6" s="73" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AB6" s="76" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="AC6" s="79" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AD6" s="82" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AE6" s="85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF6" s="88" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AG6" s="91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" s="94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="97" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AJ6" s="100" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AK6" s="103" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="AL6" s="106" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="AM6" s="109" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AN6" s="112" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AO6" s="115" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="AP6" s="118" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="AQ6" s="121" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="AR6" s="124" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="AS6" s="127" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="AT6" s="130" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AU6" s="133" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AV6" s="136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW6" s="139" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AX6" s="142" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AY6" s="145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" s="148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" s="151" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BB6" s="154" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="BC6" s="157" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BD6" s="160" t="n">
         <v>0.528</v>
       </c>
-      <c r="O6" s="37" t="n">
+      <c r="BE6" s="163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" s="166" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG6" s="169" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BH6" s="172" t="n">
         <v>1.222</v>
       </c>
-      <c r="P6" s="40" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="Q6" s="43" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="R6" s="46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" s="49" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="T6" s="52" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="U6" s="55" t="n">
+      <c r="BI6" s="175" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="BJ6" s="178" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BK6" s="181" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="BL6" s="184" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BM6" s="187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN6" s="190" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BO6" s="193" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BP6" s="196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ6" s="199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR6" s="202" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BS6" s="205" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="BT6" s="208" t="n">
         <v>0.361</v>
       </c>
-      <c r="V6" s="58" t="n">
-        <v>3.639</v>
-      </c>
-      <c r="W6" s="61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="64" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="Y6" s="67" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="Z6" s="70" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="AA6" s="73" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="76" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC6" s="79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD6" s="82" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="AE6" s="85" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="AF6" s="88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="91" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AH6" s="94" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AI6" s="97" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="AJ6" s="100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AK6" s="103" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="AL6" s="106" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="AM6" s="109" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="AN6" s="112" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AO6" s="115" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AP6" s="118" t="n">
-        <v>2.611</v>
-      </c>
-      <c r="AQ6" s="121" t="n">
-        <v>1.389</v>
-      </c>
-      <c r="AR6" s="124" t="n">
-        <v>2.361</v>
-      </c>
-      <c r="AS6" s="127" t="n">
-        <v>1.639</v>
-      </c>
-      <c r="AT6" s="130" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AU6" s="133" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AV6" s="136" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="AW6" s="139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX6" s="142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY6" s="145" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="AZ6" s="148" t="n">
+      <c r="BU6" s="211" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BV6" s="214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW6" s="217" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BX6" s="220" t="n">
         <v>0.056</v>
-      </c>
-      <c r="BA6" s="151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB6" s="154" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BC6" s="157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD6" s="160" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="BE6" s="163" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="BF6" s="166" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BG6" s="169" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="BH6" s="172" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="BI6" s="175" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="BJ6" s="178" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="BK6" s="181" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="BL6" s="184" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BM6" s="187" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN6" s="190" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BO6" s="193" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="BP6" s="196" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="BQ6" s="199" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BR6" s="202" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="BS6" s="205" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="BT6" s="208" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BU6" s="211" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV6" s="214" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="BW6" s="217" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BX6" s="220" t="n">
-        <v>0.222</v>
       </c>
     </row>
     <row r="7">
@@ -2628,7 +3954,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>74</v>
@@ -2646,10 +3972,10 @@
         <v>0.083</v>
       </c>
       <c r="G8" s="230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="233" t="n">
         <v>0.194</v>
-      </c>
-      <c r="H8" s="233" t="n">
-        <v>1.0</v>
       </c>
       <c r="I8" s="236" t="n">
         <v>0.361</v>
@@ -2658,34 +3984,34 @@
         <v>0.583</v>
       </c>
       <c r="K8" s="242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="245" t="n">
         <v>0.139</v>
-      </c>
-      <c r="L8" s="245" t="n">
-        <v>1.0</v>
       </c>
       <c r="M8" s="248" t="n">
         <v>0.444</v>
       </c>
       <c r="N8" s="251" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="O8" s="254" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P8" s="257" t="n">
         <v>0.417</v>
       </c>
-      <c r="O8" s="254" t="n">
+      <c r="Q8" s="260" t="n">
         <v>0.806</v>
       </c>
-      <c r="P8" s="257" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="Q8" s="260" t="n">
-        <v>0.917</v>
-      </c>
       <c r="R8" s="263" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" s="266" t="n">
         <v>0.111</v>
       </c>
       <c r="T8" s="269" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" s="272" t="n">
         <v>0.139</v>
@@ -2700,10 +4026,10 @@
         <v>0.083</v>
       </c>
       <c r="Y8" s="284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z8" s="287" t="n">
         <v>0.139</v>
-      </c>
-      <c r="Z8" s="287" t="n">
-        <v>1.0</v>
       </c>
       <c r="AA8" s="290" t="n">
         <v>0.333</v>
@@ -2712,28 +4038,28 @@
         <v>1.0</v>
       </c>
       <c r="AC8" s="296" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD8" s="299" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AE8" s="302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF8" s="305" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AG8" s="308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" s="311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="314" t="n">
         <v>0.333</v>
       </c>
-      <c r="AD8" s="299" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AE8" s="302" t="n">
+      <c r="AJ8" s="317" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AF8" s="305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="308" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AH8" s="311" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AI8" s="314" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AJ8" s="317" t="n">
-        <v>0.0</v>
       </c>
       <c r="AK8" s="320" t="n">
         <v>1.0</v>
@@ -2742,13 +4068,13 @@
         <v>0.806</v>
       </c>
       <c r="AM8" s="326" t="n">
-        <v>1.0</v>
+        <v>0.167</v>
       </c>
       <c r="AN8" s="329" t="n">
         <v>0.111</v>
       </c>
       <c r="AO8" s="332" t="n">
-        <v>0.167</v>
+        <v>1.0</v>
       </c>
       <c r="AP8" s="335" t="n">
         <v>1.0</v>
@@ -2766,43 +4092,43 @@
         <v>0.278</v>
       </c>
       <c r="AU8" s="350" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AV8" s="353" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW8" s="356" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AX8" s="359" t="n">
         <v>0.139</v>
       </c>
-      <c r="AV8" s="353" t="n">
+      <c r="AY8" s="362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" s="365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA8" s="368" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BB8" s="371" t="n">
         <v>0.556</v>
       </c>
-      <c r="AW8" s="356" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX8" s="359" t="n">
+      <c r="BC8" s="374" t="n">
         <v>0.056</v>
       </c>
-      <c r="AY8" s="362" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AZ8" s="365" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BA8" s="368" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB8" s="371" t="n">
+      <c r="BD8" s="377" t="n">
         <v>0.417</v>
       </c>
-      <c r="BC8" s="374" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD8" s="377" t="n">
-        <v>0.056</v>
-      </c>
       <c r="BE8" s="380" t="n">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" s="383" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BG8" s="386" t="n">
         <v>0.389</v>
-      </c>
-      <c r="BG8" s="386" t="n">
-        <v>0.917</v>
       </c>
       <c r="BH8" s="389" t="n">
         <v>0.917</v>
@@ -2814,43 +4140,43 @@
         <v>0.639</v>
       </c>
       <c r="BK8" s="398" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BL8" s="401" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BM8" s="404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN8" s="407" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BO8" s="410" t="n">
         <v>0.278</v>
       </c>
-      <c r="BL8" s="401" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="BM8" s="404" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN8" s="407" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="BO8" s="410" t="n">
-        <v>0.75</v>
-      </c>
       <c r="BP8" s="413" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" s="416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR8" s="419" t="n">
         <v>0.056</v>
       </c>
-      <c r="BR8" s="419" t="n">
+      <c r="BS8" s="422" t="n">
         <v>0.528</v>
       </c>
-      <c r="BS8" s="422" t="n">
+      <c r="BT8" s="425" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BU8" s="428" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BV8" s="431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW8" s="434" t="n">
         <v>0.917</v>
-      </c>
-      <c r="BT8" s="425" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU8" s="428" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV8" s="431" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="BW8" s="434" t="n">
-        <v>0.444</v>
       </c>
       <c r="BX8" s="437" t="n">
         <v>0.056</v>
@@ -2872,10 +4198,10 @@
         <v>0.029</v>
       </c>
       <c r="G9" s="231" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="H9" s="234" t="n">
         <v>0.05</v>
-      </c>
-      <c r="H9" s="234" t="n">
-        <v>0.892</v>
       </c>
       <c r="I9" s="237" t="n">
         <v>0.108</v>
@@ -2884,34 +4210,34 @@
         <v>0.223</v>
       </c>
       <c r="K9" s="243" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="L9" s="246" t="n">
         <v>0.036</v>
-      </c>
-      <c r="L9" s="246" t="n">
-        <v>0.453</v>
       </c>
       <c r="M9" s="249" t="n">
         <v>0.151</v>
       </c>
       <c r="N9" s="252" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="O9" s="255" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="P9" s="258" t="n">
         <v>0.144</v>
       </c>
-      <c r="O9" s="255" t="n">
+      <c r="Q9" s="261" t="n">
         <v>0.273</v>
       </c>
-      <c r="P9" s="258" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="Q9" s="261" t="n">
-        <v>0.518</v>
-      </c>
       <c r="R9" s="264" t="n">
-        <v>0.0</v>
+        <v>0.942</v>
       </c>
       <c r="S9" s="267" t="n">
         <v>0.029</v>
       </c>
       <c r="T9" s="270" t="n">
-        <v>0.942</v>
+        <v>0.0</v>
       </c>
       <c r="U9" s="273" t="n">
         <v>0.043</v>
@@ -2926,10 +4252,10 @@
         <v>0.022</v>
       </c>
       <c r="Y9" s="285" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="Z9" s="288" t="n">
         <v>0.043</v>
-      </c>
-      <c r="Z9" s="288" t="n">
-        <v>0.906</v>
       </c>
       <c r="AA9" s="291" t="n">
         <v>0.094</v>
@@ -2938,28 +4264,28 @@
         <v>0.878</v>
       </c>
       <c r="AC9" s="297" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="AD9" s="300" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="AE9" s="303" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AF9" s="306" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AG9" s="309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" s="312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="315" t="n">
         <v>0.094</v>
       </c>
-      <c r="AD9" s="300" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="AE9" s="303" t="n">
+      <c r="AJ9" s="318" t="n">
         <v>0.072</v>
-      </c>
-      <c r="AF9" s="306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="309" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AH9" s="312" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="AI9" s="315" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="AJ9" s="318" t="n">
-        <v>0.0</v>
       </c>
       <c r="AK9" s="321" t="n">
         <v>0.604</v>
@@ -2968,13 +4294,13 @@
         <v>0.367</v>
       </c>
       <c r="AM9" s="327" t="n">
-        <v>0.892</v>
+        <v>0.05</v>
       </c>
       <c r="AN9" s="330" t="n">
         <v>0.029</v>
       </c>
       <c r="AO9" s="333" t="n">
-        <v>0.05</v>
+        <v>0.892</v>
       </c>
       <c r="AP9" s="336" t="n">
         <v>0.619</v>
@@ -2992,43 +4318,43 @@
         <v>0.086</v>
       </c>
       <c r="AU9" s="351" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AV9" s="354" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AW9" s="357" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AX9" s="360" t="n">
         <v>0.036</v>
       </c>
-      <c r="AV9" s="354" t="n">
+      <c r="AY9" s="363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" s="366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA9" s="369" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB9" s="372" t="n">
         <v>0.209</v>
       </c>
-      <c r="AW9" s="357" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX9" s="360" t="n">
+      <c r="BC9" s="375" t="n">
         <v>0.014</v>
       </c>
-      <c r="AY9" s="363" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="AZ9" s="366" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BA9" s="369" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB9" s="372" t="n">
+      <c r="BD9" s="378" t="n">
         <v>0.137</v>
       </c>
-      <c r="BC9" s="375" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD9" s="378" t="n">
-        <v>0.014</v>
-      </c>
       <c r="BE9" s="381" t="n">
-        <v>0.014</v>
+        <v>0.0</v>
       </c>
       <c r="BF9" s="384" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="BG9" s="387" t="n">
         <v>0.137</v>
-      </c>
-      <c r="BG9" s="387" t="n">
-        <v>0.518</v>
       </c>
       <c r="BH9" s="390" t="n">
         <v>0.317</v>
@@ -3040,43 +4366,43 @@
         <v>0.252</v>
       </c>
       <c r="BK9" s="399" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="BL9" s="402" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="BM9" s="405" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="BN9" s="408" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="BO9" s="411" t="n">
         <v>0.079</v>
       </c>
-      <c r="BL9" s="402" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="BM9" s="405" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN9" s="408" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="BO9" s="411" t="n">
-        <v>0.252</v>
-      </c>
       <c r="BP9" s="414" t="n">
-        <v>0.453</v>
+        <v>0.0</v>
       </c>
       <c r="BQ9" s="417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR9" s="420" t="n">
         <v>0.029</v>
       </c>
-      <c r="BR9" s="420" t="n">
+      <c r="BS9" s="423" t="n">
         <v>0.173</v>
       </c>
-      <c r="BS9" s="423" t="n">
+      <c r="BT9" s="426" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="BU9" s="429" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="BV9" s="432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW9" s="435" t="n">
         <v>0.518</v>
-      </c>
-      <c r="BT9" s="426" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU9" s="429" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV9" s="432" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="BW9" s="435" t="n">
-        <v>0.144</v>
       </c>
       <c r="BX9" s="438" t="n">
         <v>0.014</v>
@@ -3098,10 +4424,10 @@
         <v>0.111</v>
       </c>
       <c r="G10" s="232" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="H10" s="235" t="n">
         <v>0.194</v>
-      </c>
-      <c r="H10" s="235" t="n">
-        <v>3.444</v>
       </c>
       <c r="I10" s="238" t="n">
         <v>0.417</v>
@@ -3110,34 +4436,34 @@
         <v>0.861</v>
       </c>
       <c r="K10" s="244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L10" s="247" t="n">
         <v>0.139</v>
-      </c>
-      <c r="L10" s="247" t="n">
-        <v>1.75</v>
       </c>
       <c r="M10" s="250" t="n">
         <v>0.583</v>
       </c>
       <c r="N10" s="253" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O10" s="256" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="P10" s="259" t="n">
         <v>0.556</v>
       </c>
-      <c r="O10" s="256" t="n">
+      <c r="Q10" s="262" t="n">
         <v>1.056</v>
       </c>
-      <c r="P10" s="259" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="Q10" s="262" t="n">
-        <v>2.0</v>
-      </c>
       <c r="R10" s="265" t="n">
-        <v>0.0</v>
+        <v>3.639</v>
       </c>
       <c r="S10" s="268" t="n">
         <v>0.111</v>
       </c>
       <c r="T10" s="271" t="n">
-        <v>3.639</v>
+        <v>0.0</v>
       </c>
       <c r="U10" s="274" t="n">
         <v>0.167</v>
@@ -3152,10 +4478,10 @@
         <v>0.083</v>
       </c>
       <c r="Y10" s="286" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z10" s="289" t="n">
         <v>0.167</v>
-      </c>
-      <c r="Z10" s="289" t="n">
-        <v>3.5</v>
       </c>
       <c r="AA10" s="292" t="n">
         <v>0.361</v>
@@ -3164,28 +4490,28 @@
         <v>3.389</v>
       </c>
       <c r="AC10" s="298" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AD10" s="301" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AE10" s="304" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF10" s="307" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AG10" s="310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH10" s="313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="316" t="n">
         <v>0.361</v>
       </c>
-      <c r="AD10" s="301" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AE10" s="304" t="n">
+      <c r="AJ10" s="319" t="n">
         <v>0.278</v>
-      </c>
-      <c r="AF10" s="307" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="310" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AH10" s="313" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AI10" s="316" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ10" s="319" t="n">
-        <v>0.0</v>
       </c>
       <c r="AK10" s="322" t="n">
         <v>2.333</v>
@@ -3194,13 +4520,13 @@
         <v>1.417</v>
       </c>
       <c r="AM10" s="328" t="n">
-        <v>3.444</v>
+        <v>0.194</v>
       </c>
       <c r="AN10" s="331" t="n">
         <v>0.111</v>
       </c>
       <c r="AO10" s="334" t="n">
-        <v>0.194</v>
+        <v>3.444</v>
       </c>
       <c r="AP10" s="337" t="n">
         <v>2.389</v>
@@ -3218,43 +4544,43 @@
         <v>0.333</v>
       </c>
       <c r="AU10" s="352" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AV10" s="355" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW10" s="358" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AX10" s="361" t="n">
         <v>0.139</v>
       </c>
-      <c r="AV10" s="355" t="n">
+      <c r="AY10" s="364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" s="367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA10" s="370" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BB10" s="373" t="n">
         <v>0.806</v>
       </c>
-      <c r="AW10" s="358" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX10" s="361" t="n">
+      <c r="BC10" s="376" t="n">
         <v>0.056</v>
       </c>
-      <c r="AY10" s="364" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AZ10" s="367" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BA10" s="370" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB10" s="373" t="n">
+      <c r="BD10" s="379" t="n">
         <v>0.528</v>
       </c>
-      <c r="BC10" s="376" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD10" s="379" t="n">
-        <v>0.056</v>
-      </c>
       <c r="BE10" s="382" t="n">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="BF10" s="385" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG10" s="388" t="n">
         <v>0.528</v>
-      </c>
-      <c r="BG10" s="388" t="n">
-        <v>2.0</v>
       </c>
       <c r="BH10" s="391" t="n">
         <v>1.222</v>
@@ -3266,43 +4592,43 @@
         <v>0.972</v>
       </c>
       <c r="BK10" s="400" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="BL10" s="403" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BM10" s="406" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN10" s="409" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BO10" s="412" t="n">
         <v>0.306</v>
       </c>
-      <c r="BL10" s="403" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BM10" s="406" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN10" s="409" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="BO10" s="412" t="n">
-        <v>0.972</v>
-      </c>
       <c r="BP10" s="415" t="n">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="BQ10" s="418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR10" s="421" t="n">
         <v>0.111</v>
       </c>
-      <c r="BR10" s="421" t="n">
+      <c r="BS10" s="424" t="n">
         <v>0.667</v>
       </c>
-      <c r="BS10" s="424" t="n">
+      <c r="BT10" s="427" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="BU10" s="430" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BV10" s="433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW10" s="436" t="n">
         <v>2.0</v>
-      </c>
-      <c r="BT10" s="427" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU10" s="430" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV10" s="433" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="BW10" s="436" t="n">
-        <v>0.556</v>
       </c>
       <c r="BX10" s="439" t="n">
         <v>0.056</v>
@@ -3311,6 +4637,1400 @@
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="440" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="443" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F12" s="446" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G12" s="449" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="452" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="I12" s="455" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="J12" s="458" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="K12" s="461" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" s="464" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M12" s="467" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="N12" s="470" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="O12" s="473" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="P12" s="476" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q12" s="479" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="R12" s="482" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S12" s="485" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T12" s="488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="491" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V12" s="494" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12" s="497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" s="500" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y12" s="503" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z12" s="506" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA12" s="509" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AB12" s="512" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC12" s="515" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AD12" s="518" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AE12" s="521" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF12" s="524" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AG12" s="527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH12" s="530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="533" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AJ12" s="536" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AK12" s="539" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL12" s="542" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AM12" s="545" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AN12" s="548" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AO12" s="551" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP12" s="554" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ12" s="557" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AR12" s="560" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS12" s="563" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AT12" s="566" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU12" s="569" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AV12" s="572" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW12" s="575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX12" s="578" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY12" s="581" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" s="584" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA12" s="587" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BB12" s="590" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BC12" s="593" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BD12" s="596" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BE12" s="599" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF12" s="602" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BG12" s="605" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BH12" s="608" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="BI12" s="611" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ12" s="614" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="BK12" s="617" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BL12" s="620" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BM12" s="623" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN12" s="626" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BO12" s="629" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BP12" s="632" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ12" s="635" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BR12" s="638" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BS12" s="641" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BT12" s="644" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BU12" s="647" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BV12" s="650" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW12" s="653" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BX12" s="656" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="441" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E13" s="444" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F13" s="447" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G13" s="450" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="H13" s="453" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I13" s="456" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J13" s="459" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="K13" s="462" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="L13" s="465" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M13" s="468" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="N13" s="471" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="O13" s="474" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P13" s="477" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Q13" s="480" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="R13" s="483" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="S13" s="486" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T13" s="489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="492" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="V13" s="495" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="W13" s="498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="501" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Y13" s="504" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="Z13" s="507" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="AA13" s="510" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB13" s="513" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="AC13" s="516" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AD13" s="519" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AE13" s="522" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AF13" s="525" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AG13" s="528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" s="531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="534" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ13" s="537" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AK13" s="540" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="AL13" s="543" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="AM13" s="546" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AN13" s="549" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AO13" s="552" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="AP13" s="555" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="AQ13" s="558" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AR13" s="561" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS13" s="564" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="AT13" s="567" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AU13" s="570" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AV13" s="573" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AW13" s="576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX13" s="579" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY13" s="582" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ13" s="585" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA13" s="588" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BB13" s="591" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="BC13" s="594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BD13" s="597" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="BE13" s="600" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF13" s="603" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BG13" s="606" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="BH13" s="609" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="BI13" s="612" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="BJ13" s="615" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="BK13" s="618" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="BL13" s="621" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="BM13" s="624" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="BN13" s="627" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="BO13" s="630" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="BP13" s="633" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ13" s="636" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BR13" s="639" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BS13" s="642" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="BT13" s="645" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="BU13" s="648" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="BV13" s="651" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW13" s="654" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BX13" s="657" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="442" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="445" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="448" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G14" s="451" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="H14" s="454" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I14" s="457" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="J14" s="460" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="K14" s="463" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="L14" s="466" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M14" s="469" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="N14" s="472" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="O14" s="475" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P14" s="478" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="Q14" s="481" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="R14" s="484" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="S14" s="487" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T14" s="490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="493" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="V14" s="496" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="W14" s="499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" s="502" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Y14" s="505" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="Z14" s="508" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AA14" s="511" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB14" s="514" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC14" s="517" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="AD14" s="520" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AE14" s="523" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AF14" s="526" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AG14" s="529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" s="532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="535" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AJ14" s="538" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AK14" s="541" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="AL14" s="544" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="AM14" s="547" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AN14" s="550" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AO14" s="553" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="AP14" s="556" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="AQ14" s="559" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="AR14" s="562" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="AS14" s="565" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="AT14" s="568" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AU14" s="571" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AV14" s="574" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AW14" s="577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX14" s="580" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY14" s="583" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" s="586" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA14" s="589" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BB14" s="592" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="BC14" s="595" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BD14" s="598" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BE14" s="601" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF14" s="604" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BG14" s="607" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH14" s="610" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="BI14" s="613" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="BJ14" s="616" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BK14" s="619" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BL14" s="622" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="BM14" s="625" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="BN14" s="628" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BO14" s="631" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="BP14" s="634" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ14" s="637" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BR14" s="640" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BS14" s="643" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BT14" s="646" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="BU14" s="649" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BV14" s="652" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW14" s="655" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BX14" s="658" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="659" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="662" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="F16" s="665" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G16" s="668" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="671" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="I16" s="674" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="677" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="K16" s="680" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="683" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M16" s="686" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N16" s="689" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="O16" s="692" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="P16" s="695" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q16" s="698" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R16" s="701" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S16" s="704" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="T16" s="707" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="710" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="V16" s="713" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16" s="716" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="719" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y16" s="722" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z16" s="725" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA16" s="728" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="AB16" s="731" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" s="734" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="AD16" s="737" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AE16" s="740" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF16" s="743" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG16" s="746" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" s="749" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="752" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="AJ16" s="755" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AK16" s="758" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL16" s="761" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM16" s="764" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="AN16" s="767" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AO16" s="770" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP16" s="773" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ16" s="776" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="AR16" s="779" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS16" s="782" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="AT16" s="785" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AU16" s="788" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" s="791" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW16" s="794" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX16" s="797" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="AY16" s="800" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AZ16" s="803" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA16" s="806" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="BB16" s="809" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="BC16" s="812" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="BD16" s="815" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BE16" s="818" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BF16" s="821" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BG16" s="824" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BH16" s="827" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="BI16" s="830" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ16" s="833" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="BK16" s="836" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BL16" s="839" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="BM16" s="842" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN16" s="845" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="BO16" s="848" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BP16" s="851" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ16" s="854" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR16" s="857" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BS16" s="860" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BT16" s="863" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="BU16" s="866" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="BV16" s="869" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW16" s="872" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BX16" s="875" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="660" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="E17" s="663" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F17" s="666" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G17" s="669" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H17" s="672" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I17" s="675" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J17" s="678" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K17" s="681" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="L17" s="684" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M17" s="687" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N17" s="690" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O17" s="693" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P17" s="696" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="Q17" s="699" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="R17" s="702" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="S17" s="705" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="T17" s="708" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="711" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="V17" s="714" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="W17" s="717" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="720" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="Y17" s="723" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="Z17" s="726" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AA17" s="729" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="AB17" s="732" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="AC17" s="735" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AD17" s="738" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AE17" s="741" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AF17" s="744" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AG17" s="747" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH17" s="750" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="753" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="AJ17" s="756" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AK17" s="759" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="AL17" s="762" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AM17" s="765" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AN17" s="768" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AO17" s="771" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP17" s="774" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AQ17" s="777" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="AR17" s="780" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="AS17" s="783" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT17" s="786" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AU17" s="789" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" s="792" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AW17" s="795" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" s="798" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AY17" s="801" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AZ17" s="804" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA17" s="807" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="BB17" s="810" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BC17" s="813" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="BD17" s="816" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="BE17" s="819" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BF17" s="822" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BG17" s="825" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="BH17" s="828" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="BI17" s="831" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="BJ17" s="834" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="BK17" s="837" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BL17" s="840" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="BM17" s="843" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="BN17" s="846" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="BO17" s="849" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="BP17" s="852" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ17" s="855" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR17" s="858" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="BS17" s="861" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="BT17" s="864" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="BU17" s="867" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BV17" s="870" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW17" s="873" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BX17" s="876" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="661" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="E18" s="664" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F18" s="667" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G18" s="670" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="H18" s="673" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="I18" s="676" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="J18" s="679" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="K18" s="682" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="L18" s="685" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M18" s="688" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N18" s="691" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="O18" s="694" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="P18" s="697" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="Q18" s="700" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="R18" s="703" t="n">
+        <v>4.229</v>
+      </c>
+      <c r="S18" s="706" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="T18" s="709" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="712" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="V18" s="715" t="n">
+        <v>4.314</v>
+      </c>
+      <c r="W18" s="718" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X18" s="721" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="724" t="n">
+        <v>4.114</v>
+      </c>
+      <c r="Z18" s="727" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA18" s="730" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="AB18" s="733" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC18" s="736" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD18" s="739" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="AE18" s="742" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="AF18" s="745" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG18" s="748" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH18" s="751" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="754" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="AJ18" s="757" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="AK18" s="760" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL18" s="763" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="AM18" s="766" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="AN18" s="769" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AO18" s="772" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="AP18" s="775" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="AQ18" s="778" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="AR18" s="781" t="n">
+        <v>2.686</v>
+      </c>
+      <c r="AS18" s="784" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="AT18" s="787" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="AU18" s="790" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV18" s="793" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="AW18" s="796" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX18" s="799" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="AY18" s="802" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AZ18" s="805" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA18" s="808" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="BB18" s="811" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="BC18" s="814" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="BD18" s="817" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="BE18" s="820" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BF18" s="823" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="BG18" s="826" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="BH18" s="829" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="BI18" s="832" t="n">
+        <v>3.657</v>
+      </c>
+      <c r="BJ18" s="835" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BK18" s="838" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="BL18" s="841" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BM18" s="844" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="BN18" s="847" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="BO18" s="850" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="BP18" s="853" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ18" s="856" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR18" s="859" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="BS18" s="862" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="BT18" s="865" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BU18" s="868" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="BV18" s="871" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW18" s="874" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="BX18" s="877" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3340,6 +6060,10 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
+++ b/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
@@ -34,42 +34,42 @@
     <t>strident</t>
   </si>
   <si>
+    <t>STRIDENT</t>
+  </si>
+  <si>
+    <t>NOT_APPLICABLE</t>
+  </si>
+  <si>
     <t>NOT_STRIDENT</t>
   </si>
   <si>
-    <t>NOT_APPLICABLE</t>
-  </si>
-  <si>
-    <t>STRIDENT</t>
-  </si>
-  <si>
     <t>placeApproximate</t>
   </si>
   <si>
+    <t>CORONAL</t>
+  </si>
+  <si>
+    <t>LARYNGEAL</t>
+  </si>
+  <si>
+    <t>LABIAL</t>
+  </si>
+  <si>
     <t>DORSAL</t>
   </si>
   <si>
-    <t>CORONAL</t>
-  </si>
-  <si>
-    <t>LARYNGEAL</t>
-  </si>
-  <si>
-    <t>LABIAL</t>
-  </si>
-  <si>
     <t>backness</t>
   </si>
   <si>
     <t>CENTRAL</t>
   </si>
   <si>
+    <t>FRONT</t>
+  </si>
+  <si>
     <t>BACK</t>
   </si>
   <si>
-    <t>FRONT</t>
-  </si>
-  <si>
     <t>semivowel</t>
   </si>
   <si>
@@ -82,51 +82,51 @@
     <t>lateral</t>
   </si>
   <si>
+    <t>NOT_LATERAL</t>
+  </si>
+  <si>
     <t>LATERAL</t>
   </si>
   <si>
-    <t>NOT_LATERAL</t>
-  </si>
-  <si>
     <t>rhotics</t>
   </si>
   <si>
+    <t>NOT_RHOTICS</t>
+  </si>
+  <si>
     <t>RHOTICS</t>
   </si>
   <si>
-    <t>NOT_RHOTICS</t>
-  </si>
-  <si>
     <t>nasal</t>
   </si>
   <si>
     <t>mannerPrecise</t>
   </si>
   <si>
+    <t>APPROXIMANT</t>
+  </si>
+  <si>
+    <t>AFFRICATE</t>
+  </si>
+  <si>
+    <t>NASAL</t>
+  </si>
+  <si>
+    <t>TAP_FLAP</t>
+  </si>
+  <si>
+    <t>VOWEL</t>
+  </si>
+  <si>
     <t>PLOSIVE</t>
   </si>
   <si>
+    <t>TRILL</t>
+  </si>
+  <si>
     <t>FRICATIVE</t>
   </si>
   <si>
-    <t>VOWEL</t>
-  </si>
-  <si>
-    <t>TRILL</t>
-  </si>
-  <si>
-    <t>AFFRICATE</t>
-  </si>
-  <si>
-    <t>TAP_FLAP</t>
-  </si>
-  <si>
-    <t>NASAL</t>
-  </si>
-  <si>
-    <t>APPROXIMANT</t>
-  </si>
-  <si>
     <t>continuant</t>
   </si>
   <si>
@@ -148,48 +148,48 @@
     <t>placePrecise</t>
   </si>
   <si>
+    <t>RETROFLEX</t>
+  </si>
+  <si>
+    <t>BILABIAL</t>
+  </si>
+  <si>
+    <t>POSTALVEOLAR</t>
+  </si>
+  <si>
+    <t>PALATAL</t>
+  </si>
+  <si>
     <t>VELAR</t>
   </si>
   <si>
+    <t>UVULAR</t>
+  </si>
+  <si>
+    <t>EPIGLOTTAL</t>
+  </si>
+  <si>
     <t>LABIODENTAL</t>
   </si>
   <si>
-    <t>RETROFLEX</t>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>ALVEOLAR</t>
   </si>
   <si>
     <t>GLOTTAL</t>
   </si>
   <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
-    <t>EPIGLOTTAL</t>
-  </si>
-  <si>
-    <t>UVULAR</t>
-  </si>
-  <si>
-    <t>ALVEOLAR</t>
-  </si>
-  <si>
-    <t>PALATAL</t>
-  </si>
-  <si>
-    <t>BILABIAL</t>
-  </si>
-  <si>
-    <t>POSTALVEOLAR</t>
-  </si>
-  <si>
     <t>roundness</t>
   </si>
   <si>
+    <t>UNROUNDED</t>
+  </si>
+  <si>
     <t>ROUNDED</t>
   </si>
   <si>
-    <t>UNROUNDED</t>
-  </si>
-  <si>
     <t>voiced</t>
   </si>
   <si>
@@ -199,42 +199,42 @@
     <t>LOW_MID</t>
   </si>
   <si>
+    <t>MID_HIGH</t>
+  </si>
+  <si>
+    <t>NOT_SELECTED</t>
+  </si>
+  <si>
+    <t>LOWEST</t>
+  </si>
+  <si>
     <t>HIGH</t>
   </si>
   <si>
-    <t>LOWEST</t>
-  </si>
-  <si>
-    <t>NOT_SELECTED</t>
-  </si>
-  <si>
     <t>MID</t>
   </si>
   <si>
-    <t>MID_HIGH</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
     <t>NEAR_CLOSE</t>
   </si>
   <si>
-    <t>OPEN</t>
+    <t>OPEN_MID</t>
+  </si>
+  <si>
+    <t>NEAR_OPEN</t>
   </si>
   <si>
     <t>CLOSE_MID</t>
   </si>
   <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>NEAR_OPEN</t>
-  </si>
-  <si>
-    <t>OPEN_MID</t>
-  </si>
-  <si>
     <t>stone</t>
   </si>
   <si>
@@ -259,13 +259,13 @@
     <t>AVERAGE:</t>
   </si>
   <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>leaf</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>35</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="878">
+  <cellXfs count="1170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,655 +2305,1531 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2962,7 +3838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX25"/>
+  <dimension ref="A1:BX21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3064,10 +3940,10 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>12</v>
@@ -3088,10 +3964,10 @@
         <v>17</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>20</v>
@@ -3106,10 +3982,10 @@
         <v>23</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>26</v>
@@ -3154,10 +4030,10 @@
         <v>39</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>3</v>
@@ -3208,13 +4084,13 @@
         <v>54</v>
       </c>
       <c r="BF3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>3</v>
@@ -3244,22 +4120,22 @@
         <v>67</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BV3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>72</v>
@@ -3282,28 +4158,28 @@
         <v>0.889</v>
       </c>
       <c r="F4" s="8" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="14" t="n">
         <v>0.083</v>
       </c>
-      <c r="G4" s="11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>0.194</v>
-      </c>
       <c r="I4" s="17" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="M4" s="29" t="n">
         <v>0.361</v>
-      </c>
-      <c r="J4" s="20" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="K4" s="23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="26" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>0.444</v>
       </c>
       <c r="N4" s="32" t="n">
         <v>0.917</v>
@@ -3312,37 +4188,37 @@
         <v>0.083</v>
       </c>
       <c r="P4" s="38" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="Q4" s="41" t="n">
         <v>0.417</v>
       </c>
-      <c r="Q4" s="41" t="n">
-        <v>0.806</v>
-      </c>
       <c r="R4" s="44" t="n">
-        <v>1.0</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="47" t="n">
-        <v>0.111</v>
+        <v>1.0</v>
       </c>
       <c r="T4" s="50" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" s="53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="59" t="n">
         <v>0.139</v>
       </c>
-      <c r="V4" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="59" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X4" s="62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" s="65" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="Z4" s="68" t="n">
         <v>0.083</v>
-      </c>
-      <c r="Y4" s="65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z4" s="68" t="n">
-        <v>0.139</v>
       </c>
       <c r="AA4" s="71" t="n">
         <v>0.333</v>
@@ -3351,28 +4227,28 @@
         <v>1.0</v>
       </c>
       <c r="AC4" s="77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD4" s="80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" s="83" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF4" s="86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" s="89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH4" s="92" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD4" s="80" t="n">
+      <c r="AI4" s="95" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AJ4" s="98" t="n">
         <v>0.278</v>
-      </c>
-      <c r="AE4" s="83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF4" s="86" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AG4" s="89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH4" s="92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI4" s="95" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AJ4" s="98" t="n">
-        <v>0.25</v>
       </c>
       <c r="AK4" s="101" t="n">
         <v>1.0</v>
@@ -3384,10 +4260,10 @@
         <v>0.167</v>
       </c>
       <c r="AN4" s="110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO4" s="113" t="n">
         <v>0.111</v>
-      </c>
-      <c r="AO4" s="113" t="n">
-        <v>1.0</v>
       </c>
       <c r="AP4" s="116" t="n">
         <v>1.0</v>
@@ -3402,40 +4278,40 @@
         <v>0.861</v>
       </c>
       <c r="AT4" s="128" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AU4" s="131" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AV4" s="134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW4" s="137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" s="140" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AY4" s="143" t="n">
         <v>0.278</v>
       </c>
-      <c r="AU4" s="131" t="n">
+      <c r="AZ4" s="146" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BA4" s="149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" s="152" t="n">
         <v>0.056</v>
       </c>
-      <c r="AV4" s="134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW4" s="137" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AX4" s="140" t="n">
+      <c r="BC4" s="155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" s="158" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BE4" s="161" t="n">
         <v>0.139</v>
-      </c>
-      <c r="AY4" s="143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ4" s="146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA4" s="149" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BB4" s="152" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BC4" s="155" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BD4" s="158" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="BE4" s="161" t="n">
-        <v>0.0</v>
       </c>
       <c r="BF4" s="164" t="n">
         <v>0.917</v>
@@ -3456,43 +4332,43 @@
         <v>0.25</v>
       </c>
       <c r="BL4" s="182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM4" s="185" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BN4" s="188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO4" s="191" t="n">
         <v>0.75</v>
       </c>
-      <c r="BM4" s="185" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BN4" s="188" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="BO4" s="191" t="n">
+      <c r="BP4" s="194" t="n">
         <v>0.278</v>
       </c>
-      <c r="BP4" s="194" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BQ4" s="197" t="n">
-        <v>0.0</v>
+        <v>0.528</v>
       </c>
       <c r="BR4" s="200" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BS4" s="203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT4" s="206" t="n">
         <v>0.056</v>
       </c>
-      <c r="BS4" s="203" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BT4" s="206" t="n">
+      <c r="BU4" s="209" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BV4" s="212" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BW4" s="215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX4" s="218" t="n">
         <v>0.306</v>
-      </c>
-      <c r="BU4" s="209" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BV4" s="212" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW4" s="215" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="BX4" s="218" t="n">
-        <v>0.056</v>
       </c>
     </row>
     <row r="5">
@@ -3508,28 +4384,28 @@
         <v>0.489</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>0.892</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="I5" s="18" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="K5" s="24" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L5" s="27" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M5" s="30" t="n">
         <v>0.108</v>
-      </c>
-      <c r="J5" s="21" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="K5" s="24" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="M5" s="30" t="n">
-        <v>0.151</v>
       </c>
       <c r="N5" s="33" t="n">
         <v>0.518</v>
@@ -3538,37 +4414,37 @@
         <v>0.036</v>
       </c>
       <c r="P5" s="39" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="Q5" s="42" t="n">
         <v>0.144</v>
       </c>
-      <c r="Q5" s="42" t="n">
-        <v>0.273</v>
-      </c>
       <c r="R5" s="45" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="S5" s="48" t="n">
         <v>0.942</v>
       </c>
-      <c r="S5" s="48" t="n">
-        <v>0.029</v>
-      </c>
       <c r="T5" s="51" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" s="54" t="n">
-        <v>0.043</v>
+        <v>0.0</v>
       </c>
       <c r="V5" s="57" t="n">
         <v>0.928</v>
       </c>
       <c r="W5" s="60" t="n">
-        <v>0.0</v>
+        <v>0.043</v>
       </c>
       <c r="X5" s="63" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="Y5" s="66" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="Z5" s="69" t="n">
         <v>0.022</v>
-      </c>
-      <c r="Y5" s="66" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="Z5" s="69" t="n">
-        <v>0.043</v>
       </c>
       <c r="AA5" s="72" t="n">
         <v>0.094</v>
@@ -3577,28 +4453,28 @@
         <v>0.878</v>
       </c>
       <c r="AC5" s="78" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="AD5" s="81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" s="84" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="AF5" s="87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" s="90" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AH5" s="93" t="n">
         <v>0.252</v>
       </c>
-      <c r="AD5" s="81" t="n">
+      <c r="AI5" s="96" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AJ5" s="99" t="n">
         <v>0.079</v>
-      </c>
-      <c r="AE5" s="84" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="AF5" s="87" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AG5" s="90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH5" s="93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI5" s="96" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="AJ5" s="99" t="n">
-        <v>0.072</v>
       </c>
       <c r="AK5" s="102" t="n">
         <v>0.604</v>
@@ -3610,10 +4486,10 @@
         <v>0.05</v>
       </c>
       <c r="AN5" s="111" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AO5" s="114" t="n">
         <v>0.029</v>
-      </c>
-      <c r="AO5" s="114" t="n">
-        <v>0.892</v>
       </c>
       <c r="AP5" s="117" t="n">
         <v>0.619</v>
@@ -3628,49 +4504,49 @@
         <v>0.446</v>
       </c>
       <c r="AT5" s="129" t="n">
-        <v>0.086</v>
+        <v>0.014</v>
       </c>
       <c r="AU5" s="132" t="n">
-        <v>0.014</v>
+        <v>0.137</v>
       </c>
       <c r="AV5" s="135" t="n">
         <v>0.453</v>
       </c>
       <c r="AW5" s="138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" s="141" t="n">
         <v>0.014</v>
       </c>
-      <c r="AX5" s="141" t="n">
+      <c r="AY5" s="144" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="AZ5" s="147" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BA5" s="150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" s="153" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BC5" s="156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" s="159" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="BE5" s="162" t="n">
         <v>0.036</v>
       </c>
-      <c r="AY5" s="144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ5" s="147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA5" s="150" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB5" s="153" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="BC5" s="156" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="BD5" s="159" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="BE5" s="162" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BF5" s="165" t="n">
-        <v>0.518</v>
+        <v>0.317</v>
       </c>
       <c r="BG5" s="168" t="n">
         <v>0.137</v>
       </c>
       <c r="BH5" s="171" t="n">
-        <v>0.317</v>
+        <v>0.518</v>
       </c>
       <c r="BI5" s="174" t="n">
         <v>0.719</v>
@@ -3682,43 +4558,43 @@
         <v>0.072</v>
       </c>
       <c r="BL5" s="183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" s="186" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="BN5" s="189" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="BO5" s="192" t="n">
         <v>0.252</v>
       </c>
-      <c r="BM5" s="186" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="BN5" s="189" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="BO5" s="192" t="n">
+      <c r="BP5" s="195" t="n">
         <v>0.079</v>
       </c>
-      <c r="BP5" s="195" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BQ5" s="198" t="n">
-        <v>0.0</v>
+        <v>0.173</v>
       </c>
       <c r="BR5" s="201" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="BS5" s="204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT5" s="207" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BU5" s="210" t="n">
         <v>0.029</v>
       </c>
-      <c r="BS5" s="204" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="BT5" s="207" t="n">
+      <c r="BV5" s="213" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="BW5" s="216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX5" s="219" t="n">
         <v>0.094</v>
-      </c>
-      <c r="BU5" s="210" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="BV5" s="213" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW5" s="216" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="BX5" s="219" t="n">
-        <v>0.014</v>
       </c>
     </row>
     <row r="6">
@@ -3734,28 +4610,28 @@
         <v>1.889</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.111</v>
+        <v>0.194</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>3.444</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>0.194</v>
+        <v>0.111</v>
       </c>
       <c r="I6" s="19" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="M6" s="31" t="n">
         <v>0.417</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="K6" s="25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="M6" s="31" t="n">
-        <v>0.583</v>
       </c>
       <c r="N6" s="34" t="n">
         <v>2.0</v>
@@ -3764,37 +4640,37 @@
         <v>0.139</v>
       </c>
       <c r="P6" s="40" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="Q6" s="43" t="n">
         <v>0.556</v>
       </c>
-      <c r="Q6" s="43" t="n">
-        <v>1.056</v>
-      </c>
       <c r="R6" s="46" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="S6" s="49" t="n">
         <v>3.639</v>
       </c>
-      <c r="S6" s="49" t="n">
-        <v>0.111</v>
-      </c>
       <c r="T6" s="52" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" s="55" t="n">
-        <v>0.167</v>
+        <v>0.0</v>
       </c>
       <c r="V6" s="58" t="n">
         <v>3.583</v>
       </c>
       <c r="W6" s="61" t="n">
-        <v>0.0</v>
+        <v>0.167</v>
       </c>
       <c r="X6" s="64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y6" s="67" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Z6" s="70" t="n">
         <v>0.083</v>
-      </c>
-      <c r="Y6" s="67" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z6" s="70" t="n">
-        <v>0.167</v>
       </c>
       <c r="AA6" s="73" t="n">
         <v>0.361</v>
@@ -3803,28 +4679,28 @@
         <v>3.389</v>
       </c>
       <c r="AC6" s="79" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AD6" s="82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" s="85" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AF6" s="88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" s="91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH6" s="94" t="n">
         <v>0.972</v>
       </c>
-      <c r="AD6" s="82" t="n">
+      <c r="AI6" s="97" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AJ6" s="100" t="n">
         <v>0.306</v>
-      </c>
-      <c r="AE6" s="85" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF6" s="88" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AG6" s="91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI6" s="97" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="AJ6" s="100" t="n">
-        <v>0.278</v>
       </c>
       <c r="AK6" s="103" t="n">
         <v>2.333</v>
@@ -3836,10 +4712,10 @@
         <v>0.194</v>
       </c>
       <c r="AN6" s="112" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="AO6" s="115" t="n">
         <v>0.111</v>
-      </c>
-      <c r="AO6" s="115" t="n">
-        <v>3.444</v>
       </c>
       <c r="AP6" s="118" t="n">
         <v>2.389</v>
@@ -3854,49 +4730,49 @@
         <v>1.722</v>
       </c>
       <c r="AT6" s="130" t="n">
-        <v>0.333</v>
+        <v>0.056</v>
       </c>
       <c r="AU6" s="133" t="n">
-        <v>0.056</v>
+        <v>0.528</v>
       </c>
       <c r="AV6" s="136" t="n">
         <v>1.75</v>
       </c>
       <c r="AW6" s="139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" s="142" t="n">
         <v>0.056</v>
       </c>
-      <c r="AX6" s="142" t="n">
+      <c r="AY6" s="145" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AZ6" s="148" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BA6" s="151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" s="154" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BC6" s="157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" s="160" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="BE6" s="163" t="n">
         <v>0.139</v>
       </c>
-      <c r="AY6" s="145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ6" s="148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA6" s="151" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BB6" s="154" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="BC6" s="157" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BD6" s="160" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BE6" s="163" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BF6" s="166" t="n">
-        <v>2.0</v>
+        <v>1.222</v>
       </c>
       <c r="BG6" s="169" t="n">
         <v>0.528</v>
       </c>
       <c r="BH6" s="172" t="n">
-        <v>1.222</v>
+        <v>2.0</v>
       </c>
       <c r="BI6" s="175" t="n">
         <v>2.778</v>
@@ -3908,43 +4784,43 @@
         <v>0.278</v>
       </c>
       <c r="BL6" s="184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM6" s="187" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BN6" s="190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO6" s="193" t="n">
         <v>0.972</v>
       </c>
-      <c r="BM6" s="187" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BN6" s="190" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BO6" s="193" t="n">
+      <c r="BP6" s="196" t="n">
         <v>0.306</v>
       </c>
-      <c r="BP6" s="196" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BQ6" s="199" t="n">
-        <v>0.0</v>
+        <v>0.667</v>
       </c>
       <c r="BR6" s="202" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BS6" s="205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT6" s="208" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BU6" s="211" t="n">
         <v>0.111</v>
       </c>
-      <c r="BS6" s="205" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="BT6" s="208" t="n">
+      <c r="BV6" s="214" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW6" s="217" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX6" s="220" t="n">
         <v>0.361</v>
-      </c>
-      <c r="BU6" s="211" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BV6" s="214" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW6" s="217" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BX6" s="220" t="n">
-        <v>0.056</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +4830,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>75</v>
@@ -3966,220 +4842,220 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="224" t="n">
-        <v>0.889</v>
+        <v>0.914</v>
       </c>
       <c r="F8" s="227" t="n">
-        <v>0.083</v>
+        <v>0.229</v>
       </c>
       <c r="G8" s="230" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" s="233" t="n">
-        <v>0.194</v>
+        <v>0.057</v>
       </c>
       <c r="I8" s="236" t="n">
-        <v>0.361</v>
+        <v>0.686</v>
       </c>
       <c r="J8" s="239" t="n">
-        <v>0.583</v>
+        <v>1.0</v>
       </c>
       <c r="K8" s="242" t="n">
-        <v>1.0</v>
+        <v>0.114</v>
       </c>
       <c r="L8" s="245" t="n">
-        <v>0.139</v>
+        <v>0.4</v>
       </c>
       <c r="M8" s="248" t="n">
-        <v>0.444</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="251" t="n">
-        <v>0.917</v>
+        <v>0.943</v>
       </c>
       <c r="O8" s="254" t="n">
-        <v>0.083</v>
+        <v>0.057</v>
       </c>
       <c r="P8" s="257" t="n">
-        <v>0.417</v>
+        <v>0.8</v>
       </c>
       <c r="Q8" s="260" t="n">
-        <v>0.806</v>
+        <v>0.6</v>
       </c>
       <c r="R8" s="263" t="n">
-        <v>1.0</v>
+        <v>0.143</v>
       </c>
       <c r="S8" s="266" t="n">
-        <v>0.111</v>
+        <v>1.0</v>
       </c>
       <c r="T8" s="269" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" s="272" t="n">
-        <v>0.139</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="275" t="n">
         <v>1.0</v>
       </c>
       <c r="W8" s="278" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="X8" s="281" t="n">
-        <v>0.083</v>
+        <v>1.0</v>
       </c>
       <c r="Y8" s="284" t="n">
-        <v>1.0</v>
+        <v>0.143</v>
       </c>
       <c r="Z8" s="287" t="n">
-        <v>0.139</v>
+        <v>0.2</v>
       </c>
       <c r="AA8" s="290" t="n">
-        <v>0.333</v>
+        <v>0.343</v>
       </c>
       <c r="AB8" s="293" t="n">
         <v>1.0</v>
       </c>
       <c r="AC8" s="296" t="n">
-        <v>0.75</v>
+        <v>0.286</v>
       </c>
       <c r="AD8" s="299" t="n">
-        <v>0.278</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" s="302" t="n">
-        <v>1.0</v>
+        <v>0.343</v>
       </c>
       <c r="AF8" s="305" t="n">
-        <v>0.083</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" s="308" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH8" s="311" t="n">
-        <v>0.0</v>
+        <v>0.514</v>
       </c>
       <c r="AI8" s="314" t="n">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="AJ8" s="317" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="AK8" s="320" t="n">
         <v>1.0</v>
       </c>
       <c r="AL8" s="323" t="n">
-        <v>0.806</v>
+        <v>0.8</v>
       </c>
       <c r="AM8" s="326" t="n">
-        <v>0.167</v>
+        <v>0.057</v>
       </c>
       <c r="AN8" s="329" t="n">
-        <v>0.111</v>
+        <v>1.0</v>
       </c>
       <c r="AO8" s="332" t="n">
-        <v>1.0</v>
+        <v>0.229</v>
       </c>
       <c r="AP8" s="335" t="n">
         <v>1.0</v>
       </c>
       <c r="AQ8" s="338" t="n">
-        <v>0.833</v>
+        <v>0.771</v>
       </c>
       <c r="AR8" s="341" t="n">
         <v>1.0</v>
       </c>
       <c r="AS8" s="344" t="n">
-        <v>0.861</v>
+        <v>0.886</v>
       </c>
       <c r="AT8" s="347" t="n">
-        <v>0.278</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" s="350" t="n">
-        <v>0.056</v>
+        <v>0.4</v>
       </c>
       <c r="AV8" s="353" t="n">
         <v>1.0</v>
       </c>
       <c r="AW8" s="356" t="n">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="AX8" s="359" t="n">
-        <v>0.139</v>
+        <v>0.114</v>
       </c>
       <c r="AY8" s="362" t="n">
-        <v>0.0</v>
+        <v>0.257</v>
       </c>
       <c r="AZ8" s="365" t="n">
-        <v>0.0</v>
+        <v>0.057</v>
       </c>
       <c r="BA8" s="368" t="n">
-        <v>0.028</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" s="371" t="n">
-        <v>0.556</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" s="374" t="n">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="BD8" s="377" t="n">
-        <v>0.417</v>
+        <v>0.629</v>
       </c>
       <c r="BE8" s="380" t="n">
-        <v>0.0</v>
+        <v>0.114</v>
       </c>
       <c r="BF8" s="383" t="n">
-        <v>0.917</v>
+        <v>0.829</v>
       </c>
       <c r="BG8" s="386" t="n">
-        <v>0.389</v>
+        <v>0.6</v>
       </c>
       <c r="BH8" s="389" t="n">
-        <v>0.917</v>
+        <v>0.943</v>
       </c>
       <c r="BI8" s="392" t="n">
         <v>1.0</v>
       </c>
       <c r="BJ8" s="395" t="n">
-        <v>0.639</v>
+        <v>0.514</v>
       </c>
       <c r="BK8" s="398" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="BL8" s="401" t="n">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" s="404" t="n">
-        <v>1.0</v>
+        <v>0.514</v>
       </c>
       <c r="BN8" s="407" t="n">
-        <v>0.333</v>
+        <v>1.0</v>
       </c>
       <c r="BO8" s="410" t="n">
-        <v>0.278</v>
+        <v>0.514</v>
       </c>
       <c r="BP8" s="413" t="n">
-        <v>0.0</v>
+        <v>0.286</v>
       </c>
       <c r="BQ8" s="416" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="BR8" s="419" t="n">
-        <v>0.056</v>
+        <v>0.543</v>
       </c>
       <c r="BS8" s="422" t="n">
-        <v>0.528</v>
+        <v>0.0</v>
       </c>
       <c r="BT8" s="425" t="n">
-        <v>0.306</v>
+        <v>0.029</v>
       </c>
       <c r="BU8" s="428" t="n">
-        <v>0.444</v>
+        <v>0.029</v>
       </c>
       <c r="BV8" s="431" t="n">
-        <v>0.0</v>
+        <v>0.943</v>
       </c>
       <c r="BW8" s="434" t="n">
-        <v>0.917</v>
+        <v>0.0</v>
       </c>
       <c r="BX8" s="437" t="n">
-        <v>0.056</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="9">
@@ -4189,223 +5065,223 @@
         <v>76</v>
       </c>
       <c r="D9" s="222" t="n">
-        <v>0.482</v>
+        <v>0.546</v>
       </c>
       <c r="E9" s="225" t="n">
-        <v>0.489</v>
+        <v>0.411</v>
       </c>
       <c r="F9" s="228" t="n">
-        <v>0.029</v>
+        <v>0.055</v>
       </c>
       <c r="G9" s="231" t="n">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
       <c r="H9" s="234" t="n">
-        <v>0.05</v>
+        <v>0.012</v>
       </c>
       <c r="I9" s="237" t="n">
-        <v>0.108</v>
+        <v>0.202</v>
       </c>
       <c r="J9" s="240" t="n">
-        <v>0.223</v>
+        <v>0.497</v>
       </c>
       <c r="K9" s="243" t="n">
-        <v>0.453</v>
+        <v>0.025</v>
       </c>
       <c r="L9" s="246" t="n">
-        <v>0.036</v>
+        <v>0.117</v>
       </c>
       <c r="M9" s="249" t="n">
-        <v>0.151</v>
+        <v>0.117</v>
       </c>
       <c r="N9" s="252" t="n">
-        <v>0.518</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="255" t="n">
-        <v>0.036</v>
+        <v>0.025</v>
       </c>
       <c r="P9" s="258" t="n">
-        <v>0.144</v>
+        <v>0.294</v>
       </c>
       <c r="Q9" s="261" t="n">
-        <v>0.273</v>
+        <v>0.178</v>
       </c>
       <c r="R9" s="264" t="n">
-        <v>0.942</v>
+        <v>0.049</v>
       </c>
       <c r="S9" s="267" t="n">
-        <v>0.029</v>
+        <v>0.908</v>
       </c>
       <c r="T9" s="270" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" s="273" t="n">
-        <v>0.043</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="276" t="n">
-        <v>0.928</v>
+        <v>0.926</v>
       </c>
       <c r="W9" s="279" t="n">
-        <v>0.0</v>
+        <v>0.031</v>
       </c>
       <c r="X9" s="282" t="n">
-        <v>0.022</v>
+        <v>0.883</v>
       </c>
       <c r="Y9" s="285" t="n">
-        <v>0.906</v>
+        <v>0.031</v>
       </c>
       <c r="Z9" s="288" t="n">
         <v>0.043</v>
       </c>
       <c r="AA9" s="291" t="n">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="AB9" s="294" t="n">
-        <v>0.878</v>
+        <v>0.859</v>
       </c>
       <c r="AC9" s="297" t="n">
-        <v>0.252</v>
+        <v>0.08</v>
       </c>
       <c r="AD9" s="300" t="n">
-        <v>0.079</v>
+        <v>0.0</v>
       </c>
       <c r="AE9" s="303" t="n">
-        <v>0.453</v>
+        <v>0.098</v>
       </c>
       <c r="AF9" s="306" t="n">
-        <v>0.022</v>
+        <v>0.0</v>
       </c>
       <c r="AG9" s="309" t="n">
-        <v>0.0</v>
+        <v>0.497</v>
       </c>
       <c r="AH9" s="312" t="n">
-        <v>0.0</v>
+        <v>0.172</v>
       </c>
       <c r="AI9" s="315" t="n">
-        <v>0.094</v>
+        <v>0.043</v>
       </c>
       <c r="AJ9" s="318" t="n">
-        <v>0.072</v>
+        <v>0.067</v>
       </c>
       <c r="AK9" s="321" t="n">
-        <v>0.604</v>
+        <v>0.644</v>
       </c>
       <c r="AL9" s="324" t="n">
-        <v>0.367</v>
+        <v>0.313</v>
       </c>
       <c r="AM9" s="327" t="n">
-        <v>0.05</v>
+        <v>0.012</v>
       </c>
       <c r="AN9" s="330" t="n">
-        <v>0.029</v>
+        <v>0.89</v>
       </c>
       <c r="AO9" s="333" t="n">
-        <v>0.892</v>
+        <v>0.055</v>
       </c>
       <c r="AP9" s="336" t="n">
-        <v>0.619</v>
+        <v>0.675</v>
       </c>
       <c r="AQ9" s="339" t="n">
-        <v>0.353</v>
+        <v>0.282</v>
       </c>
       <c r="AR9" s="342" t="n">
-        <v>0.525</v>
+        <v>0.577</v>
       </c>
       <c r="AS9" s="345" t="n">
-        <v>0.446</v>
+        <v>0.38</v>
       </c>
       <c r="AT9" s="348" t="n">
-        <v>0.086</v>
+        <v>0.0</v>
       </c>
       <c r="AU9" s="351" t="n">
-        <v>0.014</v>
+        <v>0.117</v>
       </c>
       <c r="AV9" s="354" t="n">
-        <v>0.453</v>
+        <v>0.497</v>
       </c>
       <c r="AW9" s="357" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="AX9" s="360" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="AY9" s="363" t="n">
-        <v>0.0</v>
+        <v>0.067</v>
       </c>
       <c r="AZ9" s="366" t="n">
-        <v>0.0</v>
+        <v>0.012</v>
       </c>
       <c r="BA9" s="369" t="n">
-        <v>0.007</v>
+        <v>0.0</v>
       </c>
       <c r="BB9" s="372" t="n">
-        <v>0.209</v>
+        <v>0.0</v>
       </c>
       <c r="BC9" s="375" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="BD9" s="378" t="n">
-        <v>0.137</v>
+        <v>0.19</v>
       </c>
       <c r="BE9" s="381" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="BF9" s="384" t="n">
-        <v>0.518</v>
+        <v>0.313</v>
       </c>
       <c r="BG9" s="387" t="n">
-        <v>0.137</v>
+        <v>0.184</v>
       </c>
       <c r="BH9" s="390" t="n">
-        <v>0.317</v>
+        <v>0.46</v>
       </c>
       <c r="BI9" s="393" t="n">
-        <v>0.719</v>
+        <v>0.785</v>
       </c>
       <c r="BJ9" s="396" t="n">
-        <v>0.252</v>
+        <v>0.172</v>
       </c>
       <c r="BK9" s="399" t="n">
-        <v>0.072</v>
+        <v>0.08</v>
       </c>
       <c r="BL9" s="402" t="n">
-        <v>0.252</v>
+        <v>0.0</v>
       </c>
       <c r="BM9" s="405" t="n">
-        <v>0.453</v>
+        <v>0.141</v>
       </c>
       <c r="BN9" s="408" t="n">
-        <v>0.115</v>
+        <v>0.497</v>
       </c>
       <c r="BO9" s="411" t="n">
-        <v>0.079</v>
+        <v>0.172</v>
       </c>
       <c r="BP9" s="414" t="n">
-        <v>0.0</v>
+        <v>0.067</v>
       </c>
       <c r="BQ9" s="417" t="n">
-        <v>0.0</v>
+        <v>0.184</v>
       </c>
       <c r="BR9" s="420" t="n">
-        <v>0.029</v>
+        <v>0.16</v>
       </c>
       <c r="BS9" s="423" t="n">
-        <v>0.173</v>
+        <v>0.0</v>
       </c>
       <c r="BT9" s="426" t="n">
-        <v>0.094</v>
+        <v>0.006</v>
       </c>
       <c r="BU9" s="429" t="n">
-        <v>0.144</v>
+        <v>0.018</v>
       </c>
       <c r="BV9" s="432" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="BW9" s="435" t="n">
-        <v>0.518</v>
+        <v>0.0</v>
       </c>
       <c r="BX9" s="438" t="n">
-        <v>0.014</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="10">
@@ -4415,223 +5291,223 @@
         <v>77</v>
       </c>
       <c r="D10" s="223" t="n">
-        <v>1.861</v>
+        <v>2.543</v>
       </c>
       <c r="E10" s="226" t="n">
-        <v>1.889</v>
+        <v>1.914</v>
       </c>
       <c r="F10" s="229" t="n">
-        <v>0.111</v>
+        <v>0.257</v>
       </c>
       <c r="G10" s="232" t="n">
-        <v>3.444</v>
+        <v>4.143</v>
       </c>
       <c r="H10" s="235" t="n">
-        <v>0.194</v>
+        <v>0.057</v>
       </c>
       <c r="I10" s="238" t="n">
-        <v>0.417</v>
+        <v>0.943</v>
       </c>
       <c r="J10" s="241" t="n">
-        <v>0.861</v>
+        <v>2.314</v>
       </c>
       <c r="K10" s="244" t="n">
-        <v>1.75</v>
+        <v>0.114</v>
       </c>
       <c r="L10" s="247" t="n">
-        <v>0.139</v>
+        <v>0.543</v>
       </c>
       <c r="M10" s="250" t="n">
-        <v>0.583</v>
+        <v>0.543</v>
       </c>
       <c r="N10" s="253" t="n">
-        <v>2.0</v>
+        <v>2.143</v>
       </c>
       <c r="O10" s="256" t="n">
-        <v>0.139</v>
+        <v>0.114</v>
       </c>
       <c r="P10" s="259" t="n">
-        <v>0.556</v>
+        <v>1.371</v>
       </c>
       <c r="Q10" s="262" t="n">
-        <v>1.056</v>
+        <v>0.829</v>
       </c>
       <c r="R10" s="265" t="n">
-        <v>3.639</v>
+        <v>0.229</v>
       </c>
       <c r="S10" s="268" t="n">
-        <v>0.111</v>
+        <v>4.229</v>
       </c>
       <c r="T10" s="271" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" s="274" t="n">
-        <v>0.167</v>
+        <v>0.0</v>
       </c>
       <c r="V10" s="277" t="n">
-        <v>3.583</v>
+        <v>4.314</v>
       </c>
       <c r="W10" s="280" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="X10" s="283" t="n">
-        <v>0.083</v>
+        <v>4.114</v>
       </c>
       <c r="Y10" s="286" t="n">
-        <v>3.5</v>
+        <v>0.143</v>
       </c>
       <c r="Z10" s="289" t="n">
-        <v>0.167</v>
+        <v>0.2</v>
       </c>
       <c r="AA10" s="292" t="n">
-        <v>0.361</v>
+        <v>0.457</v>
       </c>
       <c r="AB10" s="295" t="n">
-        <v>3.389</v>
+        <v>4.0</v>
       </c>
       <c r="AC10" s="298" t="n">
-        <v>0.972</v>
+        <v>0.371</v>
       </c>
       <c r="AD10" s="301" t="n">
-        <v>0.306</v>
+        <v>0.0</v>
       </c>
       <c r="AE10" s="304" t="n">
-        <v>1.75</v>
+        <v>0.457</v>
       </c>
       <c r="AF10" s="307" t="n">
-        <v>0.083</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" s="310" t="n">
-        <v>0.0</v>
+        <v>2.314</v>
       </c>
       <c r="AH10" s="313" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="AI10" s="316" t="n">
-        <v>0.361</v>
+        <v>0.2</v>
       </c>
       <c r="AJ10" s="319" t="n">
-        <v>0.278</v>
+        <v>0.314</v>
       </c>
       <c r="AK10" s="322" t="n">
-        <v>2.333</v>
+        <v>3.0</v>
       </c>
       <c r="AL10" s="325" t="n">
-        <v>1.417</v>
+        <v>1.457</v>
       </c>
       <c r="AM10" s="328" t="n">
-        <v>0.194</v>
+        <v>0.057</v>
       </c>
       <c r="AN10" s="331" t="n">
-        <v>0.111</v>
+        <v>4.143</v>
       </c>
       <c r="AO10" s="334" t="n">
-        <v>3.444</v>
+        <v>0.257</v>
       </c>
       <c r="AP10" s="337" t="n">
-        <v>2.389</v>
+        <v>3.143</v>
       </c>
       <c r="AQ10" s="340" t="n">
-        <v>1.361</v>
+        <v>1.314</v>
       </c>
       <c r="AR10" s="343" t="n">
-        <v>2.028</v>
+        <v>2.686</v>
       </c>
       <c r="AS10" s="346" t="n">
-        <v>1.722</v>
+        <v>1.771</v>
       </c>
       <c r="AT10" s="349" t="n">
-        <v>0.333</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" s="352" t="n">
-        <v>0.056</v>
+        <v>0.543</v>
       </c>
       <c r="AV10" s="355" t="n">
-        <v>1.75</v>
+        <v>2.314</v>
       </c>
       <c r="AW10" s="358" t="n">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="AX10" s="361" t="n">
-        <v>0.139</v>
+        <v>0.171</v>
       </c>
       <c r="AY10" s="364" t="n">
-        <v>0.0</v>
+        <v>0.314</v>
       </c>
       <c r="AZ10" s="367" t="n">
-        <v>0.0</v>
+        <v>0.057</v>
       </c>
       <c r="BA10" s="370" t="n">
-        <v>0.028</v>
+        <v>0.0</v>
       </c>
       <c r="BB10" s="373" t="n">
-        <v>0.806</v>
+        <v>0.0</v>
       </c>
       <c r="BC10" s="376" t="n">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="BD10" s="379" t="n">
-        <v>0.528</v>
+        <v>0.886</v>
       </c>
       <c r="BE10" s="382" t="n">
-        <v>0.0</v>
+        <v>0.114</v>
       </c>
       <c r="BF10" s="385" t="n">
-        <v>2.0</v>
+        <v>1.457</v>
       </c>
       <c r="BG10" s="388" t="n">
-        <v>0.528</v>
+        <v>0.857</v>
       </c>
       <c r="BH10" s="391" t="n">
-        <v>1.222</v>
+        <v>2.143</v>
       </c>
       <c r="BI10" s="394" t="n">
-        <v>2.778</v>
+        <v>3.657</v>
       </c>
       <c r="BJ10" s="397" t="n">
-        <v>0.972</v>
+        <v>0.8</v>
       </c>
       <c r="BK10" s="400" t="n">
-        <v>0.278</v>
+        <v>0.371</v>
       </c>
       <c r="BL10" s="403" t="n">
-        <v>0.972</v>
+        <v>0.0</v>
       </c>
       <c r="BM10" s="406" t="n">
-        <v>1.75</v>
+        <v>0.657</v>
       </c>
       <c r="BN10" s="409" t="n">
-        <v>0.444</v>
+        <v>2.314</v>
       </c>
       <c r="BO10" s="412" t="n">
-        <v>0.306</v>
+        <v>0.8</v>
       </c>
       <c r="BP10" s="415" t="n">
-        <v>0.0</v>
+        <v>0.314</v>
       </c>
       <c r="BQ10" s="418" t="n">
-        <v>0.0</v>
+        <v>0.857</v>
       </c>
       <c r="BR10" s="421" t="n">
-        <v>0.111</v>
+        <v>0.743</v>
       </c>
       <c r="BS10" s="424" t="n">
-        <v>0.667</v>
+        <v>0.0</v>
       </c>
       <c r="BT10" s="427" t="n">
-        <v>0.361</v>
+        <v>0.029</v>
       </c>
       <c r="BU10" s="430" t="n">
-        <v>0.556</v>
+        <v>0.086</v>
       </c>
       <c r="BV10" s="433" t="n">
-        <v>0.0</v>
+        <v>2.143</v>
       </c>
       <c r="BW10" s="436" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BX10" s="439" t="n">
-        <v>0.056</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -4644,7 +5520,7 @@
         <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -4653,220 +5529,220 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="443" t="n">
-        <v>0.944</v>
+        <v>0.914</v>
       </c>
       <c r="F12" s="446" t="n">
-        <v>0.111</v>
+        <v>0.229</v>
       </c>
       <c r="G12" s="449" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" s="452" t="n">
-        <v>0.222</v>
+        <v>0.057</v>
       </c>
       <c r="I12" s="455" t="n">
-        <v>0.361</v>
+        <v>0.686</v>
       </c>
       <c r="J12" s="458" t="n">
-        <v>0.722</v>
+        <v>1.0</v>
       </c>
       <c r="K12" s="461" t="n">
-        <v>1.0</v>
+        <v>0.114</v>
       </c>
       <c r="L12" s="464" t="n">
-        <v>0.083</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="467" t="n">
-        <v>0.556</v>
+        <v>0.4</v>
       </c>
       <c r="N12" s="470" t="n">
-        <v>0.944</v>
+        <v>0.943</v>
       </c>
       <c r="O12" s="473" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="P12" s="476" t="n">
-        <v>0.417</v>
+        <v>0.8</v>
       </c>
       <c r="Q12" s="479" t="n">
-        <v>0.833</v>
+        <v>0.6</v>
       </c>
       <c r="R12" s="482" t="n">
-        <v>1.0</v>
+        <v>0.143</v>
       </c>
       <c r="S12" s="485" t="n">
-        <v>0.167</v>
+        <v>1.0</v>
       </c>
       <c r="T12" s="488" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" s="491" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="494" t="n">
         <v>1.0</v>
       </c>
       <c r="W12" s="497" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="X12" s="500" t="n">
-        <v>0.194</v>
+        <v>1.0</v>
       </c>
       <c r="Y12" s="503" t="n">
-        <v>1.0</v>
+        <v>0.143</v>
       </c>
       <c r="Z12" s="506" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AA12" s="509" t="n">
-        <v>0.194</v>
+        <v>0.343</v>
       </c>
       <c r="AB12" s="512" t="n">
         <v>1.0</v>
       </c>
       <c r="AC12" s="515" t="n">
-        <v>0.583</v>
+        <v>0.286</v>
       </c>
       <c r="AD12" s="518" t="n">
-        <v>0.306</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" s="521" t="n">
-        <v>1.0</v>
+        <v>0.343</v>
       </c>
       <c r="AF12" s="524" t="n">
-        <v>0.194</v>
+        <v>0.0</v>
       </c>
       <c r="AG12" s="527" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH12" s="530" t="n">
-        <v>0.0</v>
+        <v>0.514</v>
       </c>
       <c r="AI12" s="533" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="AJ12" s="536" t="n">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
       <c r="AK12" s="539" t="n">
         <v>1.0</v>
       </c>
       <c r="AL12" s="542" t="n">
-        <v>0.722</v>
+        <v>0.8</v>
       </c>
       <c r="AM12" s="545" t="n">
-        <v>0.25</v>
+        <v>0.057</v>
       </c>
       <c r="AN12" s="548" t="n">
-        <v>0.139</v>
+        <v>1.0</v>
       </c>
       <c r="AO12" s="551" t="n">
-        <v>1.0</v>
+        <v>0.229</v>
       </c>
       <c r="AP12" s="554" t="n">
         <v>1.0</v>
       </c>
       <c r="AQ12" s="557" t="n">
-        <v>0.833</v>
+        <v>0.771</v>
       </c>
       <c r="AR12" s="560" t="n">
         <v>1.0</v>
       </c>
       <c r="AS12" s="563" t="n">
-        <v>0.833</v>
+        <v>0.886</v>
       </c>
       <c r="AT12" s="566" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AU12" s="569" t="n">
-        <v>0.111</v>
+        <v>0.4</v>
       </c>
       <c r="AV12" s="572" t="n">
         <v>1.0</v>
       </c>
       <c r="AW12" s="575" t="n">
-        <v>0.0</v>
+        <v>0.029</v>
       </c>
       <c r="AX12" s="578" t="n">
-        <v>0.083</v>
+        <v>0.114</v>
       </c>
       <c r="AY12" s="581" t="n">
-        <v>0.0</v>
+        <v>0.257</v>
       </c>
       <c r="AZ12" s="584" t="n">
-        <v>0.0</v>
+        <v>0.057</v>
       </c>
       <c r="BA12" s="587" t="n">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="BB12" s="590" t="n">
-        <v>0.722</v>
+        <v>0.0</v>
       </c>
       <c r="BC12" s="593" t="n">
-        <v>0.083</v>
+        <v>0.029</v>
       </c>
       <c r="BD12" s="596" t="n">
-        <v>0.472</v>
+        <v>0.629</v>
       </c>
       <c r="BE12" s="599" t="n">
-        <v>0.0</v>
+        <v>0.114</v>
       </c>
       <c r="BF12" s="602" t="n">
-        <v>0.944</v>
+        <v>0.829</v>
       </c>
       <c r="BG12" s="605" t="n">
-        <v>0.444</v>
+        <v>0.6</v>
       </c>
       <c r="BH12" s="608" t="n">
-        <v>0.889</v>
+        <v>0.943</v>
       </c>
       <c r="BI12" s="611" t="n">
         <v>1.0</v>
       </c>
       <c r="BJ12" s="614" t="n">
-        <v>0.639</v>
+        <v>0.514</v>
       </c>
       <c r="BK12" s="617" t="n">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
       <c r="BL12" s="620" t="n">
-        <v>0.583</v>
+        <v>0.0</v>
       </c>
       <c r="BM12" s="623" t="n">
-        <v>1.0</v>
+        <v>0.514</v>
       </c>
       <c r="BN12" s="626" t="n">
-        <v>0.306</v>
+        <v>1.0</v>
       </c>
       <c r="BO12" s="629" t="n">
-        <v>0.306</v>
+        <v>0.514</v>
       </c>
       <c r="BP12" s="632" t="n">
-        <v>0.0</v>
+        <v>0.286</v>
       </c>
       <c r="BQ12" s="635" t="n">
-        <v>0.056</v>
+        <v>0.6</v>
       </c>
       <c r="BR12" s="638" t="n">
-        <v>0.028</v>
+        <v>0.543</v>
       </c>
       <c r="BS12" s="641" t="n">
-        <v>0.583</v>
+        <v>0.0</v>
       </c>
       <c r="BT12" s="644" t="n">
-        <v>0.167</v>
+        <v>0.029</v>
       </c>
       <c r="BU12" s="647" t="n">
-        <v>0.472</v>
+        <v>0.029</v>
       </c>
       <c r="BV12" s="650" t="n">
-        <v>0.0</v>
+        <v>0.943</v>
       </c>
       <c r="BW12" s="653" t="n">
-        <v>0.944</v>
+        <v>0.0</v>
       </c>
       <c r="BX12" s="656" t="n">
-        <v>0.167</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="13">
@@ -4876,223 +5752,223 @@
         <v>76</v>
       </c>
       <c r="D13" s="441" t="n">
-        <v>0.483</v>
+        <v>0.546</v>
       </c>
       <c r="E13" s="444" t="n">
-        <v>0.483</v>
+        <v>0.411</v>
       </c>
       <c r="F13" s="447" t="n">
-        <v>0.034</v>
+        <v>0.055</v>
       </c>
       <c r="G13" s="450" t="n">
-        <v>0.866</v>
+        <v>0.89</v>
       </c>
       <c r="H13" s="453" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I13" s="456" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J13" s="459" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="K13" s="462" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L13" s="465" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="M13" s="468" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N13" s="471" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O13" s="474" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="P13" s="477" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="Q13" s="480" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="R13" s="483" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="S13" s="486" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="T13" s="489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="495" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="W13" s="498" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="X13" s="501" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="Y13" s="504" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="Z13" s="507" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AA13" s="510" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="AB13" s="513" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="AC13" s="516" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD13" s="519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" s="522" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="AF13" s="525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG13" s="528" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AH13" s="531" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AI13" s="534" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AJ13" s="537" t="n">
         <v>0.067</v>
       </c>
-      <c r="I13" s="456" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="J13" s="459" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="K13" s="462" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="L13" s="465" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M13" s="468" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="N13" s="471" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="O13" s="474" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P13" s="477" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="Q13" s="480" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="R13" s="483" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="S13" s="486" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T13" s="489" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="492" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="V13" s="495" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="W13" s="498" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X13" s="501" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="Y13" s="504" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="Z13" s="507" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="AA13" s="510" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB13" s="513" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="AC13" s="516" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="AD13" s="519" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="AE13" s="522" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="AF13" s="525" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="AG13" s="528" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH13" s="531" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI13" s="534" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJ13" s="537" t="n">
-        <v>0.128</v>
-      </c>
       <c r="AK13" s="540" t="n">
-        <v>0.671</v>
+        <v>0.644</v>
       </c>
       <c r="AL13" s="543" t="n">
-        <v>0.295</v>
+        <v>0.313</v>
       </c>
       <c r="AM13" s="546" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AN13" s="549" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO13" s="552" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AP13" s="555" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AQ13" s="558" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="AR13" s="561" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="AS13" s="564" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT13" s="567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU13" s="570" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="AV13" s="573" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AW13" s="576" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AX13" s="579" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="AY13" s="582" t="n">
         <v>0.067</v>
       </c>
-      <c r="AN13" s="549" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="AO13" s="552" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="AP13" s="555" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="AQ13" s="558" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="AR13" s="561" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS13" s="564" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="AT13" s="567" t="n">
+      <c r="AZ13" s="585" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="BA13" s="588" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB13" s="591" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC13" s="594" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD13" s="597" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BE13" s="600" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BF13" s="603" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="BG13" s="606" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="BH13" s="609" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BI13" s="612" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="BJ13" s="615" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="BK13" s="618" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BL13" s="621" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM13" s="624" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="BN13" s="627" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="BO13" s="630" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="BP13" s="633" t="n">
         <v>0.067</v>
       </c>
-      <c r="AU13" s="570" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="AV13" s="573" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="AW13" s="576" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX13" s="579" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AY13" s="582" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ13" s="585" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA13" s="588" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="BB13" s="591" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="BC13" s="594" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BD13" s="597" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="BE13" s="600" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BF13" s="603" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="BG13" s="606" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="BH13" s="609" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="BI13" s="612" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="BJ13" s="615" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="BK13" s="618" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="BL13" s="621" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="BM13" s="624" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="BN13" s="627" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="BO13" s="630" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="BP13" s="633" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BQ13" s="636" t="n">
-        <v>0.013</v>
+        <v>0.184</v>
       </c>
       <c r="BR13" s="639" t="n">
-        <v>0.013</v>
+        <v>0.16</v>
       </c>
       <c r="BS13" s="642" t="n">
-        <v>0.174</v>
+        <v>0.0</v>
       </c>
       <c r="BT13" s="645" t="n">
-        <v>0.054</v>
+        <v>0.006</v>
       </c>
       <c r="BU13" s="648" t="n">
-        <v>0.134</v>
+        <v>0.018</v>
       </c>
       <c r="BV13" s="651" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="BW13" s="654" t="n">
-        <v>0.523</v>
+        <v>0.0</v>
       </c>
       <c r="BX13" s="657" t="n">
-        <v>0.054</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="14">
@@ -5102,223 +5978,223 @@
         <v>77</v>
       </c>
       <c r="D14" s="442" t="n">
-        <v>2.0</v>
+        <v>2.543</v>
       </c>
       <c r="E14" s="445" t="n">
-        <v>2.0</v>
+        <v>1.914</v>
       </c>
       <c r="F14" s="448" t="n">
-        <v>0.139</v>
+        <v>0.257</v>
       </c>
       <c r="G14" s="451" t="n">
-        <v>3.583</v>
+        <v>4.143</v>
       </c>
       <c r="H14" s="454" t="n">
-        <v>0.278</v>
+        <v>0.057</v>
       </c>
       <c r="I14" s="457" t="n">
-        <v>0.417</v>
+        <v>0.943</v>
       </c>
       <c r="J14" s="460" t="n">
-        <v>1.028</v>
+        <v>2.314</v>
       </c>
       <c r="K14" s="463" t="n">
-        <v>1.833</v>
+        <v>0.114</v>
       </c>
       <c r="L14" s="466" t="n">
-        <v>0.083</v>
+        <v>0.543</v>
       </c>
       <c r="M14" s="469" t="n">
-        <v>0.639</v>
+        <v>0.543</v>
       </c>
       <c r="N14" s="472" t="n">
-        <v>2.167</v>
+        <v>2.143</v>
       </c>
       <c r="O14" s="475" t="n">
-        <v>0.083</v>
+        <v>0.114</v>
       </c>
       <c r="P14" s="478" t="n">
-        <v>0.528</v>
+        <v>1.371</v>
       </c>
       <c r="Q14" s="481" t="n">
-        <v>1.222</v>
+        <v>0.829</v>
       </c>
       <c r="R14" s="484" t="n">
-        <v>3.833</v>
+        <v>0.229</v>
       </c>
       <c r="S14" s="487" t="n">
-        <v>0.167</v>
+        <v>4.229</v>
       </c>
       <c r="T14" s="490" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" s="493" t="n">
-        <v>0.361</v>
+        <v>0.0</v>
       </c>
       <c r="V14" s="496" t="n">
-        <v>3.639</v>
+        <v>4.314</v>
       </c>
       <c r="W14" s="499" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="X14" s="502" t="n">
-        <v>0.194</v>
+        <v>4.114</v>
       </c>
       <c r="Y14" s="505" t="n">
-        <v>3.444</v>
+        <v>0.143</v>
       </c>
       <c r="Z14" s="508" t="n">
-        <v>0.361</v>
+        <v>0.2</v>
       </c>
       <c r="AA14" s="511" t="n">
-        <v>0.25</v>
+        <v>0.457</v>
       </c>
       <c r="AB14" s="514" t="n">
-        <v>3.75</v>
+        <v>4.0</v>
       </c>
       <c r="AC14" s="517" t="n">
-        <v>0.778</v>
+        <v>0.371</v>
       </c>
       <c r="AD14" s="520" t="n">
-        <v>0.417</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" s="523" t="n">
-        <v>1.833</v>
+        <v>0.457</v>
       </c>
       <c r="AF14" s="526" t="n">
-        <v>0.194</v>
+        <v>0.0</v>
       </c>
       <c r="AG14" s="529" t="n">
-        <v>0.0</v>
+        <v>2.314</v>
       </c>
       <c r="AH14" s="532" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="AI14" s="535" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AJ14" s="538" t="n">
-        <v>0.528</v>
+        <v>0.314</v>
       </c>
       <c r="AK14" s="541" t="n">
-        <v>2.778</v>
+        <v>3.0</v>
       </c>
       <c r="AL14" s="544" t="n">
-        <v>1.222</v>
+        <v>1.457</v>
       </c>
       <c r="AM14" s="547" t="n">
-        <v>0.278</v>
+        <v>0.057</v>
       </c>
       <c r="AN14" s="550" t="n">
-        <v>0.139</v>
+        <v>4.143</v>
       </c>
       <c r="AO14" s="553" t="n">
-        <v>3.583</v>
+        <v>0.257</v>
       </c>
       <c r="AP14" s="556" t="n">
-        <v>2.611</v>
+        <v>3.143</v>
       </c>
       <c r="AQ14" s="559" t="n">
-        <v>1.389</v>
+        <v>1.314</v>
       </c>
       <c r="AR14" s="562" t="n">
-        <v>2.361</v>
+        <v>2.686</v>
       </c>
       <c r="AS14" s="565" t="n">
-        <v>1.639</v>
+        <v>1.771</v>
       </c>
       <c r="AT14" s="568" t="n">
-        <v>0.278</v>
+        <v>0.0</v>
       </c>
       <c r="AU14" s="571" t="n">
-        <v>0.111</v>
+        <v>0.543</v>
       </c>
       <c r="AV14" s="574" t="n">
-        <v>1.833</v>
+        <v>2.314</v>
       </c>
       <c r="AW14" s="577" t="n">
-        <v>0.0</v>
+        <v>0.029</v>
       </c>
       <c r="AX14" s="580" t="n">
-        <v>0.083</v>
+        <v>0.171</v>
       </c>
       <c r="AY14" s="583" t="n">
-        <v>0.0</v>
+        <v>0.314</v>
       </c>
       <c r="AZ14" s="586" t="n">
-        <v>0.0</v>
+        <v>0.057</v>
       </c>
       <c r="BA14" s="589" t="n">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="BB14" s="592" t="n">
-        <v>1.028</v>
+        <v>0.0</v>
       </c>
       <c r="BC14" s="595" t="n">
-        <v>0.083</v>
+        <v>0.029</v>
       </c>
       <c r="BD14" s="598" t="n">
-        <v>0.528</v>
+        <v>0.886</v>
       </c>
       <c r="BE14" s="601" t="n">
-        <v>0.0</v>
+        <v>0.114</v>
       </c>
       <c r="BF14" s="604" t="n">
-        <v>2.167</v>
+        <v>1.457</v>
       </c>
       <c r="BG14" s="607" t="n">
-        <v>0.5</v>
+        <v>0.857</v>
       </c>
       <c r="BH14" s="610" t="n">
-        <v>1.333</v>
+        <v>2.143</v>
       </c>
       <c r="BI14" s="613" t="n">
-        <v>3.083</v>
+        <v>3.657</v>
       </c>
       <c r="BJ14" s="616" t="n">
-        <v>0.917</v>
+        <v>0.8</v>
       </c>
       <c r="BK14" s="619" t="n">
-        <v>0.528</v>
+        <v>0.371</v>
       </c>
       <c r="BL14" s="622" t="n">
-        <v>0.778</v>
+        <v>0.0</v>
       </c>
       <c r="BM14" s="625" t="n">
-        <v>1.833</v>
+        <v>0.657</v>
       </c>
       <c r="BN14" s="628" t="n">
-        <v>0.444</v>
+        <v>2.314</v>
       </c>
       <c r="BO14" s="631" t="n">
-        <v>0.417</v>
+        <v>0.8</v>
       </c>
       <c r="BP14" s="634" t="n">
-        <v>0.0</v>
+        <v>0.314</v>
       </c>
       <c r="BQ14" s="637" t="n">
-        <v>0.056</v>
+        <v>0.857</v>
       </c>
       <c r="BR14" s="640" t="n">
-        <v>0.056</v>
+        <v>0.743</v>
       </c>
       <c r="BS14" s="643" t="n">
-        <v>0.722</v>
+        <v>0.0</v>
       </c>
       <c r="BT14" s="646" t="n">
-        <v>0.222</v>
+        <v>0.029</v>
       </c>
       <c r="BU14" s="649" t="n">
-        <v>0.556</v>
+        <v>0.086</v>
       </c>
       <c r="BV14" s="652" t="n">
-        <v>0.0</v>
+        <v>2.143</v>
       </c>
       <c r="BW14" s="655" t="n">
-        <v>2.167</v>
+        <v>0.0</v>
       </c>
       <c r="BX14" s="658" t="n">
-        <v>0.222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -5328,232 +6204,232 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="659" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="662" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="F16" s="665" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="G16" s="668" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H16" s="671" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="I16" s="674" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J16" s="677" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="K16" s="680" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="683" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="M16" s="686" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="689" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="O16" s="692" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="P16" s="695" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q16" s="698" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R16" s="701" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="704" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="T16" s="707" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="710" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="V16" s="713" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W16" s="716" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X16" s="719" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y16" s="722" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z16" s="725" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AA16" s="728" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="AB16" s="731" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC16" s="734" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="AD16" s="737" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AE16" s="740" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF16" s="743" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AG16" s="746" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH16" s="749" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI16" s="752" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="AJ16" s="755" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AK16" s="758" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL16" s="761" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AM16" s="764" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="AN16" s="767" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="AO16" s="770" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AP16" s="773" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ16" s="776" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="AR16" s="779" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AS16" s="782" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="AT16" s="785" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AU16" s="788" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV16" s="791" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW16" s="794" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX16" s="797" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="AY16" s="800" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="AZ16" s="803" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA16" s="806" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="BB16" s="809" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="BC16" s="812" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="BD16" s="815" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BE16" s="818" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BF16" s="821" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="BG16" s="824" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BH16" s="827" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="BI16" s="830" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ16" s="833" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="BK16" s="836" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="BL16" s="839" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="BM16" s="842" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BN16" s="845" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="BO16" s="848" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="BP16" s="851" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BQ16" s="854" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR16" s="857" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BS16" s="860" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BT16" s="863" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="BU16" s="866" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="BV16" s="869" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW16" s="872" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="BX16" s="875" t="n">
-        <v>0.029</v>
+      <c r="D16" s="805" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="808" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F16" s="811" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G16" s="814" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="817" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="I16" s="820" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="J16" s="823" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" s="826" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L16" s="829" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="M16" s="832" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="N16" s="835" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="O16" s="838" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="P16" s="841" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="Q16" s="844" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="R16" s="847" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="S16" s="850" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T16" s="853" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="856" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" s="859" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16" s="862" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="865" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" s="868" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z16" s="871" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AA16" s="874" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AB16" s="877" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" s="880" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AD16" s="883" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="886" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AF16" s="889" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG16" s="892" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH16" s="895" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AI16" s="898" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AJ16" s="901" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AK16" s="904" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL16" s="907" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AM16" s="910" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AN16" s="913" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO16" s="916" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AP16" s="919" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ16" s="922" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AR16" s="925" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS16" s="928" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AT16" s="931" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" s="934" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AV16" s="937" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW16" s="940" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX16" s="943" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY16" s="946" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AZ16" s="949" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BA16" s="952" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB16" s="955" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BC16" s="958" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD16" s="961" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BE16" s="964" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BF16" s="967" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="BG16" s="970" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BH16" s="973" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BI16" s="976" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ16" s="979" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="BK16" s="982" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BL16" s="985" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM16" s="988" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BN16" s="991" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO16" s="994" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BP16" s="997" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="BQ16" s="1000" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BR16" s="1003" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BS16" s="1006" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BT16" s="1009" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BU16" s="1012" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BV16" s="1015" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BW16" s="1018" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX16" s="1021" t="n">
+        <v>0.167</v>
       </c>
     </row>
     <row r="17">
@@ -5562,224 +6438,224 @@
       <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="660" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="E17" s="663" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F17" s="666" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="G17" s="669" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H17" s="672" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="I17" s="675" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="J17" s="678" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="K17" s="681" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="L17" s="684" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M17" s="687" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="N17" s="690" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O17" s="693" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="P17" s="696" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="Q17" s="699" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="R17" s="702" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="S17" s="705" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="T17" s="708" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="711" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="V17" s="714" t="n">
+      <c r="D17" s="806" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E17" s="809" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F17" s="812" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G17" s="815" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="H17" s="818" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I17" s="821" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="J17" s="824" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="K17" s="827" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L17" s="830" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M17" s="833" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="N17" s="836" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="O17" s="839" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P17" s="842" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="Q17" s="845" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="R17" s="848" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="851" t="n">
         <v>0.926</v>
       </c>
-      <c r="W17" s="717" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X17" s="720" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="Y17" s="723" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="Z17" s="726" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="AA17" s="729" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AB17" s="732" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="AC17" s="735" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="AD17" s="738" t="n">
+      <c r="T17" s="854" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="857" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="860" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="W17" s="863" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="X17" s="866" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="Y17" s="869" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="Z17" s="872" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AA17" s="875" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB17" s="878" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="AC17" s="881" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AD17" s="884" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" s="887" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF17" s="890" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" s="893" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AH17" s="896" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AI17" s="899" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AJ17" s="902" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AK17" s="905" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="AL17" s="908" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="AM17" s="911" t="n">
         <v>0.067</v>
       </c>
-      <c r="AE17" s="741" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="AF17" s="744" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="AG17" s="747" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH17" s="750" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI17" s="753" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AJ17" s="756" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AK17" s="759" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="AL17" s="762" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="AM17" s="765" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="AN17" s="768" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="AO17" s="771" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AP17" s="774" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="AQ17" s="777" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="AR17" s="780" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="AS17" s="783" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AT17" s="786" t="n">
+      <c r="AN17" s="914" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="AO17" s="917" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AP17" s="920" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="AQ17" s="923" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AR17" s="926" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS17" s="929" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="AT17" s="932" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" s="935" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AV17" s="938" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AW17" s="941" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" s="944" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY17" s="947" t="n">
         <v>0.067</v>
       </c>
-      <c r="AU17" s="789" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV17" s="792" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="AW17" s="795" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX17" s="798" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AY17" s="801" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AZ17" s="804" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA17" s="807" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="BB17" s="810" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="BC17" s="813" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="BD17" s="816" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="BE17" s="819" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BF17" s="822" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BG17" s="825" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="BH17" s="828" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="BI17" s="831" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="BJ17" s="834" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="BK17" s="837" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="BL17" s="840" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="BM17" s="843" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="BN17" s="846" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="BO17" s="849" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="BP17" s="852" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BQ17" s="855" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR17" s="858" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="BS17" s="861" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="BT17" s="864" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="BU17" s="867" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="BV17" s="870" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW17" s="873" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BX17" s="876" t="n">
-        <v>0.006</v>
+      <c r="AZ17" s="950" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BA17" s="953" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" s="956" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="BC17" s="959" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD17" s="962" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="BE17" s="965" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BF17" s="968" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="BG17" s="971" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="BH17" s="974" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BI17" s="977" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="BJ17" s="980" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="BK17" s="983" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="BL17" s="986" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM17" s="989" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="BN17" s="992" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="BO17" s="995" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="BP17" s="998" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="BQ17" s="1001" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="BR17" s="1004" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="BS17" s="1007" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BT17" s="1010" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="BU17" s="1013" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="BV17" s="1016" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="BW17" s="1019" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX17" s="1022" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="18">
@@ -5788,224 +6664,224 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="661" t="n">
-        <v>2.543</v>
-      </c>
-      <c r="E18" s="664" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F18" s="667" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="G18" s="670" t="n">
-        <v>4.143</v>
-      </c>
-      <c r="H18" s="673" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="I18" s="676" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="J18" s="679" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="K18" s="682" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="L18" s="685" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="M18" s="688" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="N18" s="691" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="O18" s="694" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="P18" s="697" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="Q18" s="700" t="n">
-        <v>1.371</v>
-      </c>
-      <c r="R18" s="703" t="n">
-        <v>4.229</v>
-      </c>
-      <c r="S18" s="706" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="T18" s="709" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="712" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="V18" s="715" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="W18" s="718" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X18" s="721" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y18" s="724" t="n">
-        <v>4.114</v>
-      </c>
-      <c r="Z18" s="727" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AA18" s="730" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="AB18" s="733" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC18" s="736" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD18" s="739" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AE18" s="742" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="AF18" s="745" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AG18" s="748" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH18" s="751" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI18" s="754" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="AJ18" s="757" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="AK18" s="760" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AL18" s="763" t="n">
-        <v>1.457</v>
-      </c>
-      <c r="AM18" s="766" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="AN18" s="769" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AO18" s="772" t="n">
-        <v>4.143</v>
-      </c>
-      <c r="AP18" s="775" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="AQ18" s="778" t="n">
-        <v>1.314</v>
-      </c>
-      <c r="AR18" s="781" t="n">
-        <v>2.686</v>
-      </c>
-      <c r="AS18" s="784" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="AT18" s="787" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AU18" s="790" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV18" s="793" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="AW18" s="796" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX18" s="799" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="AY18" s="802" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="AZ18" s="805" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BA18" s="808" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="BB18" s="811" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="BC18" s="814" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="BD18" s="817" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="BE18" s="820" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BF18" s="823" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="BG18" s="826" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="BH18" s="829" t="n">
-        <v>1.457</v>
-      </c>
-      <c r="BI18" s="832" t="n">
-        <v>3.657</v>
-      </c>
-      <c r="BJ18" s="835" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BK18" s="838" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="BL18" s="841" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BM18" s="844" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="BN18" s="847" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="BO18" s="850" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="BP18" s="853" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BQ18" s="856" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR18" s="859" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="BS18" s="862" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="BT18" s="865" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BU18" s="868" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="BV18" s="871" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW18" s="874" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="BX18" s="877" t="n">
-        <v>0.029</v>
+      <c r="D18" s="807" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="810" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="813" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="G18" s="816" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="H18" s="819" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I18" s="822" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="J18" s="825" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="K18" s="828" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L18" s="831" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="M18" s="834" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="N18" s="837" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="O18" s="840" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P18" s="843" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="Q18" s="846" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="R18" s="849" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="S18" s="852" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="T18" s="855" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="858" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="861" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="W18" s="864" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="X18" s="867" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="Y18" s="870" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="Z18" s="873" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AA18" s="876" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB18" s="879" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC18" s="882" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AD18" s="885" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" s="888" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF18" s="891" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG18" s="894" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AH18" s="897" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="AI18" s="900" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AJ18" s="903" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AK18" s="906" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="AL18" s="909" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="AM18" s="912" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AN18" s="915" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="AO18" s="918" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AP18" s="921" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="AQ18" s="924" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="AR18" s="927" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="AS18" s="930" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="AT18" s="933" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU18" s="936" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AV18" s="939" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AW18" s="942" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX18" s="945" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AY18" s="948" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AZ18" s="951" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BA18" s="954" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB18" s="957" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BC18" s="960" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD18" s="963" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="BE18" s="966" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BF18" s="969" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="BG18" s="972" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH18" s="975" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BI18" s="978" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="BJ18" s="981" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BK18" s="984" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BL18" s="987" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM18" s="990" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BN18" s="993" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="BO18" s="996" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="BP18" s="999" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="BQ18" s="1002" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="BR18" s="1005" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="BS18" s="1008" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BT18" s="1011" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="BU18" s="1014" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BV18" s="1017" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BW18" s="1020" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX18" s="1023" t="n">
+        <v>0.222</v>
       </c>
     </row>
     <row r="19">
@@ -6017,20 +6893,448 @@
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="D20" s="1024" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="1026" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="F20" s="1028" t="n">
+        <v>0.2255</v>
+      </c>
+      <c r="G20" s="1030" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="1032" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I20" s="1034" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="J20" s="1036" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K20" s="1038" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="L20" s="1040" t="n">
+        <v>0.42200000000000004</v>
+      </c>
+      <c r="M20" s="1042" t="n">
+        <v>0.3805</v>
+      </c>
+      <c r="N20" s="1044" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="O20" s="1046" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="P20" s="1048" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="Q20" s="1050" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="R20" s="1052" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="S20" s="1054" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="1056" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="1058" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="1060" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W20" s="1062" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="X20" s="1064" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" s="1066" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Z20" s="1068" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="AA20" s="1070" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="AB20" s="1072" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC20" s="1074" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AD20" s="1076" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" s="1078" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="AF20" s="1080" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG20" s="1082" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH20" s="1084" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="AI20" s="1086" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="AJ20" s="1088" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AK20" s="1090" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL20" s="1092" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM20" s="1094" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="AN20" s="1096" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO20" s="1098" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AP20" s="1100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ20" s="1102" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="AR20" s="1104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS20" s="1106" t="n">
+        <v>0.8734999999999999</v>
+      </c>
+      <c r="AT20" s="1108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" s="1110" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="AV20" s="1112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW20" s="1114" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="AX20" s="1116" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="AY20" s="1118" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AZ20" s="1120" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="BA20" s="1122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB20" s="1124" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="BC20" s="1126" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="BD20" s="1128" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="BE20" s="1130" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="BF20" s="1132" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="BG20" s="1134" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="BH20" s="1136" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BI20" s="1138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ20" s="1140" t="n">
+        <v>0.5765</v>
+      </c>
+      <c r="BK20" s="1142" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BL20" s="1144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM20" s="1146" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="BN20" s="1148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO20" s="1150" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="BP20" s="1152" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BQ20" s="1154" t="n">
+        <v>0.5914999999999999</v>
+      </c>
+      <c r="BR20" s="1156" t="n">
+        <v>0.5075000000000001</v>
+      </c>
+      <c r="BS20" s="1158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT20" s="1160" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="BU20" s="1162" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BV20" s="1164" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BW20" s="1166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX20" s="1168" t="n">
+        <v>0.3815</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="1" t="s">
-        <v>80</v>
+      <c r="D21" s="1025" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="1027" t="n">
+        <v>0.9152500000000001</v>
+      </c>
+      <c r="F21" s="1029" t="n">
+        <v>0.21850000000000003</v>
+      </c>
+      <c r="G21" s="1031" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="1033" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I21" s="1035" t="n">
+        <v>0.6692499999999999</v>
+      </c>
+      <c r="J21" s="1037" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="1039" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="L21" s="1041" t="n">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M21" s="1043" t="n">
+        <v>0.3805</v>
+      </c>
+      <c r="N21" s="1045" t="n">
+        <v>0.93675</v>
+      </c>
+      <c r="O21" s="1047" t="n">
+        <v>0.06325</v>
+      </c>
+      <c r="P21" s="1049" t="n">
+        <v>0.80975</v>
+      </c>
+      <c r="Q21" s="1051" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="R21" s="1053" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="S21" s="1055" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="1057" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" s="1059" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="1061" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W21" s="1063" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="X21" s="1065" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y21" s="1067" t="n">
+        <v>0.16875</v>
+      </c>
+      <c r="Z21" s="1069" t="n">
+        <v>0.16925</v>
+      </c>
+      <c r="AA21" s="1071" t="n">
+        <v>0.30325</v>
+      </c>
+      <c r="AB21" s="1073" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC21" s="1075" t="n">
+        <v>0.28875</v>
+      </c>
+      <c r="AD21" s="1077" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" s="1079" t="n">
+        <v>0.30325</v>
+      </c>
+      <c r="AF21" s="1081" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG21" s="1083" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH21" s="1085" t="n">
+        <v>0.5902499999999999</v>
+      </c>
+      <c r="AI21" s="1087" t="n">
+        <v>0.16925</v>
+      </c>
+      <c r="AJ21" s="1089" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="AK21" s="1091" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL21" s="1093" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="AM21" s="1095" t="n">
+        <v>0.13275</v>
+      </c>
+      <c r="AN21" s="1097" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO21" s="1099" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="AP21" s="1101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ21" s="1103" t="n">
+        <v>0.8019999999999999</v>
+      </c>
+      <c r="AR21" s="1105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS21" s="1107" t="n">
+        <v>0.8665</v>
+      </c>
+      <c r="AT21" s="1109" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AU21" s="1111" t="n">
+        <v>0.42225</v>
+      </c>
+      <c r="AV21" s="1113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW21" s="1115" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="AX21" s="1117" t="n">
+        <v>0.09175</v>
+      </c>
+      <c r="AY21" s="1119" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="AZ21" s="1121" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="BA21" s="1123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB21" s="1125" t="n">
+        <v>0.04175</v>
+      </c>
+      <c r="BC21" s="1127" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="BD21" s="1129" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="BE21" s="1131" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="BF21" s="1133" t="n">
+        <v>0.8659999999999999</v>
+      </c>
+      <c r="BG21" s="1135" t="n">
+        <v>0.50825</v>
+      </c>
+      <c r="BH21" s="1137" t="n">
+        <v>0.93675</v>
+      </c>
+      <c r="BI21" s="1139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ21" s="1141" t="n">
+        <v>0.5765</v>
+      </c>
+      <c r="BK21" s="1143" t="n">
+        <v>0.28875</v>
+      </c>
+      <c r="BL21" s="1145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM21" s="1147" t="n">
+        <v>0.41675</v>
+      </c>
+      <c r="BN21" s="1149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO21" s="1151" t="n">
+        <v>0.5902499999999999</v>
+      </c>
+      <c r="BP21" s="1153" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="BQ21" s="1155" t="n">
+        <v>0.57775</v>
+      </c>
+      <c r="BR21" s="1157" t="n">
+        <v>0.5005000000000001</v>
+      </c>
+      <c r="BS21" s="1159" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BT21" s="1161" t="n">
+        <v>0.07025</v>
+      </c>
+      <c r="BU21" s="1163" t="n">
+        <v>0.035500000000000004</v>
+      </c>
+      <c r="BV21" s="1165" t="n">
+        <v>0.93675</v>
+      </c>
+      <c r="BW21" s="1167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX21" s="1169" t="n">
+        <v>0.34675</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
+++ b/src/main/java/phonosemantics/outputGeneralWordlistReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Semantics</t>
   </si>
@@ -34,12 +34,12 @@
     <t>strident</t>
   </si>
   <si>
+    <t>NOT_APPLICABLE</t>
+  </si>
+  <si>
     <t>STRIDENT</t>
   </si>
   <si>
-    <t>NOT_APPLICABLE</t>
-  </si>
-  <si>
     <t>NOT_STRIDENT</t>
   </si>
   <si>
@@ -49,27 +49,27 @@
     <t>CORONAL</t>
   </si>
   <si>
+    <t>LABIAL</t>
+  </si>
+  <si>
+    <t>DORSAL</t>
+  </si>
+  <si>
     <t>LARYNGEAL</t>
   </si>
   <si>
-    <t>LABIAL</t>
-  </si>
-  <si>
-    <t>DORSAL</t>
-  </si>
-  <si>
     <t>backness</t>
   </si>
   <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
     <t>CENTRAL</t>
   </si>
   <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
     <t>semivowel</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>lateral</t>
   </si>
   <si>
+    <t>LATERAL</t>
+  </si>
+  <si>
     <t>NOT_LATERAL</t>
   </si>
   <si>
-    <t>LATERAL</t>
-  </si>
-  <si>
     <t>rhotics</t>
   </si>
   <si>
@@ -103,30 +103,30 @@
     <t>mannerPrecise</t>
   </si>
   <si>
+    <t>AFFRICATE</t>
+  </si>
+  <si>
+    <t>TRILL</t>
+  </si>
+  <si>
     <t>APPROXIMANT</t>
   </si>
   <si>
-    <t>AFFRICATE</t>
+    <t>TAP_FLAP</t>
+  </si>
+  <si>
+    <t>PLOSIVE</t>
   </si>
   <si>
     <t>NASAL</t>
   </si>
   <si>
-    <t>TAP_FLAP</t>
+    <t>FRICATIVE</t>
   </si>
   <si>
     <t>VOWEL</t>
   </si>
   <si>
-    <t>PLOSIVE</t>
-  </si>
-  <si>
-    <t>TRILL</t>
-  </si>
-  <si>
-    <t>FRICATIVE</t>
-  </si>
-  <si>
     <t>continuant</t>
   </si>
   <si>
@@ -148,39 +148,39 @@
     <t>placePrecise</t>
   </si>
   <si>
+    <t>VELAR</t>
+  </si>
+  <si>
+    <t>EPIGLOTTAL</t>
+  </si>
+  <si>
+    <t>LABIODENTAL</t>
+  </si>
+  <si>
+    <t>ALVEOLAR</t>
+  </si>
+  <si>
+    <t>POSTALVEOLAR</t>
+  </si>
+  <si>
+    <t>PALATAL</t>
+  </si>
+  <si>
+    <t>BILABIAL</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>UVULAR</t>
+  </si>
+  <si>
+    <t>GLOTTAL</t>
+  </si>
+  <si>
     <t>RETROFLEX</t>
   </si>
   <si>
-    <t>BILABIAL</t>
-  </si>
-  <si>
-    <t>POSTALVEOLAR</t>
-  </si>
-  <si>
-    <t>PALATAL</t>
-  </si>
-  <si>
-    <t>VELAR</t>
-  </si>
-  <si>
-    <t>UVULAR</t>
-  </si>
-  <si>
-    <t>EPIGLOTTAL</t>
-  </si>
-  <si>
-    <t>LABIODENTAL</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
-    <t>ALVEOLAR</t>
-  </si>
-  <si>
-    <t>GLOTTAL</t>
-  </si>
-  <si>
     <t>roundness</t>
   </si>
   <si>
@@ -196,76 +196,76 @@
     <t>stricture</t>
   </si>
   <si>
+    <t>MID_HIGH</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
     <t>LOW_MID</t>
   </si>
   <si>
-    <t>MID_HIGH</t>
+    <t>LOWEST</t>
   </si>
   <si>
     <t>NOT_SELECTED</t>
   </si>
   <si>
-    <t>LOWEST</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
-    <t>MID</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
+    <t>NEAR_CLOSE</t>
+  </si>
+  <si>
+    <t>NEAR_OPEN</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>OPEN_MID</t>
+  </si>
+  <si>
     <t>OPEN</t>
   </si>
   <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>NEAR_CLOSE</t>
-  </si>
-  <si>
-    <t>OPEN_MID</t>
-  </si>
-  <si>
-    <t>NEAR_OPEN</t>
-  </si>
-  <si>
     <t>CLOSE_MID</t>
   </si>
   <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>% of words with ph-type</t>
+  </si>
+  <si>
+    <t>% of ph with ph-type</t>
+  </si>
+  <si>
+    <t>aver ph per word</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MEAN:</t>
+  </si>
+  <si>
+    <t>AVERAGE:</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>stone</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>% of words with ph-type</t>
-  </si>
-  <si>
-    <t>% of ph with ph-type</t>
-  </si>
-  <si>
-    <t>aver ph per word</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>MEAN:</t>
-  </si>
-  <si>
-    <t>AVERAGE:</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>leaf</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1170">
+  <cellXfs count="805">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1640,1101 +1640,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -3838,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX21"/>
+  <dimension ref="A1:BX17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3940,52 +2845,52 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>26</v>
@@ -4030,10 +2935,10 @@
         <v>39</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>3</v>
@@ -4054,16 +2959,16 @@
         <v>45</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>49</v>
@@ -4090,7 +2995,7 @@
         <v>57</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>3</v>
@@ -4126,13 +3031,13 @@
         <v>69</v>
       </c>
       <c r="BT3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="BV3" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>71</v>
@@ -4155,82 +3060,82 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.889</v>
+        <v>0.944</v>
       </c>
       <c r="F4" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="29" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N4" s="32" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O4" s="35" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="Q4" s="41" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="R4" s="44" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="S4" s="47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" s="65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z4" s="68" t="n">
         <v>0.194</v>
       </c>
-      <c r="G4" s="11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="J4" s="20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="23" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="L4" s="26" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="N4" s="32" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="O4" s="35" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P4" s="38" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="Q4" s="41" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="R4" s="44" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="S4" s="47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T4" s="50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" s="53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="59" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="X4" s="62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y4" s="65" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="Z4" s="68" t="n">
-        <v>0.083</v>
-      </c>
       <c r="AA4" s="71" t="n">
-        <v>0.333</v>
+        <v>0.194</v>
       </c>
       <c r="AB4" s="74" t="n">
         <v>1.0</v>
       </c>
       <c r="AC4" s="77" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AD4" s="80" t="n">
-        <v>0.0</v>
+        <v>0.194</v>
       </c>
       <c r="AE4" s="83" t="n">
         <v>0.333</v>
@@ -4239,31 +3144,31 @@
         <v>0.0</v>
       </c>
       <c r="AG4" s="89" t="n">
-        <v>1.0</v>
+        <v>0.583</v>
       </c>
       <c r="AH4" s="92" t="n">
-        <v>0.75</v>
+        <v>0.194</v>
       </c>
       <c r="AI4" s="95" t="n">
-        <v>0.083</v>
+        <v>0.306</v>
       </c>
       <c r="AJ4" s="98" t="n">
-        <v>0.278</v>
+        <v>1.0</v>
       </c>
       <c r="AK4" s="101" t="n">
         <v>1.0</v>
       </c>
       <c r="AL4" s="104" t="n">
-        <v>0.806</v>
+        <v>0.722</v>
       </c>
       <c r="AM4" s="107" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="AN4" s="110" t="n">
-        <v>1.0</v>
+        <v>0.139</v>
       </c>
       <c r="AO4" s="113" t="n">
-        <v>0.111</v>
+        <v>1.0</v>
       </c>
       <c r="AP4" s="116" t="n">
         <v>1.0</v>
@@ -4275,52 +3180,52 @@
         <v>1.0</v>
       </c>
       <c r="AS4" s="125" t="n">
-        <v>0.861</v>
+        <v>0.833</v>
       </c>
       <c r="AT4" s="128" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU4" s="131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" s="134" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AW4" s="137" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AX4" s="140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" s="143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ4" s="146" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BA4" s="149" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BB4" s="152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" s="155" t="n">
         <v>0.056</v>
       </c>
-      <c r="AU4" s="131" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AV4" s="134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW4" s="137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX4" s="140" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AY4" s="143" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AZ4" s="146" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BA4" s="149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB4" s="152" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BC4" s="155" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BD4" s="158" t="n">
-        <v>0.556</v>
+        <v>0.083</v>
       </c>
       <c r="BE4" s="161" t="n">
-        <v>0.139</v>
+        <v>0.0</v>
       </c>
       <c r="BF4" s="164" t="n">
-        <v>0.917</v>
+        <v>0.889</v>
       </c>
       <c r="BG4" s="167" t="n">
-        <v>0.389</v>
+        <v>0.444</v>
       </c>
       <c r="BH4" s="170" t="n">
-        <v>0.917</v>
+        <v>0.944</v>
       </c>
       <c r="BI4" s="173" t="n">
         <v>1.0</v>
@@ -4329,10 +3234,10 @@
         <v>0.639</v>
       </c>
       <c r="BK4" s="179" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="BL4" s="182" t="n">
-        <v>0.0</v>
+        <v>0.306</v>
       </c>
       <c r="BM4" s="185" t="n">
         <v>0.333</v>
@@ -4341,34 +3246,34 @@
         <v>1.0</v>
       </c>
       <c r="BO4" s="191" t="n">
-        <v>0.75</v>
+        <v>0.306</v>
       </c>
       <c r="BP4" s="194" t="n">
-        <v>0.278</v>
+        <v>0.583</v>
       </c>
       <c r="BQ4" s="197" t="n">
-        <v>0.528</v>
+        <v>0.056</v>
       </c>
       <c r="BR4" s="200" t="n">
-        <v>0.444</v>
+        <v>0.0</v>
       </c>
       <c r="BS4" s="203" t="n">
-        <v>0.0</v>
+        <v>0.472</v>
       </c>
       <c r="BT4" s="206" t="n">
-        <v>0.056</v>
+        <v>0.944</v>
       </c>
       <c r="BU4" s="209" t="n">
-        <v>0.056</v>
+        <v>0.167</v>
       </c>
       <c r="BV4" s="212" t="n">
-        <v>0.917</v>
+        <v>0.028</v>
       </c>
       <c r="BW4" s="215" t="n">
-        <v>0.0</v>
+        <v>0.583</v>
       </c>
       <c r="BX4" s="218" t="n">
-        <v>0.306</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="5">
@@ -4378,223 +3283,223 @@
         <v>76</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.482</v>
+        <v>0.483</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.489</v>
+        <v>0.483</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.05</v>
+        <v>0.866</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.892</v>
+        <v>0.067</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>0.223</v>
+        <v>0.248</v>
       </c>
       <c r="J5" s="21" t="n">
-        <v>0.453</v>
+        <v>0.154</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.036</v>
+        <v>0.101</v>
       </c>
       <c r="L5" s="27" t="n">
-        <v>0.151</v>
+        <v>0.443</v>
       </c>
       <c r="M5" s="30" t="n">
-        <v>0.108</v>
+        <v>0.02</v>
       </c>
       <c r="N5" s="33" t="n">
-        <v>0.518</v>
+        <v>0.128</v>
       </c>
       <c r="O5" s="36" t="n">
-        <v>0.036</v>
+        <v>0.295</v>
       </c>
       <c r="P5" s="39" t="n">
-        <v>0.273</v>
+        <v>0.02</v>
       </c>
       <c r="Q5" s="42" t="n">
-        <v>0.144</v>
+        <v>0.523</v>
       </c>
       <c r="R5" s="45" t="n">
-        <v>0.029</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="48" t="n">
-        <v>0.942</v>
+        <v>0.0</v>
       </c>
       <c r="T5" s="51" t="n">
-        <v>0.0</v>
+        <v>0.926</v>
       </c>
       <c r="U5" s="54" t="n">
-        <v>0.0</v>
+        <v>0.087</v>
       </c>
       <c r="V5" s="57" t="n">
-        <v>0.928</v>
+        <v>0.879</v>
       </c>
       <c r="W5" s="60" t="n">
-        <v>0.043</v>
+        <v>0.0</v>
       </c>
       <c r="X5" s="63" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="Y5" s="66" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="Z5" s="69" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AA5" s="72" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB5" s="75" t="n">
         <v>0.906</v>
       </c>
-      <c r="Y5" s="66" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="Z5" s="69" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AA5" s="72" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="AB5" s="75" t="n">
-        <v>0.878</v>
-      </c>
       <c r="AC5" s="78" t="n">
-        <v>0.072</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" s="81" t="n">
-        <v>0.0</v>
+        <v>0.047</v>
       </c>
       <c r="AE5" s="84" t="n">
-        <v>0.094</v>
+        <v>0.128</v>
       </c>
       <c r="AF5" s="87" t="n">
         <v>0.0</v>
       </c>
       <c r="AG5" s="90" t="n">
-        <v>0.453</v>
+        <v>0.188</v>
       </c>
       <c r="AH5" s="93" t="n">
-        <v>0.252</v>
+        <v>0.06</v>
       </c>
       <c r="AI5" s="96" t="n">
-        <v>0.022</v>
+        <v>0.101</v>
       </c>
       <c r="AJ5" s="99" t="n">
-        <v>0.079</v>
+        <v>0.443</v>
       </c>
       <c r="AK5" s="102" t="n">
-        <v>0.604</v>
+        <v>0.671</v>
       </c>
       <c r="AL5" s="105" t="n">
-        <v>0.367</v>
+        <v>0.295</v>
       </c>
       <c r="AM5" s="108" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="AN5" s="111" t="n">
-        <v>0.892</v>
+        <v>0.034</v>
       </c>
       <c r="AO5" s="114" t="n">
-        <v>0.029</v>
+        <v>0.866</v>
       </c>
       <c r="AP5" s="117" t="n">
-        <v>0.619</v>
+        <v>0.631</v>
       </c>
       <c r="AQ5" s="120" t="n">
-        <v>0.353</v>
+        <v>0.336</v>
       </c>
       <c r="AR5" s="123" t="n">
-        <v>0.525</v>
+        <v>0.57</v>
       </c>
       <c r="AS5" s="126" t="n">
-        <v>0.446</v>
+        <v>0.396</v>
       </c>
       <c r="AT5" s="129" t="n">
-        <v>0.014</v>
+        <v>0.067</v>
       </c>
       <c r="AU5" s="132" t="n">
-        <v>0.137</v>
+        <v>0.0</v>
       </c>
       <c r="AV5" s="135" t="n">
-        <v>0.453</v>
+        <v>0.027</v>
       </c>
       <c r="AW5" s="138" t="n">
-        <v>0.0</v>
+        <v>0.248</v>
       </c>
       <c r="AX5" s="141" t="n">
-        <v>0.014</v>
+        <v>0.0</v>
       </c>
       <c r="AY5" s="144" t="n">
-        <v>0.086</v>
+        <v>0.443</v>
       </c>
       <c r="AZ5" s="147" t="n">
-        <v>0.007</v>
+        <v>0.02</v>
       </c>
       <c r="BA5" s="150" t="n">
-        <v>0.0</v>
+        <v>0.128</v>
       </c>
       <c r="BB5" s="153" t="n">
-        <v>0.014</v>
+        <v>0.0</v>
       </c>
       <c r="BC5" s="156" t="n">
-        <v>0.0</v>
+        <v>0.013</v>
       </c>
       <c r="BD5" s="159" t="n">
-        <v>0.209</v>
+        <v>0.02</v>
       </c>
       <c r="BE5" s="162" t="n">
-        <v>0.036</v>
+        <v>0.0</v>
       </c>
       <c r="BF5" s="165" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="BG5" s="168" t="n">
-        <v>0.137</v>
+        <v>0.121</v>
       </c>
       <c r="BH5" s="171" t="n">
-        <v>0.518</v>
+        <v>0.523</v>
       </c>
       <c r="BI5" s="174" t="n">
-        <v>0.719</v>
+        <v>0.745</v>
       </c>
       <c r="BJ5" s="177" t="n">
-        <v>0.252</v>
+        <v>0.221</v>
       </c>
       <c r="BK5" s="180" t="n">
-        <v>0.072</v>
+        <v>0.0</v>
       </c>
       <c r="BL5" s="183" t="n">
-        <v>0.0</v>
+        <v>0.101</v>
       </c>
       <c r="BM5" s="186" t="n">
-        <v>0.115</v>
+        <v>0.128</v>
       </c>
       <c r="BN5" s="189" t="n">
-        <v>0.453</v>
+        <v>0.443</v>
       </c>
       <c r="BO5" s="192" t="n">
-        <v>0.252</v>
+        <v>0.107</v>
       </c>
       <c r="BP5" s="195" t="n">
-        <v>0.079</v>
+        <v>0.188</v>
       </c>
       <c r="BQ5" s="198" t="n">
-        <v>0.173</v>
+        <v>0.013</v>
       </c>
       <c r="BR5" s="201" t="n">
-        <v>0.144</v>
+        <v>0.0</v>
       </c>
       <c r="BS5" s="204" t="n">
-        <v>0.0</v>
+        <v>0.134</v>
       </c>
       <c r="BT5" s="207" t="n">
-        <v>0.014</v>
+        <v>0.523</v>
       </c>
       <c r="BU5" s="210" t="n">
-        <v>0.029</v>
+        <v>0.054</v>
       </c>
       <c r="BV5" s="213" t="n">
-        <v>0.518</v>
+        <v>0.013</v>
       </c>
       <c r="BW5" s="216" t="n">
-        <v>0.0</v>
+        <v>0.174</v>
       </c>
       <c r="BX5" s="219" t="n">
-        <v>0.094</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="6">
@@ -4604,223 +3509,223 @@
         <v>77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.861</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.889</v>
+        <v>2.0</v>
       </c>
       <c r="F6" s="10" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="M6" s="31" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N6" s="34" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="O6" s="37" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="P6" s="40" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="Q6" s="43" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="R6" s="46" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="S6" s="49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" s="52" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="V6" s="58" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="W6" s="61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="64" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="Y6" s="67" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="Z6" s="70" t="n">
         <v>0.194</v>
       </c>
-      <c r="G6" s="13" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="AA6" s="73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC6" s="79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" s="82" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AE6" s="85" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AF6" s="88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" s="91" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="AH6" s="94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI6" s="97" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AJ6" s="100" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AK6" s="103" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="AL6" s="106" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="AM6" s="109" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AN6" s="112" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AO6" s="115" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="AP6" s="118" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="AQ6" s="121" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="AR6" s="124" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="AS6" s="127" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="AT6" s="130" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AU6" s="133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" s="136" t="n">
         <v>0.111</v>
       </c>
-      <c r="I6" s="19" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K6" s="25" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="M6" s="31" t="n">
+      <c r="AW6" s="139" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="AX6" s="142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" s="145" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="AZ6" s="148" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BA6" s="151" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BB6" s="154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" s="157" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BD6" s="160" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BE6" s="163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" s="166" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="BG6" s="169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH6" s="172" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BI6" s="175" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="BJ6" s="178" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="BK6" s="181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL6" s="184" t="n">
         <v>0.417</v>
       </c>
-      <c r="N6" s="34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O6" s="37" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="P6" s="40" t="n">
-        <v>1.056</v>
-      </c>
-      <c r="Q6" s="43" t="n">
+      <c r="BM6" s="187" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="BN6" s="190" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="BO6" s="193" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BP6" s="196" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="BQ6" s="199" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BR6" s="202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS6" s="205" t="n">
         <v>0.556</v>
       </c>
-      <c r="R6" s="46" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="S6" s="49" t="n">
-        <v>3.639</v>
-      </c>
-      <c r="T6" s="52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="58" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="W6" s="61" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="X6" s="64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y6" s="67" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="Z6" s="70" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AA6" s="73" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="AB6" s="76" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="AC6" s="79" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AD6" s="82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" s="85" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="AF6" s="88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="91" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH6" s="94" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AI6" s="97" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AJ6" s="100" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AK6" s="103" t="n">
-        <v>2.333</v>
-      </c>
-      <c r="AL6" s="106" t="n">
-        <v>1.417</v>
-      </c>
-      <c r="AM6" s="109" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AN6" s="112" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="AO6" s="115" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AP6" s="118" t="n">
-        <v>2.389</v>
-      </c>
-      <c r="AQ6" s="121" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="AR6" s="124" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="AS6" s="127" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="AT6" s="130" t="n">
+      <c r="BT6" s="208" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BU6" s="211" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="BV6" s="214" t="n">
         <v>0.056</v>
       </c>
-      <c r="AU6" s="133" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="AV6" s="136" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AW6" s="139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX6" s="142" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AY6" s="145" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AZ6" s="148" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BA6" s="151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB6" s="154" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BC6" s="157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD6" s="160" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="BE6" s="163" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="BF6" s="166" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="BG6" s="169" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BH6" s="172" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BI6" s="175" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="BJ6" s="178" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="BK6" s="181" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="BL6" s="184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM6" s="187" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BN6" s="190" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BO6" s="193" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="BP6" s="196" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="BQ6" s="199" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="BR6" s="202" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BS6" s="205" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT6" s="208" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BU6" s="211" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="BV6" s="214" t="n">
-        <v>2.0</v>
-      </c>
       <c r="BW6" s="217" t="n">
-        <v>0.0</v>
+        <v>0.722</v>
       </c>
       <c r="BX6" s="220" t="n">
-        <v>0.361</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="7">
@@ -4845,10 +3750,10 @@
         <v>0.914</v>
       </c>
       <c r="F8" s="227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="230" t="n">
         <v>0.229</v>
-      </c>
-      <c r="G8" s="230" t="n">
-        <v>1.0</v>
       </c>
       <c r="H8" s="233" t="n">
         <v>0.057</v>
@@ -4857,52 +3762,52 @@
         <v>0.686</v>
       </c>
       <c r="J8" s="239" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="K8" s="242" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="245" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="248" t="n">
         <v>0.114</v>
       </c>
-      <c r="L8" s="245" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M8" s="248" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N8" s="251" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="254" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P8" s="257" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="Q8" s="260" t="n">
         <v>0.943</v>
-      </c>
-      <c r="O8" s="254" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="P8" s="257" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q8" s="260" t="n">
-        <v>0.6</v>
       </c>
       <c r="R8" s="263" t="n">
         <v>0.143</v>
       </c>
       <c r="S8" s="266" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" s="269" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" s="272" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="V8" s="275" t="n">
         <v>1.0</v>
       </c>
       <c r="W8" s="278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="281" t="n">
         <v>0.143</v>
       </c>
-      <c r="X8" s="281" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y8" s="284" t="n">
-        <v>0.143</v>
+        <v>1.0</v>
       </c>
       <c r="Z8" s="287" t="n">
         <v>0.2</v>
@@ -4914,28 +3819,28 @@
         <v>1.0</v>
       </c>
       <c r="AC8" s="296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" s="299" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE8" s="302" t="n">
         <v>0.286</v>
       </c>
-      <c r="AD8" s="299" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" s="302" t="n">
+      <c r="AF8" s="305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" s="308" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="AH8" s="311" t="n">
         <v>0.343</v>
       </c>
-      <c r="AF8" s="305" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="308" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH8" s="311" t="n">
-        <v>0.514</v>
-      </c>
       <c r="AI8" s="314" t="n">
-        <v>0.2</v>
+        <v>0.286</v>
       </c>
       <c r="AJ8" s="317" t="n">
-        <v>0.286</v>
+        <v>1.0</v>
       </c>
       <c r="AK8" s="320" t="n">
         <v>1.0</v>
@@ -4947,10 +3852,10 @@
         <v>0.057</v>
       </c>
       <c r="AN8" s="329" t="n">
-        <v>1.0</v>
+        <v>0.229</v>
       </c>
       <c r="AO8" s="332" t="n">
-        <v>0.229</v>
+        <v>1.0</v>
       </c>
       <c r="AP8" s="335" t="n">
         <v>1.0</v>
@@ -4965,40 +3870,40 @@
         <v>0.886</v>
       </c>
       <c r="AT8" s="347" t="n">
-        <v>0.0</v>
+        <v>0.257</v>
       </c>
       <c r="AU8" s="350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" s="353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" s="356" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="AX8" s="359" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AY8" s="362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ8" s="365" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="BA8" s="368" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV8" s="353" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW8" s="356" t="n">
+      <c r="BB8" s="371" t="n">
         <v>0.029</v>
       </c>
-      <c r="AX8" s="359" t="n">
+      <c r="BC8" s="374" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="BD8" s="377" t="n">
         <v>0.114</v>
       </c>
-      <c r="AY8" s="362" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AZ8" s="365" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="BA8" s="368" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB8" s="371" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC8" s="374" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BD8" s="377" t="n">
-        <v>0.629</v>
-      </c>
       <c r="BE8" s="380" t="n">
-        <v>0.114</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" s="383" t="n">
         <v>0.829</v>
@@ -5016,13 +3921,13 @@
         <v>0.514</v>
       </c>
       <c r="BK8" s="398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL8" s="401" t="n">
         <v>0.286</v>
       </c>
-      <c r="BL8" s="401" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BM8" s="404" t="n">
-        <v>0.514</v>
+        <v>0.286</v>
       </c>
       <c r="BN8" s="407" t="n">
         <v>1.0</v>
@@ -5031,28 +3936,28 @@
         <v>0.514</v>
       </c>
       <c r="BP8" s="413" t="n">
-        <v>0.286</v>
+        <v>0.514</v>
       </c>
       <c r="BQ8" s="416" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="BR8" s="419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS8" s="422" t="n">
         <v>0.543</v>
       </c>
-      <c r="BS8" s="422" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BT8" s="425" t="n">
-        <v>0.029</v>
+        <v>0.943</v>
       </c>
       <c r="BU8" s="428" t="n">
         <v>0.029</v>
       </c>
       <c r="BV8" s="431" t="n">
-        <v>0.943</v>
+        <v>0.029</v>
       </c>
       <c r="BW8" s="434" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="BX8" s="437" t="n">
         <v>0.457</v>
@@ -5071,10 +3976,10 @@
         <v>0.411</v>
       </c>
       <c r="F9" s="228" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G9" s="231" t="n">
         <v>0.055</v>
-      </c>
-      <c r="G9" s="231" t="n">
-        <v>0.89</v>
       </c>
       <c r="H9" s="234" t="n">
         <v>0.012</v>
@@ -5083,52 +3988,52 @@
         <v>0.202</v>
       </c>
       <c r="J9" s="240" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="K9" s="243" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="L9" s="246" t="n">
         <v>0.497</v>
       </c>
-      <c r="K9" s="243" t="n">
+      <c r="M9" s="249" t="n">
         <v>0.025</v>
       </c>
-      <c r="L9" s="246" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="M9" s="249" t="n">
-        <v>0.117</v>
-      </c>
       <c r="N9" s="252" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="O9" s="255" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="P9" s="258" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="Q9" s="261" t="n">
         <v>0.46</v>
-      </c>
-      <c r="O9" s="255" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="P9" s="258" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="Q9" s="261" t="n">
-        <v>0.178</v>
       </c>
       <c r="R9" s="264" t="n">
         <v>0.049</v>
       </c>
       <c r="S9" s="267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" s="270" t="n">
         <v>0.908</v>
       </c>
-      <c r="T9" s="270" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U9" s="273" t="n">
-        <v>0.0</v>
+        <v>0.031</v>
       </c>
       <c r="V9" s="276" t="n">
         <v>0.926</v>
       </c>
       <c r="W9" s="279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" s="282" t="n">
         <v>0.031</v>
       </c>
-      <c r="X9" s="282" t="n">
+      <c r="Y9" s="285" t="n">
         <v>0.883</v>
-      </c>
-      <c r="Y9" s="285" t="n">
-        <v>0.031</v>
       </c>
       <c r="Z9" s="288" t="n">
         <v>0.043</v>
@@ -5140,28 +4045,28 @@
         <v>0.859</v>
       </c>
       <c r="AC9" s="297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" s="300" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AE9" s="303" t="n">
         <v>0.08</v>
       </c>
-      <c r="AD9" s="300" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE9" s="303" t="n">
+      <c r="AF9" s="306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" s="309" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AH9" s="312" t="n">
         <v>0.098</v>
       </c>
-      <c r="AF9" s="306" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="309" t="n">
+      <c r="AI9" s="315" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AJ9" s="318" t="n">
         <v>0.497</v>
-      </c>
-      <c r="AH9" s="312" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="AI9" s="315" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="AJ9" s="318" t="n">
-        <v>0.067</v>
       </c>
       <c r="AK9" s="321" t="n">
         <v>0.644</v>
@@ -5173,10 +4078,10 @@
         <v>0.012</v>
       </c>
       <c r="AN9" s="330" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AO9" s="333" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AO9" s="333" t="n">
-        <v>0.055</v>
       </c>
       <c r="AP9" s="336" t="n">
         <v>0.675</v>
@@ -5191,40 +4096,40 @@
         <v>0.38</v>
       </c>
       <c r="AT9" s="348" t="n">
-        <v>0.0</v>
+        <v>0.067</v>
       </c>
       <c r="AU9" s="351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" s="354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" s="357" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AX9" s="360" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AY9" s="363" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AZ9" s="366" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="BA9" s="369" t="n">
         <v>0.117</v>
       </c>
-      <c r="AV9" s="354" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="AW9" s="357" t="n">
+      <c r="BB9" s="372" t="n">
         <v>0.006</v>
       </c>
-      <c r="AX9" s="360" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="AY9" s="363" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="AZ9" s="366" t="n">
+      <c r="BC9" s="375" t="n">
         <v>0.012</v>
       </c>
-      <c r="BA9" s="369" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB9" s="372" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC9" s="375" t="n">
-        <v>0.006</v>
-      </c>
       <c r="BD9" s="378" t="n">
-        <v>0.19</v>
+        <v>0.025</v>
       </c>
       <c r="BE9" s="381" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="BF9" s="384" t="n">
         <v>0.313</v>
@@ -5242,43 +4147,43 @@
         <v>0.172</v>
       </c>
       <c r="BK9" s="399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" s="402" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="BM9" s="405" t="n">
         <v>0.08</v>
-      </c>
-      <c r="BL9" s="402" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM9" s="405" t="n">
-        <v>0.141</v>
       </c>
       <c r="BN9" s="408" t="n">
         <v>0.497</v>
       </c>
       <c r="BO9" s="411" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="BP9" s="414" t="n">
         <v>0.172</v>
       </c>
-      <c r="BP9" s="414" t="n">
-        <v>0.067</v>
-      </c>
       <c r="BQ9" s="417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR9" s="420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS9" s="423" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BT9" s="426" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BU9" s="429" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BV9" s="432" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="BW9" s="435" t="n">
         <v>0.184</v>
-      </c>
-      <c r="BR9" s="420" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="BS9" s="423" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT9" s="426" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BU9" s="429" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="BV9" s="432" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BW9" s="435" t="n">
-        <v>0.0</v>
       </c>
       <c r="BX9" s="438" t="n">
         <v>0.129</v>
@@ -5297,10 +4202,10 @@
         <v>1.914</v>
       </c>
       <c r="F10" s="229" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="G10" s="232" t="n">
         <v>0.257</v>
-      </c>
-      <c r="G10" s="232" t="n">
-        <v>4.143</v>
       </c>
       <c r="H10" s="235" t="n">
         <v>0.057</v>
@@ -5309,52 +4214,52 @@
         <v>0.943</v>
       </c>
       <c r="J10" s="241" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="K10" s="244" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="L10" s="247" t="n">
         <v>2.314</v>
       </c>
-      <c r="K10" s="244" t="n">
+      <c r="M10" s="250" t="n">
         <v>0.114</v>
       </c>
-      <c r="L10" s="247" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="M10" s="250" t="n">
-        <v>0.543</v>
-      </c>
       <c r="N10" s="253" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="O10" s="256" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="P10" s="259" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="Q10" s="262" t="n">
         <v>2.143</v>
-      </c>
-      <c r="O10" s="256" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="P10" s="259" t="n">
-        <v>1.371</v>
-      </c>
-      <c r="Q10" s="262" t="n">
-        <v>0.829</v>
       </c>
       <c r="R10" s="265" t="n">
         <v>0.229</v>
       </c>
       <c r="S10" s="268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" s="271" t="n">
         <v>4.229</v>
       </c>
-      <c r="T10" s="271" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U10" s="274" t="n">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="V10" s="277" t="n">
         <v>4.314</v>
       </c>
       <c r="W10" s="280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" s="283" t="n">
         <v>0.143</v>
       </c>
-      <c r="X10" s="283" t="n">
+      <c r="Y10" s="286" t="n">
         <v>4.114</v>
-      </c>
-      <c r="Y10" s="286" t="n">
-        <v>0.143</v>
       </c>
       <c r="Z10" s="289" t="n">
         <v>0.2</v>
@@ -5366,28 +4271,28 @@
         <v>4.0</v>
       </c>
       <c r="AC10" s="298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" s="301" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="304" t="n">
         <v>0.371</v>
       </c>
-      <c r="AD10" s="301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE10" s="304" t="n">
+      <c r="AF10" s="307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG10" s="310" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH10" s="313" t="n">
         <v>0.457</v>
       </c>
-      <c r="AF10" s="307" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="310" t="n">
+      <c r="AI10" s="316" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="AJ10" s="319" t="n">
         <v>2.314</v>
-      </c>
-      <c r="AH10" s="313" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AI10" s="316" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ10" s="319" t="n">
-        <v>0.314</v>
       </c>
       <c r="AK10" s="322" t="n">
         <v>3.0</v>
@@ -5399,10 +4304,10 @@
         <v>0.057</v>
       </c>
       <c r="AN10" s="331" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AO10" s="334" t="n">
         <v>4.143</v>
-      </c>
-      <c r="AO10" s="334" t="n">
-        <v>0.257</v>
       </c>
       <c r="AP10" s="337" t="n">
         <v>3.143</v>
@@ -5417,40 +4322,40 @@
         <v>1.771</v>
       </c>
       <c r="AT10" s="349" t="n">
-        <v>0.0</v>
+        <v>0.314</v>
       </c>
       <c r="AU10" s="352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV10" s="355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" s="358" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="AX10" s="361" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AY10" s="364" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="AZ10" s="367" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="BA10" s="370" t="n">
         <v>0.543</v>
       </c>
-      <c r="AV10" s="355" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="AW10" s="358" t="n">
+      <c r="BB10" s="373" t="n">
         <v>0.029</v>
       </c>
-      <c r="AX10" s="361" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="AY10" s="364" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AZ10" s="367" t="n">
+      <c r="BC10" s="376" t="n">
         <v>0.057</v>
       </c>
-      <c r="BA10" s="370" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB10" s="373" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC10" s="376" t="n">
-        <v>0.029</v>
-      </c>
       <c r="BD10" s="379" t="n">
-        <v>0.886</v>
+        <v>0.114</v>
       </c>
       <c r="BE10" s="382" t="n">
-        <v>0.114</v>
+        <v>0.0</v>
       </c>
       <c r="BF10" s="385" t="n">
         <v>1.457</v>
@@ -5468,43 +4373,43 @@
         <v>0.8</v>
       </c>
       <c r="BK10" s="400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL10" s="403" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="BM10" s="406" t="n">
         <v>0.371</v>
-      </c>
-      <c r="BL10" s="403" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM10" s="406" t="n">
-        <v>0.657</v>
       </c>
       <c r="BN10" s="409" t="n">
         <v>2.314</v>
       </c>
       <c r="BO10" s="412" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="BP10" s="415" t="n">
         <v>0.8</v>
       </c>
-      <c r="BP10" s="415" t="n">
-        <v>0.314</v>
-      </c>
       <c r="BQ10" s="418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR10" s="421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS10" s="424" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="BT10" s="427" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="BU10" s="430" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BV10" s="433" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="BW10" s="436" t="n">
         <v>0.857</v>
-      </c>
-      <c r="BR10" s="421" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="BS10" s="424" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT10" s="427" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BU10" s="430" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="BV10" s="433" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="BW10" s="436" t="n">
-        <v>0.0</v>
       </c>
       <c r="BX10" s="439" t="n">
         <v>0.6</v>
@@ -5517,10 +4422,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -5529,220 +4434,220 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="443" t="n">
-        <v>0.914</v>
+        <v>0.889</v>
       </c>
       <c r="F12" s="446" t="n">
-        <v>0.229</v>
+        <v>1.0</v>
       </c>
       <c r="G12" s="449" t="n">
-        <v>1.0</v>
+        <v>0.194</v>
       </c>
       <c r="H12" s="452" t="n">
-        <v>0.057</v>
+        <v>0.083</v>
       </c>
       <c r="I12" s="455" t="n">
-        <v>0.686</v>
+        <v>0.583</v>
       </c>
       <c r="J12" s="458" t="n">
-        <v>1.0</v>
+        <v>0.444</v>
       </c>
       <c r="K12" s="461" t="n">
-        <v>0.114</v>
+        <v>0.361</v>
       </c>
       <c r="L12" s="464" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="M12" s="467" t="n">
-        <v>0.4</v>
+        <v>0.139</v>
       </c>
       <c r="N12" s="470" t="n">
-        <v>0.943</v>
+        <v>0.417</v>
       </c>
       <c r="O12" s="473" t="n">
-        <v>0.057</v>
+        <v>0.806</v>
       </c>
       <c r="P12" s="476" t="n">
-        <v>0.8</v>
+        <v>0.083</v>
       </c>
       <c r="Q12" s="479" t="n">
-        <v>0.6</v>
+        <v>0.917</v>
       </c>
       <c r="R12" s="482" t="n">
-        <v>0.143</v>
+        <v>0.111</v>
       </c>
       <c r="S12" s="485" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" s="488" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" s="491" t="n">
-        <v>0.0</v>
+        <v>0.139</v>
       </c>
       <c r="V12" s="494" t="n">
         <v>1.0</v>
       </c>
       <c r="W12" s="497" t="n">
-        <v>0.143</v>
+        <v>0.0</v>
       </c>
       <c r="X12" s="500" t="n">
-        <v>1.0</v>
+        <v>0.139</v>
       </c>
       <c r="Y12" s="503" t="n">
-        <v>0.143</v>
+        <v>1.0</v>
       </c>
       <c r="Z12" s="506" t="n">
-        <v>0.2</v>
+        <v>0.083</v>
       </c>
       <c r="AA12" s="509" t="n">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="AB12" s="512" t="n">
         <v>1.0</v>
       </c>
       <c r="AC12" s="515" t="n">
-        <v>0.286</v>
+        <v>0.0</v>
       </c>
       <c r="AD12" s="518" t="n">
-        <v>0.0</v>
+        <v>0.083</v>
       </c>
       <c r="AE12" s="521" t="n">
-        <v>0.343</v>
+        <v>0.25</v>
       </c>
       <c r="AF12" s="524" t="n">
         <v>0.0</v>
       </c>
       <c r="AG12" s="527" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="AH12" s="530" t="n">
-        <v>0.514</v>
+        <v>0.333</v>
       </c>
       <c r="AI12" s="533" t="n">
-        <v>0.2</v>
+        <v>0.278</v>
       </c>
       <c r="AJ12" s="536" t="n">
-        <v>0.286</v>
+        <v>1.0</v>
       </c>
       <c r="AK12" s="539" t="n">
         <v>1.0</v>
       </c>
       <c r="AL12" s="542" t="n">
-        <v>0.8</v>
+        <v>0.806</v>
       </c>
       <c r="AM12" s="545" t="n">
-        <v>0.057</v>
+        <v>0.167</v>
       </c>
       <c r="AN12" s="548" t="n">
-        <v>1.0</v>
+        <v>0.111</v>
       </c>
       <c r="AO12" s="551" t="n">
-        <v>0.229</v>
+        <v>1.0</v>
       </c>
       <c r="AP12" s="554" t="n">
         <v>1.0</v>
       </c>
       <c r="AQ12" s="557" t="n">
-        <v>0.771</v>
+        <v>0.833</v>
       </c>
       <c r="AR12" s="560" t="n">
         <v>1.0</v>
       </c>
       <c r="AS12" s="563" t="n">
-        <v>0.886</v>
+        <v>0.861</v>
       </c>
       <c r="AT12" s="566" t="n">
-        <v>0.0</v>
+        <v>0.278</v>
       </c>
       <c r="AU12" s="569" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AV12" s="572" t="n">
-        <v>1.0</v>
+        <v>0.056</v>
       </c>
       <c r="AW12" s="575" t="n">
-        <v>0.029</v>
+        <v>0.556</v>
       </c>
       <c r="AX12" s="578" t="n">
-        <v>0.114</v>
+        <v>0.0</v>
       </c>
       <c r="AY12" s="581" t="n">
-        <v>0.257</v>
+        <v>1.0</v>
       </c>
       <c r="AZ12" s="584" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="BA12" s="587" t="n">
-        <v>0.0</v>
+        <v>0.417</v>
       </c>
       <c r="BB12" s="590" t="n">
         <v>0.0</v>
       </c>
       <c r="BC12" s="593" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="BD12" s="596" t="n">
-        <v>0.629</v>
+        <v>0.139</v>
       </c>
       <c r="BE12" s="599" t="n">
-        <v>0.114</v>
+        <v>0.056</v>
       </c>
       <c r="BF12" s="602" t="n">
-        <v>0.829</v>
+        <v>0.917</v>
       </c>
       <c r="BG12" s="605" t="n">
-        <v>0.6</v>
+        <v>0.389</v>
       </c>
       <c r="BH12" s="608" t="n">
-        <v>0.943</v>
+        <v>0.917</v>
       </c>
       <c r="BI12" s="611" t="n">
         <v>1.0</v>
       </c>
       <c r="BJ12" s="614" t="n">
-        <v>0.514</v>
+        <v>0.639</v>
       </c>
       <c r="BK12" s="617" t="n">
-        <v>0.286</v>
+        <v>0.0</v>
       </c>
       <c r="BL12" s="620" t="n">
-        <v>0.0</v>
+        <v>0.278</v>
       </c>
       <c r="BM12" s="623" t="n">
-        <v>0.514</v>
+        <v>0.25</v>
       </c>
       <c r="BN12" s="626" t="n">
         <v>1.0</v>
       </c>
       <c r="BO12" s="629" t="n">
-        <v>0.514</v>
+        <v>0.333</v>
       </c>
       <c r="BP12" s="632" t="n">
-        <v>0.286</v>
+        <v>0.75</v>
       </c>
       <c r="BQ12" s="635" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="BR12" s="638" t="n">
-        <v>0.543</v>
+        <v>0.0</v>
       </c>
       <c r="BS12" s="641" t="n">
-        <v>0.0</v>
+        <v>0.444</v>
       </c>
       <c r="BT12" s="644" t="n">
-        <v>0.029</v>
+        <v>0.917</v>
       </c>
       <c r="BU12" s="647" t="n">
-        <v>0.029</v>
+        <v>0.056</v>
       </c>
       <c r="BV12" s="650" t="n">
-        <v>0.943</v>
+        <v>0.056</v>
       </c>
       <c r="BW12" s="653" t="n">
-        <v>0.0</v>
+        <v>0.528</v>
       </c>
       <c r="BX12" s="656" t="n">
-        <v>0.457</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="13">
@@ -5752,223 +4657,223 @@
         <v>76</v>
       </c>
       <c r="D13" s="441" t="n">
-        <v>0.546</v>
+        <v>0.482</v>
       </c>
       <c r="E13" s="444" t="n">
-        <v>0.411</v>
+        <v>0.489</v>
       </c>
       <c r="F13" s="447" t="n">
-        <v>0.055</v>
+        <v>0.892</v>
       </c>
       <c r="G13" s="450" t="n">
-        <v>0.89</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="453" t="n">
-        <v>0.012</v>
+        <v>0.029</v>
       </c>
       <c r="I13" s="456" t="n">
-        <v>0.202</v>
+        <v>0.223</v>
       </c>
       <c r="J13" s="459" t="n">
-        <v>0.497</v>
+        <v>0.151</v>
       </c>
       <c r="K13" s="462" t="n">
-        <v>0.025</v>
+        <v>0.108</v>
       </c>
       <c r="L13" s="465" t="n">
-        <v>0.117</v>
+        <v>0.453</v>
       </c>
       <c r="M13" s="468" t="n">
-        <v>0.117</v>
+        <v>0.036</v>
       </c>
       <c r="N13" s="471" t="n">
-        <v>0.46</v>
+        <v>0.144</v>
       </c>
       <c r="O13" s="474" t="n">
-        <v>0.025</v>
+        <v>0.273</v>
       </c>
       <c r="P13" s="477" t="n">
-        <v>0.294</v>
+        <v>0.036</v>
       </c>
       <c r="Q13" s="480" t="n">
-        <v>0.178</v>
+        <v>0.518</v>
       </c>
       <c r="R13" s="483" t="n">
-        <v>0.049</v>
+        <v>0.029</v>
       </c>
       <c r="S13" s="486" t="n">
-        <v>0.908</v>
+        <v>0.0</v>
       </c>
       <c r="T13" s="489" t="n">
-        <v>0.0</v>
+        <v>0.942</v>
       </c>
       <c r="U13" s="492" t="n">
-        <v>0.0</v>
+        <v>0.043</v>
       </c>
       <c r="V13" s="495" t="n">
-        <v>0.926</v>
+        <v>0.928</v>
       </c>
       <c r="W13" s="498" t="n">
-        <v>0.031</v>
+        <v>0.0</v>
       </c>
       <c r="X13" s="501" t="n">
-        <v>0.883</v>
+        <v>0.043</v>
       </c>
       <c r="Y13" s="504" t="n">
-        <v>0.031</v>
+        <v>0.906</v>
       </c>
       <c r="Z13" s="507" t="n">
-        <v>0.043</v>
+        <v>0.022</v>
       </c>
       <c r="AA13" s="510" t="n">
-        <v>0.098</v>
+        <v>0.094</v>
       </c>
       <c r="AB13" s="513" t="n">
-        <v>0.859</v>
+        <v>0.878</v>
       </c>
       <c r="AC13" s="516" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AD13" s="519" t="n">
-        <v>0.0</v>
+        <v>0.022</v>
       </c>
       <c r="AE13" s="522" t="n">
-        <v>0.098</v>
+        <v>0.072</v>
       </c>
       <c r="AF13" s="525" t="n">
         <v>0.0</v>
       </c>
       <c r="AG13" s="528" t="n">
-        <v>0.497</v>
+        <v>0.252</v>
       </c>
       <c r="AH13" s="531" t="n">
-        <v>0.172</v>
+        <v>0.094</v>
       </c>
       <c r="AI13" s="534" t="n">
-        <v>0.043</v>
+        <v>0.079</v>
       </c>
       <c r="AJ13" s="537" t="n">
-        <v>0.067</v>
+        <v>0.453</v>
       </c>
       <c r="AK13" s="540" t="n">
-        <v>0.644</v>
+        <v>0.604</v>
       </c>
       <c r="AL13" s="543" t="n">
-        <v>0.313</v>
+        <v>0.367</v>
       </c>
       <c r="AM13" s="546" t="n">
-        <v>0.012</v>
+        <v>0.05</v>
       </c>
       <c r="AN13" s="549" t="n">
-        <v>0.89</v>
+        <v>0.029</v>
       </c>
       <c r="AO13" s="552" t="n">
-        <v>0.055</v>
+        <v>0.892</v>
       </c>
       <c r="AP13" s="555" t="n">
-        <v>0.675</v>
+        <v>0.619</v>
       </c>
       <c r="AQ13" s="558" t="n">
-        <v>0.282</v>
+        <v>0.353</v>
       </c>
       <c r="AR13" s="561" t="n">
-        <v>0.577</v>
+        <v>0.525</v>
       </c>
       <c r="AS13" s="564" t="n">
-        <v>0.38</v>
+        <v>0.446</v>
       </c>
       <c r="AT13" s="567" t="n">
-        <v>0.0</v>
+        <v>0.086</v>
       </c>
       <c r="AU13" s="570" t="n">
-        <v>0.117</v>
+        <v>0.0</v>
       </c>
       <c r="AV13" s="573" t="n">
-        <v>0.497</v>
+        <v>0.014</v>
       </c>
       <c r="AW13" s="576" t="n">
-        <v>0.006</v>
+        <v>0.209</v>
       </c>
       <c r="AX13" s="579" t="n">
-        <v>0.037</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" s="582" t="n">
-        <v>0.067</v>
+        <v>0.453</v>
       </c>
       <c r="AZ13" s="585" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="BA13" s="588" t="n">
-        <v>0.0</v>
+        <v>0.137</v>
       </c>
       <c r="BB13" s="591" t="n">
         <v>0.0</v>
       </c>
       <c r="BC13" s="594" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="BD13" s="597" t="n">
-        <v>0.19</v>
+        <v>0.036</v>
       </c>
       <c r="BE13" s="600" t="n">
-        <v>0.025</v>
+        <v>0.014</v>
       </c>
       <c r="BF13" s="603" t="n">
-        <v>0.313</v>
+        <v>0.317</v>
       </c>
       <c r="BG13" s="606" t="n">
-        <v>0.184</v>
+        <v>0.137</v>
       </c>
       <c r="BH13" s="609" t="n">
-        <v>0.46</v>
+        <v>0.518</v>
       </c>
       <c r="BI13" s="612" t="n">
-        <v>0.785</v>
+        <v>0.719</v>
       </c>
       <c r="BJ13" s="615" t="n">
-        <v>0.172</v>
+        <v>0.252</v>
       </c>
       <c r="BK13" s="618" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" s="621" t="n">
-        <v>0.0</v>
+        <v>0.079</v>
       </c>
       <c r="BM13" s="624" t="n">
-        <v>0.141</v>
+        <v>0.072</v>
       </c>
       <c r="BN13" s="627" t="n">
-        <v>0.497</v>
+        <v>0.453</v>
       </c>
       <c r="BO13" s="630" t="n">
-        <v>0.172</v>
+        <v>0.115</v>
       </c>
       <c r="BP13" s="633" t="n">
-        <v>0.067</v>
+        <v>0.252</v>
       </c>
       <c r="BQ13" s="636" t="n">
-        <v>0.184</v>
+        <v>0.0</v>
       </c>
       <c r="BR13" s="639" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="BS13" s="642" t="n">
-        <v>0.0</v>
+        <v>0.144</v>
       </c>
       <c r="BT13" s="645" t="n">
-        <v>0.006</v>
+        <v>0.518</v>
       </c>
       <c r="BU13" s="648" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="BV13" s="651" t="n">
-        <v>0.46</v>
+        <v>0.029</v>
       </c>
       <c r="BW13" s="654" t="n">
-        <v>0.0</v>
+        <v>0.173</v>
       </c>
       <c r="BX13" s="657" t="n">
-        <v>0.129</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="14">
@@ -5978,223 +4883,223 @@
         <v>77</v>
       </c>
       <c r="D14" s="442" t="n">
-        <v>2.543</v>
+        <v>1.861</v>
       </c>
       <c r="E14" s="445" t="n">
-        <v>1.914</v>
+        <v>1.889</v>
       </c>
       <c r="F14" s="448" t="n">
-        <v>0.257</v>
+        <v>3.444</v>
       </c>
       <c r="G14" s="451" t="n">
-        <v>4.143</v>
+        <v>0.194</v>
       </c>
       <c r="H14" s="454" t="n">
-        <v>0.057</v>
+        <v>0.111</v>
       </c>
       <c r="I14" s="457" t="n">
-        <v>0.943</v>
+        <v>0.861</v>
       </c>
       <c r="J14" s="460" t="n">
-        <v>2.314</v>
+        <v>0.583</v>
       </c>
       <c r="K14" s="463" t="n">
-        <v>0.114</v>
+        <v>0.417</v>
       </c>
       <c r="L14" s="466" t="n">
-        <v>0.543</v>
+        <v>1.75</v>
       </c>
       <c r="M14" s="469" t="n">
-        <v>0.543</v>
+        <v>0.139</v>
       </c>
       <c r="N14" s="472" t="n">
-        <v>2.143</v>
+        <v>0.556</v>
       </c>
       <c r="O14" s="475" t="n">
-        <v>0.114</v>
+        <v>1.056</v>
       </c>
       <c r="P14" s="478" t="n">
-        <v>1.371</v>
+        <v>0.139</v>
       </c>
       <c r="Q14" s="481" t="n">
-        <v>0.829</v>
+        <v>2.0</v>
       </c>
       <c r="R14" s="484" t="n">
-        <v>0.229</v>
+        <v>0.111</v>
       </c>
       <c r="S14" s="487" t="n">
-        <v>4.229</v>
+        <v>0.0</v>
       </c>
       <c r="T14" s="490" t="n">
-        <v>0.0</v>
+        <v>3.639</v>
       </c>
       <c r="U14" s="493" t="n">
-        <v>0.0</v>
+        <v>0.167</v>
       </c>
       <c r="V14" s="496" t="n">
-        <v>4.314</v>
+        <v>3.583</v>
       </c>
       <c r="W14" s="499" t="n">
-        <v>0.143</v>
+        <v>0.0</v>
       </c>
       <c r="X14" s="502" t="n">
-        <v>4.114</v>
+        <v>0.167</v>
       </c>
       <c r="Y14" s="505" t="n">
-        <v>0.143</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" s="508" t="n">
-        <v>0.2</v>
+        <v>0.083</v>
       </c>
       <c r="AA14" s="511" t="n">
-        <v>0.457</v>
+        <v>0.361</v>
       </c>
       <c r="AB14" s="514" t="n">
-        <v>4.0</v>
+        <v>3.389</v>
       </c>
       <c r="AC14" s="517" t="n">
-        <v>0.371</v>
+        <v>0.0</v>
       </c>
       <c r="AD14" s="520" t="n">
-        <v>0.0</v>
+        <v>0.083</v>
       </c>
       <c r="AE14" s="523" t="n">
-        <v>0.457</v>
+        <v>0.278</v>
       </c>
       <c r="AF14" s="526" t="n">
         <v>0.0</v>
       </c>
       <c r="AG14" s="529" t="n">
-        <v>2.314</v>
+        <v>0.972</v>
       </c>
       <c r="AH14" s="532" t="n">
-        <v>0.8</v>
+        <v>0.361</v>
       </c>
       <c r="AI14" s="535" t="n">
-        <v>0.2</v>
+        <v>0.306</v>
       </c>
       <c r="AJ14" s="538" t="n">
-        <v>0.314</v>
+        <v>1.75</v>
       </c>
       <c r="AK14" s="541" t="n">
-        <v>3.0</v>
+        <v>2.333</v>
       </c>
       <c r="AL14" s="544" t="n">
-        <v>1.457</v>
+        <v>1.417</v>
       </c>
       <c r="AM14" s="547" t="n">
-        <v>0.057</v>
+        <v>0.194</v>
       </c>
       <c r="AN14" s="550" t="n">
-        <v>4.143</v>
+        <v>0.111</v>
       </c>
       <c r="AO14" s="553" t="n">
-        <v>0.257</v>
+        <v>3.444</v>
       </c>
       <c r="AP14" s="556" t="n">
-        <v>3.143</v>
+        <v>2.389</v>
       </c>
       <c r="AQ14" s="559" t="n">
-        <v>1.314</v>
+        <v>1.361</v>
       </c>
       <c r="AR14" s="562" t="n">
-        <v>2.686</v>
+        <v>2.028</v>
       </c>
       <c r="AS14" s="565" t="n">
-        <v>1.771</v>
+        <v>1.722</v>
       </c>
       <c r="AT14" s="568" t="n">
-        <v>0.0</v>
+        <v>0.333</v>
       </c>
       <c r="AU14" s="571" t="n">
-        <v>0.543</v>
+        <v>0.0</v>
       </c>
       <c r="AV14" s="574" t="n">
-        <v>2.314</v>
+        <v>0.056</v>
       </c>
       <c r="AW14" s="577" t="n">
-        <v>0.029</v>
+        <v>0.806</v>
       </c>
       <c r="AX14" s="580" t="n">
-        <v>0.171</v>
+        <v>0.0</v>
       </c>
       <c r="AY14" s="583" t="n">
-        <v>0.314</v>
+        <v>1.75</v>
       </c>
       <c r="AZ14" s="586" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="BA14" s="589" t="n">
-        <v>0.0</v>
+        <v>0.528</v>
       </c>
       <c r="BB14" s="592" t="n">
         <v>0.0</v>
       </c>
       <c r="BC14" s="595" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="BD14" s="598" t="n">
-        <v>0.886</v>
+        <v>0.139</v>
       </c>
       <c r="BE14" s="601" t="n">
-        <v>0.114</v>
+        <v>0.056</v>
       </c>
       <c r="BF14" s="604" t="n">
-        <v>1.457</v>
+        <v>1.222</v>
       </c>
       <c r="BG14" s="607" t="n">
-        <v>0.857</v>
+        <v>0.528</v>
       </c>
       <c r="BH14" s="610" t="n">
-        <v>2.143</v>
+        <v>2.0</v>
       </c>
       <c r="BI14" s="613" t="n">
-        <v>3.657</v>
+        <v>2.778</v>
       </c>
       <c r="BJ14" s="616" t="n">
-        <v>0.8</v>
+        <v>0.972</v>
       </c>
       <c r="BK14" s="619" t="n">
-        <v>0.371</v>
+        <v>0.0</v>
       </c>
       <c r="BL14" s="622" t="n">
-        <v>0.0</v>
+        <v>0.306</v>
       </c>
       <c r="BM14" s="625" t="n">
-        <v>0.657</v>
+        <v>0.278</v>
       </c>
       <c r="BN14" s="628" t="n">
-        <v>2.314</v>
+        <v>1.75</v>
       </c>
       <c r="BO14" s="631" t="n">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="BP14" s="634" t="n">
-        <v>0.314</v>
+        <v>0.972</v>
       </c>
       <c r="BQ14" s="637" t="n">
-        <v>0.857</v>
+        <v>0.0</v>
       </c>
       <c r="BR14" s="640" t="n">
-        <v>0.743</v>
+        <v>0.0</v>
       </c>
       <c r="BS14" s="643" t="n">
-        <v>0.0</v>
+        <v>0.556</v>
       </c>
       <c r="BT14" s="646" t="n">
-        <v>0.029</v>
+        <v>2.0</v>
       </c>
       <c r="BU14" s="649" t="n">
-        <v>0.086</v>
+        <v>0.056</v>
       </c>
       <c r="BV14" s="652" t="n">
-        <v>2.143</v>
+        <v>0.111</v>
       </c>
       <c r="BW14" s="655" t="n">
-        <v>0.0</v>
+        <v>0.667</v>
       </c>
       <c r="BX14" s="658" t="n">
-        <v>0.6</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="15">
@@ -6203,1138 +5108,451 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="805" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="808" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="F16" s="811" t="n">
+        <v>79</v>
+      </c>
+      <c r="D16" s="659" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="661" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="F16" s="663" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="665" t="n">
         <v>0.222</v>
       </c>
-      <c r="G16" s="814" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H16" s="817" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="I16" s="820" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="J16" s="823" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="826" t="n">
+      <c r="H16" s="667" t="n">
         <v>0.083</v>
       </c>
-      <c r="L16" s="829" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="M16" s="832" t="n">
+      <c r="I16" s="669" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="J16" s="671" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="K16" s="673" t="n">
         <v>0.361</v>
       </c>
-      <c r="N16" s="835" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="O16" s="838" t="n">
+      <c r="L16" s="675" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="677" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="N16" s="679" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O16" s="681" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="P16" s="683" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="Q16" s="685" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="R16" s="687" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="S16" s="689" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="691" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U16" s="693" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="V16" s="695" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16" s="697" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="699" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Y16" s="701" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z16" s="703" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AA16" s="705" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AB16" s="707" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" s="709" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" s="711" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AE16" s="713" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AF16" s="715" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG16" s="717" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AH16" s="719" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AI16" s="721" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AJ16" s="723" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK16" s="725" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL16" s="727" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM16" s="729" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AN16" s="731" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AO16" s="733" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP16" s="735" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ16" s="737" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="AR16" s="739" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS16" s="741" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="AT16" s="743" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AU16" s="745" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" s="747" t="n">
         <v>0.056</v>
       </c>
-      <c r="P16" s="841" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="Q16" s="844" t="n">
+      <c r="AW16" s="749" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="AX16" s="751" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY16" s="753" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ16" s="755" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="BA16" s="757" t="n">
         <v>0.417</v>
       </c>
-      <c r="R16" s="847" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="S16" s="850" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T16" s="853" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="856" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" s="859" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W16" s="862" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X16" s="865" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y16" s="868" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z16" s="871" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AA16" s="874" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AB16" s="877" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC16" s="880" t="n">
+      <c r="BB16" s="759" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" s="761" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BD16" s="763" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="BE16" s="765" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF16" s="767" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="BG16" s="769" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="BH16" s="771" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BI16" s="773" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ16" s="775" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="BK16" s="777" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL16" s="779" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BM16" s="781" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="BN16" s="783" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO16" s="785" t="n">
         <v>0.333</v>
       </c>
-      <c r="AD16" s="883" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE16" s="886" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AF16" s="889" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="892" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH16" s="895" t="n">
+      <c r="BP16" s="787" t="n">
         <v>0.583</v>
       </c>
-      <c r="AI16" s="898" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AJ16" s="901" t="n">
+      <c r="BQ16" s="789" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR16" s="791" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS16" s="793" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="BT16" s="795" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="BU16" s="797" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="BV16" s="799" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="BW16" s="801" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="BX16" s="803" t="n">
         <v>0.306</v>
-      </c>
-      <c r="AK16" s="904" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL16" s="907" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="AM16" s="910" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AN16" s="913" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO16" s="916" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AP16" s="919" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ16" s="922" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="AR16" s="925" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AS16" s="928" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="AT16" s="931" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU16" s="934" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="AV16" s="937" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW16" s="940" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX16" s="943" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AY16" s="946" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AZ16" s="949" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BA16" s="952" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB16" s="955" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="BC16" s="958" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD16" s="961" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="BE16" s="964" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="BF16" s="967" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="BG16" s="970" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BH16" s="973" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="BI16" s="976" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ16" s="979" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="BK16" s="982" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="BL16" s="985" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM16" s="988" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="BN16" s="991" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BO16" s="994" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="BP16" s="997" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="BQ16" s="1000" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="BR16" s="1003" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="BS16" s="1006" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BT16" s="1009" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BU16" s="1012" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BV16" s="1015" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="BW16" s="1018" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX16" s="1021" t="n">
-        <v>0.167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="806" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="E17" s="809" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="F17" s="812" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="G17" s="815" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="H17" s="818" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I17" s="821" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="J17" s="824" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="K17" s="827" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L17" s="830" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="M17" s="833" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="N17" s="836" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="O17" s="839" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P17" s="842" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="Q17" s="845" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="R17" s="848" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S17" s="851" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="T17" s="854" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="857" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" s="860" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="W17" s="863" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="X17" s="866" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="Y17" s="869" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="Z17" s="872" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="AA17" s="875" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB17" s="878" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="AC17" s="881" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="AD17" s="884" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE17" s="887" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF17" s="890" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="893" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="AH17" s="896" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="AI17" s="899" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="AJ17" s="902" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="AK17" s="905" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="AL17" s="908" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="AM17" s="911" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="AN17" s="914" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="AO17" s="917" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="AP17" s="920" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="AQ17" s="923" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="AR17" s="926" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS17" s="929" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="AT17" s="932" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU17" s="935" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="AV17" s="938" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="AW17" s="941" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX17" s="944" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AY17" s="947" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="AZ17" s="950" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="BA17" s="953" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB17" s="956" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="BC17" s="959" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD17" s="962" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="BE17" s="965" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BF17" s="968" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="BG17" s="971" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="BH17" s="974" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="BI17" s="977" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="BJ17" s="980" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="BK17" s="983" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="BL17" s="986" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM17" s="989" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="BN17" s="992" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="BO17" s="995" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="BP17" s="998" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="BQ17" s="1001" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="BR17" s="1004" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="BS17" s="1007" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="BT17" s="1010" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="BU17" s="1013" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="BV17" s="1016" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="BW17" s="1019" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX17" s="1022" t="n">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="807" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="810" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="813" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="G18" s="816" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="H18" s="819" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="I18" s="822" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="J18" s="825" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="K18" s="828" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="L18" s="831" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="M18" s="834" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="N18" s="837" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="O18" s="840" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="P18" s="843" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="Q18" s="846" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="R18" s="849" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="S18" s="852" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="T18" s="855" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="858" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V18" s="861" t="n">
-        <v>3.639</v>
-      </c>
-      <c r="W18" s="864" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="X18" s="867" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="Y18" s="870" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="Z18" s="873" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AA18" s="876" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB18" s="879" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC18" s="882" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="AD18" s="885" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE18" s="888" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF18" s="891" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="894" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="AH18" s="897" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="AI18" s="900" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="AJ18" s="903" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AK18" s="906" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="AL18" s="909" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="AM18" s="912" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AN18" s="915" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="AO18" s="918" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="AP18" s="921" t="n">
-        <v>2.611</v>
-      </c>
-      <c r="AQ18" s="924" t="n">
-        <v>1.389</v>
-      </c>
-      <c r="AR18" s="927" t="n">
-        <v>2.361</v>
-      </c>
-      <c r="AS18" s="930" t="n">
-        <v>1.639</v>
-      </c>
-      <c r="AT18" s="933" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU18" s="936" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="AV18" s="939" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="AW18" s="942" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX18" s="945" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="AY18" s="948" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AZ18" s="951" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BA18" s="954" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB18" s="957" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="BC18" s="960" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD18" s="963" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="BE18" s="966" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="BF18" s="969" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="BG18" s="972" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BH18" s="975" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="BI18" s="978" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="BJ18" s="981" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="BK18" s="984" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="BL18" s="987" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM18" s="990" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="BN18" s="993" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="BO18" s="996" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="BP18" s="999" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="BQ18" s="1002" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="BR18" s="1005" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="BS18" s="1008" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BT18" s="1011" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="BU18" s="1014" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="BV18" s="1017" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="BW18" s="1020" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX18" s="1023" t="n">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1024" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="1026" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="F20" s="1028" t="n">
-        <v>0.2255</v>
-      </c>
-      <c r="G20" s="1030" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="1032" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="I20" s="1034" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="J20" s="1036" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="1038" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="L20" s="1040" t="n">
-        <v>0.42200000000000004</v>
-      </c>
-      <c r="M20" s="1042" t="n">
-        <v>0.3805</v>
-      </c>
-      <c r="N20" s="1044" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="O20" s="1046" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="P20" s="1048" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="Q20" s="1050" t="n">
-        <v>0.5085</v>
-      </c>
-      <c r="R20" s="1052" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="S20" s="1054" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T20" s="1056" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="1058" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" s="1060" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W20" s="1062" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="X20" s="1064" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y20" s="1066" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="Z20" s="1068" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="AA20" s="1070" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="AB20" s="1072" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC20" s="1074" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AD20" s="1076" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE20" s="1078" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="AF20" s="1080" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG20" s="1082" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH20" s="1084" t="n">
-        <v>0.5485</v>
-      </c>
-      <c r="AI20" s="1086" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="AJ20" s="1088" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AK20" s="1090" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL20" s="1092" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AM20" s="1094" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" s="660" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="662" t="n">
+        <v>0.9156666666666666</v>
+      </c>
+      <c r="F17" s="664" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="666" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H17" s="668" t="n">
+        <v>0.08366666666666667</v>
+      </c>
+      <c r="I17" s="670" t="n">
+        <v>0.6636666666666666</v>
+      </c>
+      <c r="J17" s="672" t="n">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="K17" s="674" t="n">
+        <v>0.37399999999999994</v>
+      </c>
+      <c r="L17" s="676" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="678" t="n">
         <v>0.112</v>
       </c>
-      <c r="AN20" s="1096" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO20" s="1098" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="AP20" s="1100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ20" s="1102" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="AR20" s="1104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AS20" s="1106" t="n">
-        <v>0.8734999999999999</v>
-      </c>
-      <c r="AT20" s="1108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU20" s="1110" t="n">
-        <v>0.4085</v>
-      </c>
-      <c r="AV20" s="1112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW20" s="1114" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="AX20" s="1116" t="n">
-        <v>0.0985</v>
-      </c>
-      <c r="AY20" s="1118" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AZ20" s="1120" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="BA20" s="1122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB20" s="1124" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="BC20" s="1126" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="BD20" s="1128" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="BE20" s="1130" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="BF20" s="1132" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="BG20" s="1134" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="BH20" s="1136" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="BI20" s="1138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ20" s="1140" t="n">
-        <v>0.5765</v>
-      </c>
-      <c r="BK20" s="1142" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="BL20" s="1144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM20" s="1146" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="BN20" s="1148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BO20" s="1150" t="n">
-        <v>0.5485</v>
-      </c>
-      <c r="BP20" s="1152" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="BQ20" s="1154" t="n">
-        <v>0.5914999999999999</v>
-      </c>
-      <c r="BR20" s="1156" t="n">
-        <v>0.5075000000000001</v>
-      </c>
-      <c r="BS20" s="1158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT20" s="1160" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="BU20" s="1162" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="BV20" s="1164" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="BW20" s="1166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX20" s="1168" t="n">
-        <v>0.3815</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1025" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="1027" t="n">
-        <v>0.9152500000000001</v>
-      </c>
-      <c r="F21" s="1029" t="n">
-        <v>0.21850000000000003</v>
-      </c>
-      <c r="G21" s="1031" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="1033" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="I21" s="1035" t="n">
-        <v>0.6692499999999999</v>
-      </c>
-      <c r="J21" s="1037" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="1039" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="L21" s="1041" t="n">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="M21" s="1043" t="n">
-        <v>0.3805</v>
-      </c>
-      <c r="N21" s="1045" t="n">
-        <v>0.93675</v>
-      </c>
-      <c r="O21" s="1047" t="n">
-        <v>0.06325</v>
-      </c>
-      <c r="P21" s="1049" t="n">
-        <v>0.80975</v>
-      </c>
-      <c r="Q21" s="1051" t="n">
-        <v>0.5085</v>
-      </c>
-      <c r="R21" s="1053" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="S21" s="1055" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T21" s="1057" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="1059" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" s="1061" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W21" s="1063" t="n">
-        <v>0.16875</v>
-      </c>
-      <c r="X21" s="1065" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y21" s="1067" t="n">
-        <v>0.16875</v>
-      </c>
-      <c r="Z21" s="1069" t="n">
-        <v>0.16925</v>
-      </c>
-      <c r="AA21" s="1071" t="n">
-        <v>0.30325</v>
-      </c>
-      <c r="AB21" s="1073" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC21" s="1075" t="n">
-        <v>0.28875</v>
-      </c>
-      <c r="AD21" s="1077" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE21" s="1079" t="n">
-        <v>0.30325</v>
-      </c>
-      <c r="AF21" s="1081" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG21" s="1083" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH21" s="1085" t="n">
-        <v>0.5902499999999999</v>
-      </c>
-      <c r="AI21" s="1087" t="n">
-        <v>0.16925</v>
-      </c>
-      <c r="AJ21" s="1089" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="AK21" s="1091" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AL21" s="1093" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="AM21" s="1095" t="n">
-        <v>0.13275</v>
-      </c>
-      <c r="AN21" s="1097" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO21" s="1099" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="AP21" s="1101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ21" s="1103" t="n">
-        <v>0.8019999999999999</v>
-      </c>
-      <c r="AR21" s="1105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AS21" s="1107" t="n">
-        <v>0.8665</v>
-      </c>
-      <c r="AT21" s="1109" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="AU21" s="1111" t="n">
-        <v>0.42225</v>
-      </c>
-      <c r="AV21" s="1113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AW21" s="1115" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="AX21" s="1117" t="n">
-        <v>0.09175</v>
-      </c>
-      <c r="AY21" s="1119" t="n">
-        <v>0.2605</v>
-      </c>
-      <c r="AZ21" s="1121" t="n">
-        <v>0.0495</v>
-      </c>
-      <c r="BA21" s="1123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB21" s="1125" t="n">
-        <v>0.04175</v>
-      </c>
-      <c r="BC21" s="1127" t="n">
-        <v>0.0145</v>
-      </c>
-      <c r="BD21" s="1129" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="BE21" s="1131" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="BF21" s="1133" t="n">
-        <v>0.8659999999999999</v>
-      </c>
-      <c r="BG21" s="1135" t="n">
-        <v>0.50825</v>
-      </c>
-      <c r="BH21" s="1137" t="n">
-        <v>0.93675</v>
-      </c>
-      <c r="BI21" s="1139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ21" s="1141" t="n">
-        <v>0.5765</v>
-      </c>
-      <c r="BK21" s="1143" t="n">
-        <v>0.28875</v>
-      </c>
-      <c r="BL21" s="1145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM21" s="1147" t="n">
-        <v>0.41675</v>
-      </c>
-      <c r="BN21" s="1149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BO21" s="1151" t="n">
-        <v>0.5902499999999999</v>
-      </c>
-      <c r="BP21" s="1153" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="BQ21" s="1155" t="n">
-        <v>0.57775</v>
-      </c>
-      <c r="BR21" s="1157" t="n">
-        <v>0.5005000000000001</v>
-      </c>
-      <c r="BS21" s="1159" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="BT21" s="1161" t="n">
-        <v>0.07025</v>
-      </c>
-      <c r="BU21" s="1163" t="n">
-        <v>0.035500000000000004</v>
-      </c>
-      <c r="BV21" s="1165" t="n">
-        <v>0.93675</v>
-      </c>
-      <c r="BW21" s="1167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX21" s="1169" t="n">
-        <v>0.34675</v>
+      <c r="N17" s="680" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="O17" s="682" t="n">
+        <v>0.8130000000000001</v>
+      </c>
+      <c r="P17" s="684" t="n">
+        <v>0.06533333333333334</v>
+      </c>
+      <c r="Q17" s="686" t="n">
+        <v>0.9346666666666668</v>
+      </c>
+      <c r="R17" s="688" t="n">
+        <v>0.14033333333333334</v>
+      </c>
+      <c r="S17" s="690" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="692" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="694" t="n">
+        <v>0.17733333333333334</v>
+      </c>
+      <c r="V17" s="696" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W17" s="698" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="700" t="n">
+        <v>0.17733333333333334</v>
+      </c>
+      <c r="Y17" s="702" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z17" s="704" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="AA17" s="706" t="n">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AB17" s="708" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC17" s="710" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD17" s="712" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="AE17" s="714" t="n">
+        <v>0.2896666666666667</v>
+      </c>
+      <c r="AF17" s="716" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" s="718" t="n">
+        <v>0.6156666666666667</v>
+      </c>
+      <c r="AH17" s="720" t="n">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AI17" s="722" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AJ17" s="724" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK17" s="726" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL17" s="728" t="n">
+        <v>0.7760000000000001</v>
+      </c>
+      <c r="AM17" s="730" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AN17" s="732" t="n">
+        <v>0.15966666666666665</v>
+      </c>
+      <c r="AO17" s="734" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP17" s="736" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ17" s="738" t="n">
+        <v>0.8123333333333332</v>
+      </c>
+      <c r="AR17" s="740" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS17" s="742" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT17" s="744" t="n">
+        <v>0.26166666666666666</v>
+      </c>
+      <c r="AU17" s="746" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" s="748" t="n">
+        <v>0.05566666666666667</v>
+      </c>
+      <c r="AW17" s="750" t="n">
+        <v>0.6356666666666667</v>
+      </c>
+      <c r="AX17" s="752" t="n">
+        <v>0.009666666666666667</v>
+      </c>
+      <c r="AY17" s="754" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ17" s="756" t="n">
+        <v>0.08433333333333333</v>
+      </c>
+      <c r="BA17" s="758" t="n">
+        <v>0.4296666666666667</v>
+      </c>
+      <c r="BB17" s="760" t="n">
+        <v>0.009666666666666667</v>
+      </c>
+      <c r="BC17" s="762" t="n">
+        <v>0.04700000000000001</v>
+      </c>
+      <c r="BD17" s="764" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="BE17" s="766" t="n">
+        <v>0.018666666666666668</v>
+      </c>
+      <c r="BF17" s="768" t="n">
+        <v>0.8783333333333333</v>
+      </c>
+      <c r="BG17" s="770" t="n">
+        <v>0.4776666666666667</v>
+      </c>
+      <c r="BH17" s="772" t="n">
+        <v>0.9346666666666668</v>
+      </c>
+      <c r="BI17" s="774" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ17" s="776" t="n">
+        <v>0.5973333333333334</v>
+      </c>
+      <c r="BK17" s="778" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL17" s="780" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BM17" s="782" t="n">
+        <v>0.2896666666666667</v>
+      </c>
+      <c r="BN17" s="784" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO17" s="786" t="n">
+        <v>0.38433333333333336</v>
+      </c>
+      <c r="BP17" s="788" t="n">
+        <v>0.6156666666666667</v>
+      </c>
+      <c r="BQ17" s="790" t="n">
+        <v>0.018666666666666668</v>
+      </c>
+      <c r="BR17" s="792" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS17" s="794" t="n">
+        <v>0.48633333333333334</v>
+      </c>
+      <c r="BT17" s="796" t="n">
+        <v>0.9346666666666668</v>
+      </c>
+      <c r="BU17" s="798" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="BV17" s="800" t="n">
+        <v>0.03766666666666667</v>
+      </c>
+      <c r="BW17" s="802" t="n">
+        <v>0.5703333333333332</v>
+      </c>
+      <c r="BX17" s="804" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -7366,8 +5584,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
